--- a/SimulationStudyData/Model5/SimCase29_Yobs_SimRun1.xlsx
+++ b/SimulationStudyData/Model5/SimCase29_Yobs_SimRun1.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.4332043311599</v>
+        <v>-4.77543090640313</v>
       </c>
       <c r="B2" t="n">
-        <v>11.7681043198106</v>
+        <v>-5.42543177143287</v>
       </c>
       <c r="C2" t="n">
-        <v>11.1579258140593</v>
+        <v>-6.12225652000052</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4402485146275</v>
+        <v>-6.37954763578261</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8516534324448</v>
+        <v>-6.85726153975886</v>
       </c>
       <c r="F2" t="n">
-        <v>14.5761960666534</v>
+        <v>-7.5987730719631</v>
       </c>
       <c r="G2" t="n">
-        <v>16.700649151759</v>
+        <v>-8.34705916780917</v>
       </c>
       <c r="H2" t="n">
-        <v>17.3275891696243</v>
+        <v>-8.36462027274172</v>
       </c>
       <c r="I2" t="n">
-        <v>18.1124033961629</v>
+        <v>-8.6346819335635</v>
       </c>
       <c r="J2" t="n">
-        <v>19.6964215988127</v>
+        <v>-9.48684599250771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.77038865295194</v>
+        <v>8.83732750070413</v>
       </c>
       <c r="B3" t="n">
-        <v>9.9839058945071</v>
+        <v>10.7381680490573</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3784023266105</v>
+        <v>12.7980229583479</v>
       </c>
       <c r="D3" t="n">
-        <v>12.3583183306866</v>
+        <v>11.1481957282569</v>
       </c>
       <c r="E3" t="n">
-        <v>13.3168287529928</v>
+        <v>12.6223183600316</v>
       </c>
       <c r="F3" t="n">
-        <v>15.9142048264321</v>
+        <v>13.9155266589278</v>
       </c>
       <c r="G3" t="n">
-        <v>14.7191162587842</v>
+        <v>16.786384506791</v>
       </c>
       <c r="H3" t="n">
-        <v>15.7999427590314</v>
+        <v>15.6758449666196</v>
       </c>
       <c r="I3" t="n">
-        <v>-9.39968320625949</v>
+        <v>18.7403432023209</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.79183475925372</v>
+        <v>18.5880919074348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.26883652735551</v>
+        <v>9.74443242070738</v>
       </c>
       <c r="B4" t="n">
-        <v>10.314325501941</v>
+        <v>10.4876092358676</v>
       </c>
       <c r="C4" t="n">
-        <v>12.668258227519</v>
+        <v>12.0668517166573</v>
       </c>
       <c r="D4" t="n">
-        <v>13.3517955819932</v>
+        <v>12.4852816965182</v>
       </c>
       <c r="E4" t="n">
-        <v>14.0578023642955</v>
+        <v>14.2758386500181</v>
       </c>
       <c r="F4" t="n">
-        <v>14.9565316943537</v>
+        <v>14.7212252638764</v>
       </c>
       <c r="G4" t="n">
-        <v>15.2912872843555</v>
+        <v>16.3338205631168</v>
       </c>
       <c r="H4" t="n">
-        <v>17.7825403482088</v>
+        <v>17.3116920302741</v>
       </c>
       <c r="I4" t="n">
-        <v>18.076515722526</v>
+        <v>17.5140672495654</v>
       </c>
       <c r="J4" t="n">
-        <v>18.7013875632423</v>
+        <v>-9.75116969704965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.4980534121138</v>
+        <v>9.23396847810537</v>
       </c>
       <c r="B5" t="n">
-        <v>9.82860076520612</v>
+        <v>11.5492749134531</v>
       </c>
       <c r="C5" t="n">
-        <v>11.8276355648492</v>
+        <v>12.8319449703741</v>
       </c>
       <c r="D5" t="n">
-        <v>14.3452320436628</v>
+        <v>12.7734184580931</v>
       </c>
       <c r="E5" t="n">
-        <v>13.6162214414486</v>
+        <v>13.0775295647551</v>
       </c>
       <c r="F5" t="n">
-        <v>15.5396424352329</v>
+        <v>15.2230253061688</v>
       </c>
       <c r="G5" t="n">
-        <v>16.3625972152983</v>
+        <v>15.641710628292</v>
       </c>
       <c r="H5" t="n">
-        <v>18.4672648441432</v>
+        <v>16.749375343731</v>
       </c>
       <c r="I5" t="n">
-        <v>18.308577580577</v>
+        <v>18.0633518544559</v>
       </c>
       <c r="J5" t="n">
-        <v>18.7462183760807</v>
+        <v>18.0811724467163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.0921890675584</v>
+        <v>10.0242455571923</v>
       </c>
       <c r="B6" t="n">
-        <v>10.5865168874328</v>
+        <v>10.5712698443161</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2669945365729</v>
+        <v>11.8197534780619</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7289527515981</v>
+        <v>13.0601836462974</v>
       </c>
       <c r="E6" t="n">
-        <v>15.1768253746628</v>
+        <v>13.5574299165658</v>
       </c>
       <c r="F6" t="n">
-        <v>15.9308986912729</v>
+        <v>14.7423828751037</v>
       </c>
       <c r="G6" t="n">
-        <v>17.4323997951583</v>
+        <v>16.113860635363</v>
       </c>
       <c r="H6" t="n">
-        <v>16.6086879410868</v>
+        <v>17.1261426470479</v>
       </c>
       <c r="I6" t="n">
-        <v>17.8881931705412</v>
+        <v>17.3929725263888</v>
       </c>
       <c r="J6" t="n">
-        <v>18.8634636768752</v>
+        <v>18.0394566461029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.42245130204302</v>
+        <v>10.0569927613854</v>
       </c>
       <c r="B7" t="n">
-        <v>8.40174965822489</v>
+        <v>10.3882273113989</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4401419772797</v>
+        <v>11.117030108153</v>
       </c>
       <c r="D7" t="n">
-        <v>13.5867595743142</v>
+        <v>-6.35422020692532</v>
       </c>
       <c r="E7" t="n">
-        <v>14.3935209716928</v>
+        <v>-7.36226003506678</v>
       </c>
       <c r="F7" t="n">
-        <v>14.7604579547524</v>
+        <v>-7.94569431719011</v>
       </c>
       <c r="G7" t="n">
-        <v>16.7356852825327</v>
+        <v>-7.84686955733219</v>
       </c>
       <c r="H7" t="n">
-        <v>16.3664185864325</v>
+        <v>-8.38818033230246</v>
       </c>
       <c r="I7" t="n">
-        <v>17.8713571827158</v>
+        <v>-9.32340147616975</v>
       </c>
       <c r="J7" t="n">
-        <v>-9.52502472002876</v>
+        <v>-9.64768046597902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.49604344446181</v>
+        <v>-5.21399991640174</v>
       </c>
       <c r="B8" t="n">
-        <v>10.5527115543844</v>
+        <v>-5.2595269090094</v>
       </c>
       <c r="C8" t="n">
-        <v>13.2873130606461</v>
+        <v>-6.04817695178525</v>
       </c>
       <c r="D8" t="n">
-        <v>13.5529410493238</v>
+        <v>-6.3086439133074</v>
       </c>
       <c r="E8" t="n">
-        <v>14.2719587058051</v>
+        <v>-6.76034686255866</v>
       </c>
       <c r="F8" t="n">
-        <v>14.5080240384306</v>
+        <v>-7.17491034492385</v>
       </c>
       <c r="G8" t="n">
-        <v>14.9130947777949</v>
+        <v>-8.09252974339402</v>
       </c>
       <c r="H8" t="n">
-        <v>16.3751707590912</v>
+        <v>-7.89446460348592</v>
       </c>
       <c r="I8" t="n">
-        <v>18.1208657313355</v>
+        <v>-9.42618403422311</v>
       </c>
       <c r="J8" t="n">
-        <v>18.2562677621116</v>
+        <v>-9.83786764888514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.82258019553732</v>
+        <v>-4.94992839149108</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0711030245686</v>
+        <v>-5.93942599833534</v>
       </c>
       <c r="C9" t="n">
-        <v>12.2731369262624</v>
+        <v>-5.61933425597138</v>
       </c>
       <c r="D9" t="n">
-        <v>13.0522566419393</v>
+        <v>-6.50822963435302</v>
       </c>
       <c r="E9" t="n">
-        <v>13.387810807242</v>
+        <v>-7.0184689218451</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.76347437259913</v>
+        <v>-7.5852610517342</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.18769138236512</v>
+        <v>-7.90583083288102</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.26388645779464</v>
+        <v>-7.9424631030075</v>
       </c>
       <c r="I9" t="n">
-        <v>-8.84767314994343</v>
+        <v>-9.46825287268379</v>
       </c>
       <c r="J9" t="n">
-        <v>-9.48083682208847</v>
+        <v>-9.86612510771361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.08684919177738</v>
+        <v>9.24714339506345</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.55278333852603</v>
+        <v>11.1027738713338</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.69329773429069</v>
+        <v>13.5615494298087</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.39962798774723</v>
+        <v>13.0747197149436</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.04380999747427</v>
+        <v>12.4974404049773</v>
       </c>
       <c r="F10" t="n">
-        <v>-7.51539069212407</v>
+        <v>13.63030858807</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.90279690016391</v>
+        <v>15.8913773804226</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.36929973583092</v>
+        <v>16.0688807154885</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.83753759679547</v>
+        <v>17.5565079181647</v>
       </c>
       <c r="J10" t="n">
-        <v>-9.35159095751341</v>
+        <v>19.7348777274231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.3410354250428</v>
+        <v>9.54306704425193</v>
       </c>
       <c r="B11" t="n">
-        <v>9.90276571803972</v>
+        <v>11.7731813955162</v>
       </c>
       <c r="C11" t="n">
-        <v>11.1975789488108</v>
+        <v>12.0025538243636</v>
       </c>
       <c r="D11" t="n">
-        <v>12.2771586046709</v>
+        <v>12.12990558806</v>
       </c>
       <c r="E11" t="n">
-        <v>13.906734047738</v>
+        <v>14.1761269481107</v>
       </c>
       <c r="F11" t="n">
-        <v>14.6491327887361</v>
+        <v>15.9330624504441</v>
       </c>
       <c r="G11" t="n">
-        <v>15.3810984836287</v>
+        <v>16.5602447521156</v>
       </c>
       <c r="H11" t="n">
-        <v>18.8809752479483</v>
+        <v>17.4330987725342</v>
       </c>
       <c r="I11" t="n">
-        <v>17.7859753136435</v>
+        <v>16.8079358955505</v>
       </c>
       <c r="J11" t="n">
-        <v>18.8964743973331</v>
+        <v>17.6933047063213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.24953994079713</v>
+        <v>9.49006944655343</v>
       </c>
       <c r="B12" t="n">
-        <v>9.90042511830286</v>
+        <v>10.1670228395624</v>
       </c>
       <c r="C12" t="n">
-        <v>11.3410284253611</v>
+        <v>12.015248351309</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.35359799910206</v>
+        <v>13.4640505473656</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.81070801099179</v>
+        <v>12.8864592037034</v>
       </c>
       <c r="F12" t="n">
-        <v>-7.49498218083242</v>
+        <v>15.3826518689925</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.91751996084468</v>
+        <v>15.416861112406</v>
       </c>
       <c r="H12" t="n">
-        <v>-8.66186326159609</v>
+        <v>-8.94339136468345</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.51913555718565</v>
+        <v>-8.78346082444752</v>
       </c>
       <c r="J12" t="n">
-        <v>-9.65379565567272</v>
+        <v>-9.61751683950527</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.89163879929012</v>
+        <v>-4.93472423853358</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.68679012422077</v>
+        <v>-5.28701132420103</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.85813801541012</v>
+        <v>-6.29576961428829</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.63205533783314</v>
+        <v>-6.30530818862998</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.90567647200387</v>
+        <v>-7.37336847617073</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.53435119814669</v>
+        <v>-7.2223680813447</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.22958691346941</v>
+        <v>-8.13387003033031</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.4406976530287</v>
+        <v>-8.34752707208544</v>
       </c>
       <c r="I13" t="n">
-        <v>-9.01126417174306</v>
+        <v>-9.22021739752476</v>
       </c>
       <c r="J13" t="n">
-        <v>-9.72841153975197</v>
+        <v>-9.41775939679775</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.57250535977705</v>
+        <v>10.951406800236</v>
       </c>
       <c r="B14" t="n">
-        <v>11.8442929881502</v>
+        <v>11.0810704445645</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.29477624634321</v>
+        <v>11.9086323121381</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.55797695604786</v>
+        <v>12.6393028088304</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.83369848019117</v>
+        <v>14.7391844200231</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.08291516715969</v>
+        <v>14.0528750921436</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.96536342007028</v>
+        <v>15.704448264285</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.79661044657247</v>
+        <v>17.680546843687</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.94458074558635</v>
+        <v>17.5535893573406</v>
       </c>
       <c r="J14" t="n">
-        <v>-9.38033715188439</v>
+        <v>18.4359305823352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.0342454301614</v>
+        <v>9.66226705379734</v>
       </c>
       <c r="B15" t="n">
-        <v>11.6238378089264</v>
+        <v>10.5049066656785</v>
       </c>
       <c r="C15" t="n">
-        <v>11.008455525025</v>
+        <v>12.0409132278522</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.53811890831683</v>
+        <v>14.1180943112397</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.82780011675893</v>
+        <v>13.9370370885262</v>
       </c>
       <c r="F15" t="n">
-        <v>-7.33002344458485</v>
+        <v>15.9367320789952</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.671758663587</v>
+        <v>15.5176349182531</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.86911067390992</v>
+        <v>16.4637886417948</v>
       </c>
       <c r="I15" t="n">
-        <v>-9.22869223217771</v>
+        <v>17.072302605218</v>
       </c>
       <c r="J15" t="n">
-        <v>-9.50151946345561</v>
+        <v>19.1228551851867</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.3082567401576</v>
+        <v>10.4412161544237</v>
       </c>
       <c r="B16" t="n">
-        <v>11.6505586885797</v>
+        <v>11.1295660875385</v>
       </c>
       <c r="C16" t="n">
-        <v>11.9196223343033</v>
+        <v>12.2099175128035</v>
       </c>
       <c r="D16" t="n">
-        <v>12.0587744934024</v>
+        <v>-6.43660286972732</v>
       </c>
       <c r="E16" t="n">
-        <v>14.033853626129</v>
+        <v>-6.5698379606596</v>
       </c>
       <c r="F16" t="n">
-        <v>15.5078394674314</v>
+        <v>-7.80369581163647</v>
       </c>
       <c r="G16" t="n">
-        <v>17.7795405465793</v>
+        <v>-7.93834687942249</v>
       </c>
       <c r="H16" t="n">
-        <v>16.2144905983323</v>
+        <v>-8.77189341542508</v>
       </c>
       <c r="I16" t="n">
-        <v>18.203554329345</v>
+        <v>-8.87378127616994</v>
       </c>
       <c r="J16" t="n">
-        <v>19.3787798712419</v>
+        <v>-9.6634159981334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.97759548125742</v>
+        <v>10.3961943419961</v>
       </c>
       <c r="B17" t="n">
-        <v>11.626374563923</v>
+        <v>-5.67671077537411</v>
       </c>
       <c r="C17" t="n">
-        <v>10.4172923476072</v>
+        <v>-5.63669268599291</v>
       </c>
       <c r="D17" t="n">
-        <v>13.1415130515996</v>
+        <v>-6.5268751860668</v>
       </c>
       <c r="E17" t="n">
-        <v>13.4584994423406</v>
+        <v>-6.78358929684926</v>
       </c>
       <c r="F17" t="n">
-        <v>14.9376565417734</v>
+        <v>-7.96230649459178</v>
       </c>
       <c r="G17" t="n">
-        <v>15.7006145530293</v>
+        <v>-8.17270403920377</v>
       </c>
       <c r="H17" t="n">
-        <v>16.6823225970694</v>
+        <v>-8.51608932144994</v>
       </c>
       <c r="I17" t="n">
-        <v>18.5300171141861</v>
+        <v>-9.23500957472368</v>
       </c>
       <c r="J17" t="n">
-        <v>18.3458600513919</v>
+        <v>-9.09486616238788</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.84803297968703</v>
+        <v>10.2507241445543</v>
       </c>
       <c r="B18" t="n">
-        <v>10.3140434778954</v>
+        <v>11.2628457657409</v>
       </c>
       <c r="C18" t="n">
-        <v>12.4168440354419</v>
+        <v>10.200040536298</v>
       </c>
       <c r="D18" t="n">
-        <v>14.0045081768383</v>
+        <v>13.7713494089994</v>
       </c>
       <c r="E18" t="n">
-        <v>13.4370893857214</v>
+        <v>14.2338402656429</v>
       </c>
       <c r="F18" t="n">
-        <v>13.8683268158624</v>
+        <v>14.0198850130134</v>
       </c>
       <c r="G18" t="n">
-        <v>16.3598370742783</v>
+        <v>16.6043254826415</v>
       </c>
       <c r="H18" t="n">
-        <v>16.2084916026418</v>
+        <v>17.3517521830263</v>
       </c>
       <c r="I18" t="n">
-        <v>17.5128041144141</v>
+        <v>17.3776601024488</v>
       </c>
       <c r="J18" t="n">
-        <v>18.7915732395676</v>
+        <v>18.8842180787741</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.29082941559362</v>
+        <v>-4.45817604979675</v>
       </c>
       <c r="B19" t="n">
-        <v>11.18497309024</v>
+        <v>-5.80205161108945</v>
       </c>
       <c r="C19" t="n">
-        <v>11.5790088216427</v>
+        <v>-5.56038444392593</v>
       </c>
       <c r="D19" t="n">
-        <v>12.1345377182248</v>
+        <v>-6.57367271573654</v>
       </c>
       <c r="E19" t="n">
-        <v>14.0300711725672</v>
+        <v>-6.87105965890232</v>
       </c>
       <c r="F19" t="n">
-        <v>15.1208175098684</v>
+        <v>-7.61185120591675</v>
       </c>
       <c r="G19" t="n">
-        <v>15.280325264642</v>
+        <v>-7.98561781484293</v>
       </c>
       <c r="H19" t="n">
-        <v>17.5362899021817</v>
+        <v>-8.52868768345333</v>
       </c>
       <c r="I19" t="n">
-        <v>18.309281097165</v>
+        <v>-8.94884023709615</v>
       </c>
       <c r="J19" t="n">
-        <v>18.5583502367262</v>
+        <v>-9.3447911613825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.023301223799</v>
+        <v>9.78833527549554</v>
       </c>
       <c r="B20" t="n">
-        <v>10.8267108590892</v>
+        <v>9.89103650477105</v>
       </c>
       <c r="C20" t="n">
-        <v>11.3971122780357</v>
+        <v>12.0359266646901</v>
       </c>
       <c r="D20" t="n">
-        <v>13.5757788557978</v>
+        <v>12.4404356437506</v>
       </c>
       <c r="E20" t="n">
-        <v>13.2978828134662</v>
+        <v>13.7385337016207</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.94420063489118</v>
+        <v>13.801347229545</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.11588727557448</v>
+        <v>15.713237507826</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.86302063163609</v>
+        <v>17.5924852399861</v>
       </c>
       <c r="I20" t="n">
-        <v>-9.33662914575329</v>
+        <v>17.1661342375025</v>
       </c>
       <c r="J20" t="n">
-        <v>-9.37877325947064</v>
+        <v>19.8351580877563</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.07161698942807</v>
+        <v>-5.00551392976508</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.23045044317203</v>
+        <v>-5.54366278819747</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.66585728507188</v>
+        <v>-5.75583206420897</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.37671603759219</v>
+        <v>-6.10674998247202</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.69640197184139</v>
+        <v>-6.76356438667406</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.4015493281637</v>
+        <v>-7.84744906988842</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.90263124007435</v>
+        <v>-7.91230313088393</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.87201889144904</v>
+        <v>-8.47249275464581</v>
       </c>
       <c r="I21" t="n">
-        <v>-8.77093651237449</v>
+        <v>-8.9037578922532</v>
       </c>
       <c r="J21" t="n">
-        <v>-9.27227970449822</v>
+        <v>-9.43562792106583</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.1469726241891</v>
+        <v>9.05223637833297</v>
       </c>
       <c r="B22" t="n">
-        <v>10.8009233676545</v>
+        <v>11.1532195910955</v>
       </c>
       <c r="C22" t="n">
-        <v>13.2815282082834</v>
+        <v>12.306011907261</v>
       </c>
       <c r="D22" t="n">
-        <v>13.7336012960505</v>
+        <v>11.8852100812665</v>
       </c>
       <c r="E22" t="n">
-        <v>13.3300080666131</v>
+        <v>13.2736129283255</v>
       </c>
       <c r="F22" t="n">
-        <v>14.7041404844951</v>
+        <v>15.7477027517525</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.19985357265324</v>
+        <v>16.4947338862417</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.55580463925105</v>
+        <v>17.705657519154</v>
       </c>
       <c r="I22" t="n">
-        <v>-9.24366144154956</v>
+        <v>18.0917998028971</v>
       </c>
       <c r="J22" t="n">
-        <v>-9.51831197440167</v>
+        <v>18.7812092330853</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.89065532112297</v>
+        <v>8.88854331633956</v>
       </c>
       <c r="B23" t="n">
-        <v>10.3191704182679</v>
+        <v>10.6441740851289</v>
       </c>
       <c r="C23" t="n">
-        <v>12.1139949203288</v>
+        <v>12.9714986985296</v>
       </c>
       <c r="D23" t="n">
-        <v>13.5811884095682</v>
+        <v>14.3599310379273</v>
       </c>
       <c r="E23" t="n">
-        <v>13.328568549515</v>
+        <v>15.1562087001776</v>
       </c>
       <c r="F23" t="n">
-        <v>14.8300922414489</v>
+        <v>14.0298569409565</v>
       </c>
       <c r="G23" t="n">
-        <v>16.5465159789356</v>
+        <v>15.8186291555954</v>
       </c>
       <c r="H23" t="n">
-        <v>16.0935204354119</v>
+        <v>17.8497267444674</v>
       </c>
       <c r="I23" t="n">
-        <v>18.4868830562479</v>
+        <v>16.9808042132527</v>
       </c>
       <c r="J23" t="n">
-        <v>19.5226995661964</v>
+        <v>19.3959626814929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.18051465396348</v>
+        <v>10.9430538112012</v>
       </c>
       <c r="B24" t="n">
-        <v>11.1140474525377</v>
+        <v>-5.97237497276766</v>
       </c>
       <c r="C24" t="n">
-        <v>12.159712889489</v>
+        <v>-5.92004874450267</v>
       </c>
       <c r="D24" t="n">
-        <v>13.6063328575405</v>
+        <v>-6.55713074098473</v>
       </c>
       <c r="E24" t="n">
-        <v>13.3820843996977</v>
+        <v>-7.21939821669753</v>
       </c>
       <c r="F24" t="n">
-        <v>14.4797332981736</v>
+        <v>-7.58343802430806</v>
       </c>
       <c r="G24" t="n">
-        <v>16.0873652392127</v>
+        <v>-7.84430315602801</v>
       </c>
       <c r="H24" t="n">
-        <v>16.8280232598693</v>
+        <v>-8.89396820365723</v>
       </c>
       <c r="I24" t="n">
-        <v>17.5138131939468</v>
+        <v>-9.31478524759958</v>
       </c>
       <c r="J24" t="n">
-        <v>18.5190122735008</v>
+        <v>-9.64031605055291</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.3536973688611</v>
+        <v>-5.36081379889008</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0923742063657</v>
+        <v>-5.31827094174318</v>
       </c>
       <c r="C25" t="n">
-        <v>11.5065586396003</v>
+        <v>-6.28870296745291</v>
       </c>
       <c r="D25" t="n">
-        <v>12.9854563690475</v>
+        <v>-6.34828909737307</v>
       </c>
       <c r="E25" t="n">
-        <v>13.6954247847501</v>
+        <v>-7.2270365391694</v>
       </c>
       <c r="F25" t="n">
-        <v>13.831057183675</v>
+        <v>-7.76545024464328</v>
       </c>
       <c r="G25" t="n">
-        <v>16.1644634214988</v>
+        <v>-7.7874216292544</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721730192365</v>
+        <v>-8.84445334397384</v>
       </c>
       <c r="I25" t="n">
-        <v>-8.62771292335699</v>
+        <v>-9.61522416437525</v>
       </c>
       <c r="J25" t="n">
-        <v>-9.44989509174523</v>
+        <v>-9.43631685242337</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-4.78192649004645</v>
+        <v>10.01276455549</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.4622316176128</v>
+        <v>11.3694162133506</v>
       </c>
       <c r="C26" t="n">
-        <v>-6.04238524699049</v>
+        <v>11.3275680372937</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.87874332113212</v>
+        <v>12.7569890842373</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.99943161236363</v>
+        <v>14.0697626858933</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.02568544991077</v>
+        <v>15.6946787074497</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.93775764954005</v>
+        <v>17.2276223199245</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.24021283617261</v>
+        <v>15.8246896668756</v>
       </c>
       <c r="I26" t="n">
-        <v>-9.34907307470117</v>
+        <v>18.2921748361326</v>
       </c>
       <c r="J26" t="n">
-        <v>-9.5149453486181</v>
+        <v>18.765856111718</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.2003590929517</v>
+        <v>8.68219208954747</v>
       </c>
       <c r="B27" t="n">
-        <v>10.297931832065</v>
+        <v>11.9955300135611</v>
       </c>
       <c r="C27" t="n">
-        <v>13.3271781997991</v>
+        <v>12.1430801848691</v>
       </c>
       <c r="D27" t="n">
-        <v>12.8492956720182</v>
+        <v>12.6835277175302</v>
       </c>
       <c r="E27" t="n">
-        <v>13.4719507138876</v>
+        <v>14.2160169099698</v>
       </c>
       <c r="F27" t="n">
-        <v>13.4963569708657</v>
+        <v>14.3910378395538</v>
       </c>
       <c r="G27" t="n">
-        <v>16.6973997532889</v>
+        <v>18.1949028907521</v>
       </c>
       <c r="H27" t="n">
-        <v>17.5778182251095</v>
+        <v>17.8141102610972</v>
       </c>
       <c r="I27" t="n">
-        <v>18.6418007327679</v>
+        <v>17.2868644695519</v>
       </c>
       <c r="J27" t="n">
-        <v>20.2612277435834</v>
+        <v>18.8377197646522</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11.5102758842256</v>
+        <v>9.53449429324918</v>
       </c>
       <c r="B28" t="n">
-        <v>11.2254219535573</v>
+        <v>9.97666631220813</v>
       </c>
       <c r="C28" t="n">
-        <v>13.1219658545157</v>
+        <v>-5.79690448755345</v>
       </c>
       <c r="D28" t="n">
-        <v>11.1959955962013</v>
+        <v>-6.35043775084195</v>
       </c>
       <c r="E28" t="n">
-        <v>14.5833145554602</v>
+        <v>-7.17512729250892</v>
       </c>
       <c r="F28" t="n">
-        <v>14.6837071887819</v>
+        <v>-7.30920881525399</v>
       </c>
       <c r="G28" t="n">
-        <v>16.6748547756874</v>
+        <v>-7.93840270191269</v>
       </c>
       <c r="H28" t="n">
-        <v>17.5112789148345</v>
+        <v>-8.34414309758183</v>
       </c>
       <c r="I28" t="n">
-        <v>17.8459462319122</v>
+        <v>-8.94759591627381</v>
       </c>
       <c r="J28" t="n">
-        <v>-9.95359293655087</v>
+        <v>-9.98337378947266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10.5962126236666</v>
+        <v>9.11426685176995</v>
       </c>
       <c r="B29" t="n">
-        <v>10.3563082890294</v>
+        <v>10.026698106607</v>
       </c>
       <c r="C29" t="n">
-        <v>11.8860061506464</v>
+        <v>11.3815044149359</v>
       </c>
       <c r="D29" t="n">
-        <v>14.0469759698661</v>
+        <v>13.1481421793448</v>
       </c>
       <c r="E29" t="n">
-        <v>13.5456608716652</v>
+        <v>13.6468645464932</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.3620466697401</v>
+        <v>15.4684911982066</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.24013338488077</v>
+        <v>-7.87948110701839</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.50028239025803</v>
+        <v>-8.44446287587059</v>
       </c>
       <c r="I29" t="n">
-        <v>-9.26723769832495</v>
+        <v>-8.86888063261973</v>
       </c>
       <c r="J29" t="n">
-        <v>-9.37678575555066</v>
+        <v>-9.2971216455414</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.84296255056442</v>
+        <v>10.675917177351</v>
       </c>
       <c r="B30" t="n">
-        <v>11.6738617569366</v>
+        <v>11.4965996963602</v>
       </c>
       <c r="C30" t="n">
-        <v>11.645388434743</v>
+        <v>11.3015484067656</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.30703669550127</v>
+        <v>13.2330698151012</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.74673962011325</v>
+        <v>15.1413042074307</v>
       </c>
       <c r="F30" t="n">
-        <v>-7.18234850070328</v>
+        <v>14.9750843268832</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.83590262193802</v>
+        <v>15.6290972216209</v>
       </c>
       <c r="H30" t="n">
-        <v>-8.29492245305537</v>
+        <v>17.7564283517585</v>
       </c>
       <c r="I30" t="n">
-        <v>-9.04457818653089</v>
+        <v>19.1459672529033</v>
       </c>
       <c r="J30" t="n">
-        <v>-9.75655643218374</v>
+        <v>19.4591298744589</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-4.92649563355515</v>
+        <v>9.32341361726159</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.69072866159824</v>
+        <v>10.4687801555576</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.84011558232</v>
+        <v>10.986733973852</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.56398383653559</v>
+        <v>13.1739300130768</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.78318129338215</v>
+        <v>14.3628985833851</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.41805984568727</v>
+        <v>14.6704877436131</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.86788912629053</v>
+        <v>16.6040905647501</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.63365578101454</v>
+        <v>17.1413492969048</v>
       </c>
       <c r="I31" t="n">
-        <v>-8.85784423802859</v>
+        <v>18.682251955669</v>
       </c>
       <c r="J31" t="n">
-        <v>-9.4133798512031</v>
+        <v>18.0307586522079</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.84354985537302</v>
+        <v>-5.0681823901676</v>
       </c>
       <c r="B32" t="n">
-        <v>11.2014101464412</v>
+        <v>-5.19806621444069</v>
       </c>
       <c r="C32" t="n">
-        <v>13.3207946786992</v>
+        <v>-6.26861508785213</v>
       </c>
       <c r="D32" t="n">
-        <v>12.7818249058739</v>
+        <v>-6.39675760089581</v>
       </c>
       <c r="E32" t="n">
-        <v>14.7504369979526</v>
+        <v>-6.9966421921775</v>
       </c>
       <c r="F32" t="n">
-        <v>14.9006666483653</v>
+        <v>-7.15516037742487</v>
       </c>
       <c r="G32" t="n">
-        <v>15.2610882963337</v>
+        <v>-8.02049061996645</v>
       </c>
       <c r="H32" t="n">
-        <v>16.9089602200006</v>
+        <v>-8.15336256363434</v>
       </c>
       <c r="I32" t="n">
-        <v>18.6837519206479</v>
+        <v>-9.02408216152812</v>
       </c>
       <c r="J32" t="n">
-        <v>18.1524274318304</v>
+        <v>-9.52485930184448</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.5855716256962</v>
+        <v>8.81191851947001</v>
       </c>
       <c r="B33" t="n">
-        <v>11.9294789334583</v>
+        <v>10.172615227918</v>
       </c>
       <c r="C33" t="n">
-        <v>10.8964185684372</v>
+        <v>11.0588245913412</v>
       </c>
       <c r="D33" t="n">
-        <v>13.6389646491865</v>
+        <v>13.1657073081411</v>
       </c>
       <c r="E33" t="n">
-        <v>14.1919586385236</v>
+        <v>13.9508497187778</v>
       </c>
       <c r="F33" t="n">
-        <v>14.5934107173653</v>
+        <v>-7.46675806109256</v>
       </c>
       <c r="G33" t="n">
-        <v>16.6286866588259</v>
+        <v>-8.16011808409545</v>
       </c>
       <c r="H33" t="n">
-        <v>17.3637157225196</v>
+        <v>-8.48305867376983</v>
       </c>
       <c r="I33" t="n">
-        <v>18.967760625811</v>
+        <v>-8.6083931229446</v>
       </c>
       <c r="J33" t="n">
-        <v>17.882176023269</v>
+        <v>-9.74480569223686</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.34913014822455</v>
+        <v>-4.82695277188537</v>
       </c>
       <c r="B34" t="n">
-        <v>10.6361104766995</v>
+        <v>-4.9833736099702</v>
       </c>
       <c r="C34" t="n">
-        <v>12.094284017757</v>
+        <v>-6.1925134299657</v>
       </c>
       <c r="D34" t="n">
-        <v>11.4960408913433</v>
+        <v>-7.10842044208933</v>
       </c>
       <c r="E34" t="n">
-        <v>14.0928093943862</v>
+        <v>-6.75837234664889</v>
       </c>
       <c r="F34" t="n">
-        <v>-7.40204607811573</v>
+        <v>-7.52672777880399</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.26708648834988</v>
+        <v>-8.27349381044055</v>
       </c>
       <c r="H34" t="n">
-        <v>-8.42969389095643</v>
+        <v>-8.45154793865983</v>
       </c>
       <c r="I34" t="n">
-        <v>-8.89333484286377</v>
+        <v>-9.1570162357792</v>
       </c>
       <c r="J34" t="n">
-        <v>-9.16670031268733</v>
+        <v>-9.90165877152472</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10.693657851057</v>
+        <v>10.8067473026662</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.40836493134638</v>
+        <v>10.74777695541</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.94742842186965</v>
+        <v>10.758530524861</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.2258073285573</v>
+        <v>13.4945561346121</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.16798791066864</v>
+        <v>15.095340576445</v>
       </c>
       <c r="F35" t="n">
-        <v>-7.21433171262765</v>
+        <v>15.3025071578394</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.74174448699815</v>
+        <v>16.3732661240731</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.38499128819357</v>
+        <v>17.5276301747176</v>
       </c>
       <c r="I35" t="n">
-        <v>-9.269741903049</v>
+        <v>-8.93156416429304</v>
       </c>
       <c r="J35" t="n">
-        <v>-9.38293836636029</v>
+        <v>-9.53932575392388</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-4.84185800488174</v>
+        <v>11.4447977446561</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.14953669505152</v>
+        <v>10.0588734203757</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.10259303543784</v>
+        <v>-6.07361389410172</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.40618217158549</v>
+        <v>-6.43814670812367</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.80257636047666</v>
+        <v>-7.32277700766074</v>
       </c>
       <c r="F36" t="n">
-        <v>-7.41693688004127</v>
+        <v>-8.12125897629294</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.10524010406336</v>
+        <v>-7.6817861029815</v>
       </c>
       <c r="H36" t="n">
-        <v>-8.45449040435665</v>
+        <v>-8.27524197399077</v>
       </c>
       <c r="I36" t="n">
-        <v>-9.24855051843807</v>
+        <v>-9.10453767117199</v>
       </c>
       <c r="J36" t="n">
-        <v>-9.36465143575789</v>
+        <v>-9.84719078060077</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-4.58297686086311</v>
+        <v>10.8182323738981</v>
       </c>
       <c r="B37" t="n">
-        <v>-5.96807319455778</v>
+        <v>-5.89031084268767</v>
       </c>
       <c r="C37" t="n">
-        <v>-6.23864036189954</v>
+        <v>-6.41915535168787</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.63403335022647</v>
+        <v>-6.13232760029744</v>
       </c>
       <c r="E37" t="n">
-        <v>-6.79923582474095</v>
+        <v>-7.26476176188592</v>
       </c>
       <c r="F37" t="n">
-        <v>-7.56525864625121</v>
+        <v>-7.29661608039024</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.61916089021892</v>
+        <v>-7.7672289020413</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.95771509244537</v>
+        <v>-8.89624536966936</v>
       </c>
       <c r="I37" t="n">
-        <v>16.6027316371283</v>
+        <v>-8.86689748979144</v>
       </c>
       <c r="J37" t="n">
-        <v>18.910062812218</v>
+        <v>18.9514398882197</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.43654716516125</v>
+        <v>9.94121347957903</v>
       </c>
       <c r="B38" t="n">
-        <v>10.7904856444436</v>
+        <v>10.8773303648808</v>
       </c>
       <c r="C38" t="n">
-        <v>12.1963529519967</v>
+        <v>13.147365659469</v>
       </c>
       <c r="D38" t="n">
-        <v>15.3049640346535</v>
+        <v>12.2930850336193</v>
       </c>
       <c r="E38" t="n">
-        <v>14.1186606663468</v>
+        <v>14.3469663229531</v>
       </c>
       <c r="F38" t="n">
-        <v>15.5206234211424</v>
+        <v>15.2376805090744</v>
       </c>
       <c r="G38" t="n">
-        <v>15.3818614009785</v>
+        <v>15.4817062699373</v>
       </c>
       <c r="H38" t="n">
-        <v>18.0037082007652</v>
+        <v>17.2219259717122</v>
       </c>
       <c r="I38" t="n">
-        <v>18.1796697372101</v>
+        <v>17.5273071770975</v>
       </c>
       <c r="J38" t="n">
-        <v>18.4833213532721</v>
+        <v>19.6879360597399</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10.4677700038915</v>
+        <v>10.4351306971469</v>
       </c>
       <c r="B39" t="n">
-        <v>11.1881826933769</v>
+        <v>10.7706737790739</v>
       </c>
       <c r="C39" t="n">
-        <v>12.4240432386038</v>
+        <v>11.1822115381818</v>
       </c>
       <c r="D39" t="n">
-        <v>13.2564452873536</v>
+        <v>13.1160414506664</v>
       </c>
       <c r="E39" t="n">
-        <v>12.5623629464565</v>
+        <v>14.356642049682</v>
       </c>
       <c r="F39" t="n">
-        <v>13.2316780389508</v>
+        <v>14.4060661755621</v>
       </c>
       <c r="G39" t="n">
-        <v>16.1487985818711</v>
+        <v>15.8464015418644</v>
       </c>
       <c r="H39" t="n">
-        <v>16.8894331986601</v>
+        <v>17.3299369837535</v>
       </c>
       <c r="I39" t="n">
-        <v>18.1391892251999</v>
+        <v>19.0312993283487</v>
       </c>
       <c r="J39" t="n">
-        <v>20.0263080870797</v>
+        <v>18.8618388200533</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11.7597939105134</v>
+        <v>-4.81816288195842</v>
       </c>
       <c r="B40" t="n">
-        <v>11.01597483498</v>
+        <v>-5.26471705771398</v>
       </c>
       <c r="C40" t="n">
-        <v>11.4077232825177</v>
+        <v>-6.41523333109521</v>
       </c>
       <c r="D40" t="n">
-        <v>-6.71075429181212</v>
+        <v>-6.58528692037169</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.21226973600555</v>
+        <v>-7.00183781875461</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.52535748445762</v>
+        <v>-7.01212035155717</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.43341189176675</v>
+        <v>-8.32493338257656</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.32933390527817</v>
+        <v>-8.15158004656714</v>
       </c>
       <c r="I40" t="n">
-        <v>-9.00772615980289</v>
+        <v>-9.27717249145413</v>
       </c>
       <c r="J40" t="n">
-        <v>-9.63760232662785</v>
+        <v>-9.61721098715499</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9.1234738985104</v>
+        <v>-5.35072344602758</v>
       </c>
       <c r="B41" t="n">
-        <v>9.43665986130733</v>
+        <v>-5.57717266564942</v>
       </c>
       <c r="C41" t="n">
-        <v>12.553601906406</v>
+        <v>-5.74536331463695</v>
       </c>
       <c r="D41" t="n">
-        <v>12.8821734621816</v>
+        <v>-6.34917600946636</v>
       </c>
       <c r="E41" t="n">
-        <v>13.4751603321073</v>
+        <v>-7.80147174393003</v>
       </c>
       <c r="F41" t="n">
-        <v>15.5275324651807</v>
+        <v>-7.79953944809425</v>
       </c>
       <c r="G41" t="n">
-        <v>15.6751626457407</v>
+        <v>-8.04500246997955</v>
       </c>
       <c r="H41" t="n">
-        <v>16.9079601864319</v>
+        <v>-8.37087435791754</v>
       </c>
       <c r="I41" t="n">
-        <v>18.0316793357654</v>
+        <v>-9.29757001014036</v>
       </c>
       <c r="J41" t="n">
-        <v>18.7199139907255</v>
+        <v>-9.68824997925401</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.86214162012053</v>
+        <v>10.6602820631972</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.38458531288602</v>
+        <v>11.430359551427</v>
       </c>
       <c r="C42" t="n">
-        <v>-5.95364212165219</v>
+        <v>12.7110441263846</v>
       </c>
       <c r="D42" t="n">
-        <v>-6.50158058261559</v>
+        <v>13.2979846839521</v>
       </c>
       <c r="E42" t="n">
-        <v>-6.7198902648076</v>
+        <v>14.769109107592</v>
       </c>
       <c r="F42" t="n">
-        <v>-7.55690251311389</v>
+        <v>-7.47563945903022</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.17816301842251</v>
+        <v>-8.05796658560735</v>
       </c>
       <c r="H42" t="n">
-        <v>-8.65721353928394</v>
+        <v>-8.55429265051759</v>
       </c>
       <c r="I42" t="n">
-        <v>-9.32668285237716</v>
+        <v>-8.74182046594185</v>
       </c>
       <c r="J42" t="n">
-        <v>-9.3853299317498</v>
+        <v>-9.38388290554966</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9.80676303455117</v>
+        <v>11.8166880595453</v>
       </c>
       <c r="B43" t="n">
-        <v>10.573037454205</v>
+        <v>-5.51027739519</v>
       </c>
       <c r="C43" t="n">
-        <v>11.920618160089</v>
+        <v>-5.97983448208783</v>
       </c>
       <c r="D43" t="n">
-        <v>12.8269010345466</v>
+        <v>-6.03219334359907</v>
       </c>
       <c r="E43" t="n">
-        <v>14.2554300762174</v>
+        <v>-6.96905669438394</v>
       </c>
       <c r="F43" t="n">
-        <v>15.0640397096799</v>
+        <v>-7.92890255013714</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.91785037756654</v>
+        <v>-7.75109927694377</v>
       </c>
       <c r="H43" t="n">
-        <v>-8.43558501253033</v>
+        <v>-8.54111362024693</v>
       </c>
       <c r="I43" t="n">
-        <v>-9.18125195831577</v>
+        <v>-8.87598657826784</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.78490186377701</v>
+        <v>-9.78876678474506</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-5.07801830236465</v>
+        <v>10.1296128976257</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.96932725339245</v>
+        <v>11.1633375186664</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.87832616356338</v>
+        <v>11.9181269623141</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.4634958362923</v>
+        <v>-6.60442086044513</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.14658463609181</v>
+        <v>-6.94028553863777</v>
       </c>
       <c r="F44" t="n">
-        <v>-7.54768590864924</v>
+        <v>-7.65072739983495</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.00611384546593</v>
+        <v>-8.11166099378394</v>
       </c>
       <c r="H44" t="n">
-        <v>-8.62148560190236</v>
+        <v>-8.93742729534933</v>
       </c>
       <c r="I44" t="n">
-        <v>-8.94636950110831</v>
+        <v>-8.81865526383327</v>
       </c>
       <c r="J44" t="n">
-        <v>-9.33562235218015</v>
+        <v>-9.33746651657352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.7480285345072</v>
+        <v>-4.98476992565227</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0403398520129</v>
+        <v>-5.43093864640156</v>
       </c>
       <c r="C45" t="n">
-        <v>11.5936859919602</v>
+        <v>-5.51327155635953</v>
       </c>
       <c r="D45" t="n">
-        <v>12.7907731697441</v>
+        <v>-6.49332846378789</v>
       </c>
       <c r="E45" t="n">
-        <v>14.3941201696322</v>
+        <v>-7.26928181683464</v>
       </c>
       <c r="F45" t="n">
-        <v>14.5830745874829</v>
+        <v>-7.40288167166675</v>
       </c>
       <c r="G45" t="n">
-        <v>16.2980553756195</v>
+        <v>-8.47057443787305</v>
       </c>
       <c r="H45" t="n">
-        <v>17.8076711190335</v>
+        <v>-9.01196546272156</v>
       </c>
       <c r="I45" t="n">
-        <v>18.5789908804277</v>
+        <v>-9.06076153640488</v>
       </c>
       <c r="J45" t="n">
-        <v>19.3767486150148</v>
+        <v>-9.85476361563004</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-5.23824050903556</v>
+        <v>8.41202079198696</v>
       </c>
       <c r="B46" t="n">
-        <v>-5.38289870833826</v>
+        <v>11.3694226414627</v>
       </c>
       <c r="C46" t="n">
-        <v>-5.93847403320547</v>
+        <v>13.3088217372818</v>
       </c>
       <c r="D46" t="n">
-        <v>-6.44059711286643</v>
+        <v>12.7357598124604</v>
       </c>
       <c r="E46" t="n">
-        <v>-6.66924644621913</v>
+        <v>14.7314938537416</v>
       </c>
       <c r="F46" t="n">
-        <v>-7.94408578091982</v>
+        <v>15.4899256811775</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.69174666474431</v>
+        <v>16.8575905340729</v>
       </c>
       <c r="H46" t="n">
-        <v>-8.61738675862755</v>
+        <v>16.5495033765834</v>
       </c>
       <c r="I46" t="n">
-        <v>-9.17161566416336</v>
+        <v>18.0260496612409</v>
       </c>
       <c r="J46" t="n">
-        <v>-10.0471320017678</v>
+        <v>19.1542261464044</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-5.09494230440582</v>
+        <v>10.3666993217604</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.47555476299622</v>
+        <v>10.720516545304</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.75122500335855</v>
+        <v>11.8633522034419</v>
       </c>
       <c r="D47" t="n">
-        <v>-6.5583676110553</v>
+        <v>12.5257337699133</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.10394496545899</v>
+        <v>14.3194361158149</v>
       </c>
       <c r="F47" t="n">
-        <v>-7.50198263037332</v>
+        <v>14.7056281087586</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.62128330867733</v>
+        <v>16.3168714642002</v>
       </c>
       <c r="H47" t="n">
-        <v>-8.2396095601845</v>
+        <v>17.3832416063113</v>
       </c>
       <c r="I47" t="n">
-        <v>-9.43499796971446</v>
+        <v>18.4158811445124</v>
       </c>
       <c r="J47" t="n">
-        <v>-9.35798421453892</v>
+        <v>18.0027332924431</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-5.40416806857059</v>
+        <v>10.1105466594828</v>
       </c>
       <c r="B48" t="n">
-        <v>-5.34666140968737</v>
+        <v>10.6296669159439</v>
       </c>
       <c r="C48" t="n">
-        <v>-6.1023907226619</v>
+        <v>11.6656815830175</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.61964001677348</v>
+        <v>12.8041904069096</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.01760240167828</v>
+        <v>14.0711886460189</v>
       </c>
       <c r="F48" t="n">
-        <v>-7.70451433558162</v>
+        <v>15.894104076953</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.00076185370177</v>
+        <v>16.2558985108723</v>
       </c>
       <c r="H48" t="n">
-        <v>-8.36506074783263</v>
+        <v>16.0322585465582</v>
       </c>
       <c r="I48" t="n">
-        <v>-8.85174789116745</v>
+        <v>17.0645038598743</v>
       </c>
       <c r="J48" t="n">
-        <v>-10.1164921265038</v>
+        <v>18.271263272317</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10.8021323928798</v>
+        <v>10.2480362960457</v>
       </c>
       <c r="B49" t="n">
-        <v>11.1655757472262</v>
+        <v>12.3019188786026</v>
       </c>
       <c r="C49" t="n">
-        <v>-6.29519401125647</v>
+        <v>11.7751289475243</v>
       </c>
       <c r="D49" t="n">
-        <v>-6.70875372958825</v>
+        <v>12.3013548787572</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.07221139569173</v>
+        <v>13.4239335126134</v>
       </c>
       <c r="F49" t="n">
-        <v>-7.43397252183154</v>
+        <v>15.4020673685602</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.96945277814131</v>
+        <v>17.0871996678087</v>
       </c>
       <c r="H49" t="n">
-        <v>-8.22135489297032</v>
+        <v>16.4802705833869</v>
       </c>
       <c r="I49" t="n">
-        <v>-9.25800385932901</v>
+        <v>19.2986005280925</v>
       </c>
       <c r="J49" t="n">
-        <v>-9.37361777922213</v>
+        <v>18.181569605034</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.3414183973763</v>
+        <v>9.55833869105568</v>
       </c>
       <c r="B50" t="n">
-        <v>10.3098586003526</v>
+        <v>9.25047478849643</v>
       </c>
       <c r="C50" t="n">
-        <v>12.1441148485174</v>
+        <v>10.8092238946838</v>
       </c>
       <c r="D50" t="n">
-        <v>-6.2182963486371</v>
+        <v>12.1296123455751</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.61889867648188</v>
+        <v>13.8658135599193</v>
       </c>
       <c r="F50" t="n">
-        <v>-7.0762250135737</v>
+        <v>14.2521710129388</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.74606456440894</v>
+        <v>15.8867144136179</v>
       </c>
       <c r="H50" t="n">
-        <v>-8.4459843503732</v>
+        <v>17.1966913724098</v>
       </c>
       <c r="I50" t="n">
-        <v>-9.13397702806826</v>
+        <v>18.7574752890558</v>
       </c>
       <c r="J50" t="n">
-        <v>-9.15425861273441</v>
+        <v>18.7467796916612</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10.7854247572985</v>
+        <v>9.13758646015832</v>
       </c>
       <c r="B51" t="n">
-        <v>10.538950375234</v>
+        <v>10.9841185376449</v>
       </c>
       <c r="C51" t="n">
-        <v>13.7963763556144</v>
+        <v>9.92998503468425</v>
       </c>
       <c r="D51" t="n">
-        <v>14.6511598142106</v>
+        <v>12.6657101110066</v>
       </c>
       <c r="E51" t="n">
-        <v>14.7286716896801</v>
+        <v>13.7765768444011</v>
       </c>
       <c r="F51" t="n">
-        <v>14.5705838818444</v>
+        <v>14.1110473951171</v>
       </c>
       <c r="G51" t="n">
-        <v>15.4671198079638</v>
+        <v>16.7775847500315</v>
       </c>
       <c r="H51" t="n">
-        <v>17.0251571706147</v>
+        <v>16.9180184287725</v>
       </c>
       <c r="I51" t="n">
-        <v>19.0183640234376</v>
+        <v>18.9114494094248</v>
       </c>
       <c r="J51" t="n">
-        <v>18.2304576683978</v>
+        <v>19.7397274679267</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.78696917704206</v>
+        <v>11.4616953771621</v>
       </c>
       <c r="B52" t="n">
-        <v>10.6236622790466</v>
+        <v>10.6125187164557</v>
       </c>
       <c r="C52" t="n">
-        <v>11.6253074931042</v>
+        <v>11.7001020654861</v>
       </c>
       <c r="D52" t="n">
-        <v>13.5601331841294</v>
+        <v>12.9921251863957</v>
       </c>
       <c r="E52" t="n">
-        <v>13.2349485748458</v>
+        <v>13.7326488614398</v>
       </c>
       <c r="F52" t="n">
-        <v>15.5999685130701</v>
+        <v>14.3625059443273</v>
       </c>
       <c r="G52" t="n">
-        <v>15.774226567053</v>
+        <v>16.8887869430629</v>
       </c>
       <c r="H52" t="n">
-        <v>17.443280046603</v>
+        <v>16.4048584816767</v>
       </c>
       <c r="I52" t="n">
-        <v>17.9775718071542</v>
+        <v>18.7315399943384</v>
       </c>
       <c r="J52" t="n">
-        <v>18.9990486227527</v>
+        <v>19.3777433250743</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8.52464597435657</v>
+        <v>-4.68698577399863</v>
       </c>
       <c r="B53" t="n">
-        <v>10.055438876028</v>
+        <v>-5.06914715913641</v>
       </c>
       <c r="C53" t="n">
-        <v>13.2434869408165</v>
+        <v>-6.22009639299368</v>
       </c>
       <c r="D53" t="n">
-        <v>12.8913084444881</v>
+        <v>-6.86530838728174</v>
       </c>
       <c r="E53" t="n">
-        <v>14.6675210690614</v>
+        <v>-6.80540503996581</v>
       </c>
       <c r="F53" t="n">
-        <v>13.9257432341225</v>
+        <v>-7.74477643301266</v>
       </c>
       <c r="G53" t="n">
-        <v>14.9644454629918</v>
+        <v>-8.35521275058741</v>
       </c>
       <c r="H53" t="n">
-        <v>17.336914418476</v>
+        <v>-8.47642010065619</v>
       </c>
       <c r="I53" t="n">
-        <v>17.1822817664509</v>
+        <v>-8.86598574329214</v>
       </c>
       <c r="J53" t="n">
-        <v>19.2157137088987</v>
+        <v>-9.33573253721409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10.8810394919419</v>
+        <v>-5.16034892277486</v>
       </c>
       <c r="B54" t="n">
-        <v>10.4617247349351</v>
+        <v>-5.63378385301018</v>
       </c>
       <c r="C54" t="n">
-        <v>11.8810524284718</v>
+        <v>-5.97675156138624</v>
       </c>
       <c r="D54" t="n">
-        <v>13.6944671018368</v>
+        <v>-6.59539747569417</v>
       </c>
       <c r="E54" t="n">
-        <v>14.4711491652774</v>
+        <v>-7.20258314078149</v>
       </c>
       <c r="F54" t="n">
-        <v>14.0706657483408</v>
+        <v>-7.24968750065573</v>
       </c>
       <c r="G54" t="n">
-        <v>14.7862928509721</v>
+        <v>-7.57081703337464</v>
       </c>
       <c r="H54" t="n">
-        <v>16.7794885620148</v>
+        <v>-8.04873739046992</v>
       </c>
       <c r="I54" t="n">
-        <v>18.2240538844863</v>
+        <v>-9.25920206413065</v>
       </c>
       <c r="J54" t="n">
-        <v>18.699099787781</v>
+        <v>-9.60708615626559</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10.0891144920457</v>
+        <v>9.36280053929358</v>
       </c>
       <c r="B55" t="n">
-        <v>10.0806008767348</v>
+        <v>10.8110106669735</v>
       </c>
       <c r="C55" t="n">
-        <v>11.8081411292357</v>
+        <v>12.2835862832175</v>
       </c>
       <c r="D55" t="n">
-        <v>12.2618491539204</v>
+        <v>12.1608141889416</v>
       </c>
       <c r="E55" t="n">
-        <v>13.8478471120306</v>
+        <v>13.4028244943745</v>
       </c>
       <c r="F55" t="n">
-        <v>15.0392044030773</v>
+        <v>13.8484874436958</v>
       </c>
       <c r="G55" t="n">
-        <v>16.6552022277222</v>
+        <v>16.499740416679</v>
       </c>
       <c r="H55" t="n">
-        <v>16.845084385027</v>
+        <v>16.3624244688185</v>
       </c>
       <c r="I55" t="n">
-        <v>17.5994631877716</v>
+        <v>17.203390318723</v>
       </c>
       <c r="J55" t="n">
-        <v>18.0308267193801</v>
+        <v>19.4009091839035</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-5.23465176044834</v>
+        <v>10.2379785535463</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.47336034825471</v>
+        <v>10.70257375698</v>
       </c>
       <c r="C56" t="n">
-        <v>-5.58137657094573</v>
+        <v>12.0588276834659</v>
       </c>
       <c r="D56" t="n">
-        <v>-6.14569685980142</v>
+        <v>13.001326076347</v>
       </c>
       <c r="E56" t="n">
-        <v>-6.8545743460518</v>
+        <v>13.720232459208</v>
       </c>
       <c r="F56" t="n">
-        <v>-7.69080394472215</v>
+        <v>14.1988430145398</v>
       </c>
       <c r="G56" t="n">
-        <v>16.2199949015317</v>
+        <v>16.0746879710065</v>
       </c>
       <c r="H56" t="n">
-        <v>16.8585190140162</v>
+        <v>17.5788993955606</v>
       </c>
       <c r="I56" t="n">
-        <v>17.1783798351771</v>
+        <v>18.6516927204285</v>
       </c>
       <c r="J56" t="n">
-        <v>18.7810094803034</v>
+        <v>17.7257730836469</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.96794322036617</v>
+        <v>10.5680195157204</v>
       </c>
       <c r="B57" t="n">
-        <v>12.1883679246769</v>
+        <v>12.6217635751573</v>
       </c>
       <c r="C57" t="n">
-        <v>12.2580004811264</v>
+        <v>10.5377377044089</v>
       </c>
       <c r="D57" t="n">
-        <v>12.5964605281795</v>
+        <v>13.1412650888619</v>
       </c>
       <c r="E57" t="n">
-        <v>13.5385917133321</v>
+        <v>14.7579815025827</v>
       </c>
       <c r="F57" t="n">
-        <v>14.5492628445829</v>
+        <v>14.9505225124022</v>
       </c>
       <c r="G57" t="n">
-        <v>15.7012059762579</v>
+        <v>15.1242526013626</v>
       </c>
       <c r="H57" t="n">
-        <v>15.728060392648</v>
+        <v>18.0730680286888</v>
       </c>
       <c r="I57" t="n">
-        <v>19.7102833538493</v>
+        <v>17.2124512877659</v>
       </c>
       <c r="J57" t="n">
-        <v>19.2099189965243</v>
+        <v>18.3054751011651</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9.58242424745232</v>
+        <v>10.5867183967745</v>
       </c>
       <c r="B58" t="n">
-        <v>9.25054138735648</v>
+        <v>10.8127986198354</v>
       </c>
       <c r="C58" t="n">
-        <v>11.3374391904911</v>
+        <v>11.430505483749</v>
       </c>
       <c r="D58" t="n">
-        <v>11.9058402792569</v>
+        <v>13.798425937696</v>
       </c>
       <c r="E58" t="n">
-        <v>14.3258730376237</v>
+        <v>13.8994603661452</v>
       </c>
       <c r="F58" t="n">
-        <v>14.6795114686106</v>
+        <v>14.0863399200901</v>
       </c>
       <c r="G58" t="n">
-        <v>16.2376569398947</v>
+        <v>15.6881140528</v>
       </c>
       <c r="H58" t="n">
-        <v>18.9616766678347</v>
+        <v>16.2290432580526</v>
       </c>
       <c r="I58" t="n">
-        <v>17.5119738309046</v>
+        <v>-9.75385165775716</v>
       </c>
       <c r="J58" t="n">
-        <v>18.3254718958705</v>
+        <v>-9.24474706227887</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11.449160799286</v>
+        <v>-5.42824175322671</v>
       </c>
       <c r="B59" t="n">
-        <v>11.4596129436207</v>
+        <v>12.1118087684779</v>
       </c>
       <c r="C59" t="n">
-        <v>11.4160123191425</v>
+        <v>12.2714401897745</v>
       </c>
       <c r="D59" t="n">
-        <v>12.7629824683126</v>
+        <v>12.5277946543823</v>
       </c>
       <c r="E59" t="n">
-        <v>13.7909463914745</v>
+        <v>13.0992830574833</v>
       </c>
       <c r="F59" t="n">
-        <v>14.9127972690226</v>
+        <v>15.3134176538175</v>
       </c>
       <c r="G59" t="n">
-        <v>15.3520513358252</v>
+        <v>15.5009507975556</v>
       </c>
       <c r="H59" t="n">
-        <v>17.611651832987</v>
+        <v>15.9988133214057</v>
       </c>
       <c r="I59" t="n">
-        <v>17.0497147130943</v>
+        <v>18.6284831126064</v>
       </c>
       <c r="J59" t="n">
-        <v>19.6963797260544</v>
+        <v>17.6524141269304</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.52238846273658</v>
+        <v>10.4987093159391</v>
       </c>
       <c r="B60" t="n">
-        <v>11.2977537956967</v>
+        <v>9.915830284587</v>
       </c>
       <c r="C60" t="n">
-        <v>11.1966561526617</v>
+        <v>11.3572405053429</v>
       </c>
       <c r="D60" t="n">
-        <v>12.5181528542884</v>
+        <v>13.2577364013229</v>
       </c>
       <c r="E60" t="n">
-        <v>13.5233341083933</v>
+        <v>11.8632480431706</v>
       </c>
       <c r="F60" t="n">
-        <v>15.3058431428488</v>
+        <v>15.9044218844432</v>
       </c>
       <c r="G60" t="n">
-        <v>16.5191953428285</v>
+        <v>-8.27301966702543</v>
       </c>
       <c r="H60" t="n">
-        <v>17.3724180950792</v>
+        <v>-8.43909102947063</v>
       </c>
       <c r="I60" t="n">
-        <v>16.621344390556</v>
+        <v>-8.7436461812247</v>
       </c>
       <c r="J60" t="n">
-        <v>19.651699277701</v>
+        <v>-9.45862468655561</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10.2607050503282</v>
+        <v>12.0351851499386</v>
       </c>
       <c r="B61" t="n">
-        <v>9.41844835500759</v>
+        <v>11.1756177899158</v>
       </c>
       <c r="C61" t="n">
-        <v>10.8763137270558</v>
+        <v>11.3950333684106</v>
       </c>
       <c r="D61" t="n">
-        <v>12.9567872330264</v>
+        <v>12.8045907167788</v>
       </c>
       <c r="E61" t="n">
-        <v>15.6262953696509</v>
+        <v>14.3292616010715</v>
       </c>
       <c r="F61" t="n">
-        <v>14.4802151581995</v>
+        <v>15.5798235723138</v>
       </c>
       <c r="G61" t="n">
-        <v>16.2045476651823</v>
+        <v>16.9382919311533</v>
       </c>
       <c r="H61" t="n">
-        <v>17.6528428093737</v>
+        <v>16.3219312007355</v>
       </c>
       <c r="I61" t="n">
-        <v>18.6962087738419</v>
+        <v>18.5317378832909</v>
       </c>
       <c r="J61" t="n">
-        <v>17.9142395059497</v>
+        <v>18.9237767178722</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10.2059489638065</v>
+        <v>9.05436790520487</v>
       </c>
       <c r="B62" t="n">
-        <v>10.3176281239999</v>
+        <v>11.2229672891374</v>
       </c>
       <c r="C62" t="n">
-        <v>13.049297399718</v>
+        <v>12.2185919545109</v>
       </c>
       <c r="D62" t="n">
-        <v>12.3374760485118</v>
+        <v>13.2537992618763</v>
       </c>
       <c r="E62" t="n">
-        <v>14.8093934122439</v>
+        <v>14.0178653674283</v>
       </c>
       <c r="F62" t="n">
-        <v>15.0965904451308</v>
+        <v>15.5993136258875</v>
       </c>
       <c r="G62" t="n">
-        <v>16.6719019327859</v>
+        <v>15.6964348903319</v>
       </c>
       <c r="H62" t="n">
-        <v>18.1614184225943</v>
+        <v>17.6747211113702</v>
       </c>
       <c r="I62" t="n">
-        <v>18.406048599088</v>
+        <v>17.8185099896226</v>
       </c>
       <c r="J62" t="n">
-        <v>19.1715994999844</v>
+        <v>18.0020436135293</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10.0894716869274</v>
+        <v>9.251968465805</v>
       </c>
       <c r="B63" t="n">
-        <v>10.9175091607988</v>
+        <v>10.6106111326402</v>
       </c>
       <c r="C63" t="n">
-        <v>11.8860184885554</v>
+        <v>10.6510942370092</v>
       </c>
       <c r="D63" t="n">
-        <v>12.1641199114394</v>
+        <v>-6.33630801197951</v>
       </c>
       <c r="E63" t="n">
-        <v>13.1233998439065</v>
+        <v>-6.70789580511834</v>
       </c>
       <c r="F63" t="n">
-        <v>14.6435431531819</v>
+        <v>-7.36573139999337</v>
       </c>
       <c r="G63" t="n">
-        <v>15.9093503695017</v>
+        <v>-7.78188940285413</v>
       </c>
       <c r="H63" t="n">
-        <v>15.6556523750914</v>
+        <v>-8.39988385028272</v>
       </c>
       <c r="I63" t="n">
-        <v>17.6188011066491</v>
+        <v>-9.03330235834814</v>
       </c>
       <c r="J63" t="n">
-        <v>17.7223692491369</v>
+        <v>-9.46103467070179</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10.7171548508203</v>
+        <v>-5.28735888441019</v>
       </c>
       <c r="B64" t="n">
-        <v>10.3498619779703</v>
+        <v>-5.68482463324149</v>
       </c>
       <c r="C64" t="n">
-        <v>13.0357049477136</v>
+        <v>-5.75148631518319</v>
       </c>
       <c r="D64" t="n">
-        <v>12.3374870862545</v>
+        <v>-7.05856316671336</v>
       </c>
       <c r="E64" t="n">
-        <v>12.255729771302</v>
+        <v>-7.0376403049698</v>
       </c>
       <c r="F64" t="n">
-        <v>15.6753664546921</v>
+        <v>-7.66382649283486</v>
       </c>
       <c r="G64" t="n">
-        <v>16.734548737047</v>
+        <v>-7.76017747459499</v>
       </c>
       <c r="H64" t="n">
-        <v>-8.45837841646229</v>
+        <v>-8.65621324697251</v>
       </c>
       <c r="I64" t="n">
-        <v>-9.05843523347474</v>
+        <v>-9.04564104539683</v>
       </c>
       <c r="J64" t="n">
-        <v>-9.79652751685291</v>
+        <v>-9.2412957068737</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9.67413276642946</v>
+        <v>10.9639803462662</v>
       </c>
       <c r="B65" t="n">
-        <v>11.560427872771</v>
+        <v>10.1733621809462</v>
       </c>
       <c r="C65" t="n">
-        <v>10.5392882424014</v>
+        <v>12.6280384234351</v>
       </c>
       <c r="D65" t="n">
-        <v>13.6931781217764</v>
+        <v>13.0507103982037</v>
       </c>
       <c r="E65" t="n">
-        <v>13.2713746658739</v>
+        <v>13.7716897301672</v>
       </c>
       <c r="F65" t="n">
-        <v>14.6590101725411</v>
+        <v>16.6946051608304</v>
       </c>
       <c r="G65" t="n">
-        <v>14.5545652743931</v>
+        <v>16.2599784199188</v>
       </c>
       <c r="H65" t="n">
-        <v>17.5004475627048</v>
+        <v>17.4589436865382</v>
       </c>
       <c r="I65" t="n">
-        <v>18.6927400219291</v>
+        <v>18.1791141675944</v>
       </c>
       <c r="J65" t="n">
-        <v>19.3382641663819</v>
+        <v>18.0318267194955</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-5.17401009222903</v>
+        <v>-4.86990597939319</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.17399294104931</v>
+        <v>-5.65678701080651</v>
       </c>
       <c r="C66" t="n">
-        <v>-6.35650597963743</v>
+        <v>-5.59184001675029</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.08869304950103</v>
+        <v>-6.44672535468912</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.9653800228524</v>
+        <v>-6.64680126148877</v>
       </c>
       <c r="F66" t="n">
-        <v>-7.42708527395752</v>
+        <v>-7.19266357046737</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.31438562945761</v>
+        <v>-7.70392442518034</v>
       </c>
       <c r="H66" t="n">
-        <v>-8.64491901051257</v>
+        <v>-8.15565286266686</v>
       </c>
       <c r="I66" t="n">
-        <v>-9.19238893098162</v>
+        <v>-9.12590976303107</v>
       </c>
       <c r="J66" t="n">
-        <v>-9.73493433699525</v>
+        <v>-9.6118352821408</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10.2385206285386</v>
+        <v>-4.8499060319171</v>
       </c>
       <c r="B67" t="n">
-        <v>10.7227282039064</v>
+        <v>-5.13005082819069</v>
       </c>
       <c r="C67" t="n">
-        <v>11.5657869319576</v>
+        <v>-6.02331940428636</v>
       </c>
       <c r="D67" t="n">
-        <v>12.1510551824823</v>
+        <v>-6.88279524922456</v>
       </c>
       <c r="E67" t="n">
-        <v>13.418243814975</v>
+        <v>-7.6865965812212</v>
       </c>
       <c r="F67" t="n">
-        <v>-7.30639689898184</v>
+        <v>-7.33891705016817</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.76177303305273</v>
+        <v>-8.39530818906243</v>
       </c>
       <c r="H67" t="n">
-        <v>-8.64938386924751</v>
+        <v>-8.95343907083229</v>
       </c>
       <c r="I67" t="n">
-        <v>-8.62949366002483</v>
+        <v>-8.80830458992391</v>
       </c>
       <c r="J67" t="n">
-        <v>-9.80995661401385</v>
+        <v>-9.63285656908052</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10.3546785522804</v>
+        <v>8.66418458477285</v>
       </c>
       <c r="B68" t="n">
-        <v>10.6795829408093</v>
+        <v>12.1496444149736</v>
       </c>
       <c r="C68" t="n">
-        <v>12.9971143986695</v>
+        <v>12.7771893874428</v>
       </c>
       <c r="D68" t="n">
-        <v>13.1135700205989</v>
+        <v>11.9075501471476</v>
       </c>
       <c r="E68" t="n">
-        <v>12.6425618576031</v>
+        <v>14.2261306077364</v>
       </c>
       <c r="F68" t="n">
-        <v>-7.36305328785829</v>
+        <v>15.1194679795892</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.13696626373366</v>
+        <v>15.9607841782782</v>
       </c>
       <c r="H68" t="n">
-        <v>-8.52233078581577</v>
+        <v>16.8553336412608</v>
       </c>
       <c r="I68" t="n">
-        <v>-9.06540624954736</v>
+        <v>17.6204441619639</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.9842416593926</v>
+        <v>19.3105673268485</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10.6690400022178</v>
+        <v>10.7552635858324</v>
       </c>
       <c r="B69" t="n">
-        <v>10.3472845754942</v>
+        <v>11.0540677821076</v>
       </c>
       <c r="C69" t="n">
-        <v>12.8171615509791</v>
+        <v>11.436219882314</v>
       </c>
       <c r="D69" t="n">
-        <v>12.2017437713221</v>
+        <v>12.3211944603472</v>
       </c>
       <c r="E69" t="n">
-        <v>14.3968067907892</v>
+        <v>14.7700515361478</v>
       </c>
       <c r="F69" t="n">
-        <v>14.0524271957387</v>
+        <v>14.4951807482262</v>
       </c>
       <c r="G69" t="n">
-        <v>16.6633844082561</v>
+        <v>16.2133469916007</v>
       </c>
       <c r="H69" t="n">
-        <v>18.2536153920996</v>
+        <v>17.0080836319329</v>
       </c>
       <c r="I69" t="n">
-        <v>19.1544004696384</v>
+        <v>17.9559374285407</v>
       </c>
       <c r="J69" t="n">
-        <v>18.2312797625182</v>
+        <v>18.5652245437286</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10.0671058591661</v>
+        <v>12.1174999606464</v>
       </c>
       <c r="B70" t="n">
-        <v>10.0332490532762</v>
+        <v>10.4239549429743</v>
       </c>
       <c r="C70" t="n">
-        <v>11.1838609400037</v>
+        <v>12.1664286686425</v>
       </c>
       <c r="D70" t="n">
-        <v>12.5355846979541</v>
+        <v>12.5288860762399</v>
       </c>
       <c r="E70" t="n">
-        <v>14.3617422035882</v>
+        <v>13.6262800089921</v>
       </c>
       <c r="F70" t="n">
-        <v>14.6412639022182</v>
+        <v>15.0793846888462</v>
       </c>
       <c r="G70" t="n">
-        <v>15.408739039851</v>
+        <v>15.2517920881247</v>
       </c>
       <c r="H70" t="n">
-        <v>16.6313584769828</v>
+        <v>15.9245150600767</v>
       </c>
       <c r="I70" t="n">
-        <v>18.6582305501961</v>
+        <v>17.9097042025772</v>
       </c>
       <c r="J70" t="n">
-        <v>18.8376364399912</v>
+        <v>18.6555475298783</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9.40583262578882</v>
+        <v>-4.79440865239329</v>
       </c>
       <c r="B71" t="n">
-        <v>10.9707115972307</v>
+        <v>-5.44968069378668</v>
       </c>
       <c r="C71" t="n">
-        <v>12.4379727383598</v>
+        <v>-6.08282791154209</v>
       </c>
       <c r="D71" t="n">
-        <v>13.4070614056875</v>
+        <v>-6.45384527481315</v>
       </c>
       <c r="E71" t="n">
-        <v>14.3229328840865</v>
+        <v>-7.64458075583184</v>
       </c>
       <c r="F71" t="n">
-        <v>14.803445847358</v>
+        <v>-7.29312672727219</v>
       </c>
       <c r="G71" t="n">
-        <v>15.7231176368074</v>
+        <v>-8.0651734413217</v>
       </c>
       <c r="H71" t="n">
-        <v>15.7185567821165</v>
+        <v>-8.54206810100589</v>
       </c>
       <c r="I71" t="n">
-        <v>18.7508843469704</v>
+        <v>-8.87922879937663</v>
       </c>
       <c r="J71" t="n">
-        <v>17.738713642991</v>
+        <v>-9.44403286687242</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10.0752245055638</v>
+        <v>10.1127091481977</v>
       </c>
       <c r="B72" t="n">
-        <v>12.1524677105334</v>
+        <v>10.9785685744632</v>
       </c>
       <c r="C72" t="n">
-        <v>11.7471394854346</v>
+        <v>12.3089559431213</v>
       </c>
       <c r="D72" t="n">
-        <v>13.316830901573</v>
+        <v>12.7577718603211</v>
       </c>
       <c r="E72" t="n">
-        <v>13.8058826226671</v>
+        <v>15.1814569094389</v>
       </c>
       <c r="F72" t="n">
-        <v>-7.24251708486978</v>
+        <v>14.0562774609639</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.80990451790836</v>
+        <v>16.5973147252206</v>
       </c>
       <c r="H72" t="n">
-        <v>-8.57298497042985</v>
+        <v>15.8161690844802</v>
       </c>
       <c r="I72" t="n">
-        <v>-8.90855486999227</v>
+        <v>18.8311282094156</v>
       </c>
       <c r="J72" t="n">
-        <v>-9.49256741957166</v>
+        <v>19.125107573172</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-4.91190377868102</v>
+        <v>-4.72938270580074</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.35149378283749</v>
+        <v>-5.83885719722569</v>
       </c>
       <c r="C73" t="n">
-        <v>-6.67080342311059</v>
+        <v>-5.83540750325072</v>
       </c>
       <c r="D73" t="n">
-        <v>-6.82614944026774</v>
+        <v>-6.59468329188476</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.98830289793815</v>
+        <v>-7.20873494497456</v>
       </c>
       <c r="F73" t="n">
-        <v>-7.21614707562693</v>
+        <v>-7.63263000812758</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.30667625093281</v>
+        <v>-8.16370994598293</v>
       </c>
       <c r="H73" t="n">
-        <v>-8.45589819316803</v>
+        <v>-8.78628627849717</v>
       </c>
       <c r="I73" t="n">
-        <v>-8.89095137790169</v>
+        <v>-9.3235663559698</v>
       </c>
       <c r="J73" t="n">
-        <v>-9.84313484026235</v>
+        <v>-9.88739470438629</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8.84845963705824</v>
+        <v>-4.85453691830233</v>
       </c>
       <c r="B74" t="n">
-        <v>11.8868301364325</v>
+        <v>-5.46488528043216</v>
       </c>
       <c r="C74" t="n">
-        <v>11.5914421689622</v>
+        <v>-6.11085362203002</v>
       </c>
       <c r="D74" t="n">
-        <v>11.9882635099148</v>
+        <v>-6.1182268960366</v>
       </c>
       <c r="E74" t="n">
-        <v>11.9336558918798</v>
+        <v>-7.08487329421028</v>
       </c>
       <c r="F74" t="n">
-        <v>13.8961993772873</v>
+        <v>-7.32345250706431</v>
       </c>
       <c r="G74" t="n">
-        <v>16.2904175510768</v>
+        <v>-8.08638249749511</v>
       </c>
       <c r="H74" t="n">
-        <v>17.6195869028474</v>
+        <v>-8.18503926476202</v>
       </c>
       <c r="I74" t="n">
-        <v>17.4354293633644</v>
+        <v>-9.10750704009811</v>
       </c>
       <c r="J74" t="n">
-        <v>20.0005176904402</v>
+        <v>-9.50578674656164</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9.31483308981516</v>
+        <v>-5.15884780500766</v>
       </c>
       <c r="B75" t="n">
-        <v>10.8441816839417</v>
+        <v>-5.84552276897612</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.99111305747256</v>
+        <v>-6.3060077728493</v>
       </c>
       <c r="D75" t="n">
-        <v>-6.54230753564284</v>
+        <v>-6.05452732892537</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.83383156099691</v>
+        <v>-7.00682649114394</v>
       </c>
       <c r="F75" t="n">
-        <v>-7.5418438460676</v>
+        <v>-7.79643181494482</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.35596882671658</v>
+        <v>-8.24150725863058</v>
       </c>
       <c r="H75" t="n">
-        <v>-8.41937539070983</v>
+        <v>-8.70024435946611</v>
       </c>
       <c r="I75" t="n">
-        <v>-9.16365506023049</v>
+        <v>-9.38269970503911</v>
       </c>
       <c r="J75" t="n">
-        <v>-9.73656699778731</v>
+        <v>-9.94952635460425</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.92147893676688</v>
+        <v>-5.41325909222277</v>
       </c>
       <c r="B76" t="n">
-        <v>10.8417819709592</v>
+        <v>-5.31327432860818</v>
       </c>
       <c r="C76" t="n">
-        <v>12.2402306332142</v>
+        <v>-6.01952109180843</v>
       </c>
       <c r="D76" t="n">
-        <v>12.4293515307618</v>
+        <v>-6.32820901008732</v>
       </c>
       <c r="E76" t="n">
-        <v>14.9284685364428</v>
+        <v>-6.24180070751811</v>
       </c>
       <c r="F76" t="n">
-        <v>15.9953737187442</v>
+        <v>-7.1571871013031</v>
       </c>
       <c r="G76" t="n">
-        <v>15.5503919367809</v>
+        <v>-7.45165891407765</v>
       </c>
       <c r="H76" t="n">
-        <v>18.0753585961414</v>
+        <v>-8.91758669402189</v>
       </c>
       <c r="I76" t="n">
-        <v>19.3722822502693</v>
+        <v>-8.8888466600143</v>
       </c>
       <c r="J76" t="n">
-        <v>18.977616052497</v>
+        <v>-9.50671691366168</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-4.98037961217768</v>
+        <v>9.27140288343436</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.75014375044758</v>
+        <v>10.862059376829</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.430830077946</v>
+        <v>11.9435829882157</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.43619699113215</v>
+        <v>12.961866666198</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.94169494342271</v>
+        <v>13.8286873578447</v>
       </c>
       <c r="F77" t="n">
-        <v>-7.65381516108864</v>
+        <v>16.2688608030329</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.36241729097919</v>
+        <v>14.9995083333987</v>
       </c>
       <c r="H77" t="n">
-        <v>-8.68546992086999</v>
+        <v>17.2121340372617</v>
       </c>
       <c r="I77" t="n">
-        <v>-8.97501992441959</v>
+        <v>18.7977254052882</v>
       </c>
       <c r="J77" t="n">
-        <v>-9.33354012270259</v>
+        <v>18.8808855290759</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-5.14720391575578</v>
+        <v>10.4381792832831</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.14124249110652</v>
+        <v>10.8282868523013</v>
       </c>
       <c r="C78" t="n">
-        <v>-5.96834522278637</v>
+        <v>11.5058670109809</v>
       </c>
       <c r="D78" t="n">
-        <v>-6.50889584217929</v>
+        <v>13.1489384847028</v>
       </c>
       <c r="E78" t="n">
-        <v>-6.50132592230316</v>
+        <v>13.9192745608351</v>
       </c>
       <c r="F78" t="n">
-        <v>-7.91086219356072</v>
+        <v>15.9975186095422</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.93463291441396</v>
+        <v>16.1054021445054</v>
       </c>
       <c r="H78" t="n">
-        <v>-8.78016601778492</v>
+        <v>16.447592293156</v>
       </c>
       <c r="I78" t="n">
-        <v>-8.93857923024397</v>
+        <v>19.820384562178</v>
       </c>
       <c r="J78" t="n">
-        <v>-9.36102759182405</v>
+        <v>19.302025651278</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.0457680470222</v>
+        <v>10.1225381421011</v>
       </c>
       <c r="B79" t="n">
-        <v>11.2665137953373</v>
+        <v>10.598075084999</v>
       </c>
       <c r="C79" t="n">
-        <v>12.2614140011118</v>
+        <v>12.7484128059313</v>
       </c>
       <c r="D79" t="n">
-        <v>14.6611802317415</v>
+        <v>12.6672368687026</v>
       </c>
       <c r="E79" t="n">
-        <v>13.7504537088363</v>
+        <v>12.6384604533871</v>
       </c>
       <c r="F79" t="n">
-        <v>14.6760215576903</v>
+        <v>14.1502357785882</v>
       </c>
       <c r="G79" t="n">
-        <v>16.6824274913275</v>
+        <v>16.1739979797279</v>
       </c>
       <c r="H79" t="n">
-        <v>16.5805896736691</v>
+        <v>16.9360849702972</v>
       </c>
       <c r="I79" t="n">
-        <v>18.8919103997915</v>
+        <v>19.0836806391471</v>
       </c>
       <c r="J79" t="n">
-        <v>19.2692326626313</v>
+        <v>18.9197593888506</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10.699654396678</v>
+        <v>9.50081352467904</v>
       </c>
       <c r="B80" t="n">
-        <v>11.3549498356758</v>
+        <v>10.9428599681054</v>
       </c>
       <c r="C80" t="n">
-        <v>13.8919708938574</v>
+        <v>11.9019423476558</v>
       </c>
       <c r="D80" t="n">
-        <v>12.9875248711895</v>
+        <v>13.3016260879942</v>
       </c>
       <c r="E80" t="n">
-        <v>13.00402527782</v>
+        <v>14.5111273139302</v>
       </c>
       <c r="F80" t="n">
-        <v>15.2743084309888</v>
+        <v>15.3257434037811</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.19233220337908</v>
+        <v>17.1706563248613</v>
       </c>
       <c r="H80" t="n">
-        <v>-8.60272878948582</v>
+        <v>18.0879296826243</v>
       </c>
       <c r="I80" t="n">
-        <v>-9.26625965730135</v>
+        <v>17.0181529752975</v>
       </c>
       <c r="J80" t="n">
-        <v>-9.20059991417891</v>
+        <v>19.1543481378261</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9.91181199060901</v>
+        <v>9.82113977652121</v>
       </c>
       <c r="B81" t="n">
-        <v>12.3642250934357</v>
+        <v>11.1643404623607</v>
       </c>
       <c r="C81" t="n">
-        <v>11.7060418972724</v>
+        <v>11.6993888370435</v>
       </c>
       <c r="D81" t="n">
-        <v>13.2852072866661</v>
+        <v>12.2573301936437</v>
       </c>
       <c r="E81" t="n">
-        <v>15.3259596038282</v>
+        <v>13.7420481634272</v>
       </c>
       <c r="F81" t="n">
-        <v>15.9671173745707</v>
+        <v>14.1277286654659</v>
       </c>
       <c r="G81" t="n">
-        <v>16.2019881844824</v>
+        <v>16.5253655915192</v>
       </c>
       <c r="H81" t="n">
-        <v>16.2797779634127</v>
+        <v>16.6338072792972</v>
       </c>
       <c r="I81" t="n">
-        <v>17.7268439105228</v>
+        <v>18.4884799131024</v>
       </c>
       <c r="J81" t="n">
-        <v>17.4958541036398</v>
+        <v>18.7001599219274</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10.2117515217944</v>
+        <v>9.02815247034205</v>
       </c>
       <c r="B82" t="n">
-        <v>12.2226716292477</v>
+        <v>11.2256679004488</v>
       </c>
       <c r="C82" t="n">
-        <v>11.6507957816302</v>
+        <v>11.8448376090104</v>
       </c>
       <c r="D82" t="n">
-        <v>12.5073086726748</v>
+        <v>12.5502272488346</v>
       </c>
       <c r="E82" t="n">
-        <v>13.9443692182794</v>
+        <v>13.9133277761996</v>
       </c>
       <c r="F82" t="n">
-        <v>13.4836464733529</v>
+        <v>16.2759316011803</v>
       </c>
       <c r="G82" t="n">
-        <v>14.5034261062305</v>
+        <v>-8.12461396842871</v>
       </c>
       <c r="H82" t="n">
-        <v>16.3332636131713</v>
+        <v>-8.58199181289349</v>
       </c>
       <c r="I82" t="n">
-        <v>18.7564574061674</v>
+        <v>-8.79127732835581</v>
       </c>
       <c r="J82" t="n">
-        <v>18.7664963925128</v>
+        <v>-9.80367516924592</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-4.79548327334433</v>
+        <v>10.1317235465111</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.54719609428356</v>
+        <v>11.1325815521973</v>
       </c>
       <c r="C83" t="n">
-        <v>-5.45886672997461</v>
+        <v>10.760174524628</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.01938568367782</v>
+        <v>12.6338454382421</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.27667379798659</v>
+        <v>14.7251963448743</v>
       </c>
       <c r="F83" t="n">
-        <v>-7.23373575073788</v>
+        <v>15.8095409271356</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.86594331643753</v>
+        <v>15.7617947244301</v>
       </c>
       <c r="H83" t="n">
-        <v>-8.66793742622842</v>
+        <v>17.6375890278664</v>
       </c>
       <c r="I83" t="n">
-        <v>-9.09359677728675</v>
+        <v>18.6271887015276</v>
       </c>
       <c r="J83" t="n">
-        <v>-9.44923018894714</v>
+        <v>19.6521888935727</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>8.42207744886345</v>
+        <v>8.67031485946437</v>
       </c>
       <c r="B84" t="n">
-        <v>10.636675085466</v>
+        <v>10.8932274083041</v>
       </c>
       <c r="C84" t="n">
-        <v>12.4825582004835</v>
+        <v>11.8729888410133</v>
       </c>
       <c r="D84" t="n">
-        <v>12.769961037015</v>
+        <v>-6.23417829825307</v>
       </c>
       <c r="E84" t="n">
-        <v>14.9697991196948</v>
+        <v>-7.14488464807721</v>
       </c>
       <c r="F84" t="n">
-        <v>14.9584083115944</v>
+        <v>-7.42108574848335</v>
       </c>
       <c r="G84" t="n">
-        <v>15.6947833574457</v>
+        <v>-7.98858335883966</v>
       </c>
       <c r="H84" t="n">
-        <v>17.228494534531</v>
+        <v>-8.28445970325974</v>
       </c>
       <c r="I84" t="n">
-        <v>19.0431423533589</v>
+        <v>-8.74152603903108</v>
       </c>
       <c r="J84" t="n">
-        <v>19.8096221806788</v>
+        <v>-9.48376600500264</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10.0810872800417</v>
+        <v>10.6783374321302</v>
       </c>
       <c r="B85" t="n">
-        <v>10.3906723490811</v>
+        <v>10.4110332484882</v>
       </c>
       <c r="C85" t="n">
-        <v>11.1363769874534</v>
+        <v>12.1561266736142</v>
       </c>
       <c r="D85" t="n">
-        <v>14.1018278364431</v>
+        <v>13.6717844378123</v>
       </c>
       <c r="E85" t="n">
-        <v>14.4368763641625</v>
+        <v>-6.68389826707527</v>
       </c>
       <c r="F85" t="n">
-        <v>15.4526024895589</v>
+        <v>-7.65919909966786</v>
       </c>
       <c r="G85" t="n">
-        <v>16.2689566900339</v>
+        <v>-7.91991682657332</v>
       </c>
       <c r="H85" t="n">
-        <v>17.6329005369168</v>
+        <v>-8.39092683588399</v>
       </c>
       <c r="I85" t="n">
-        <v>18.847973606633</v>
+        <v>-9.36914322870102</v>
       </c>
       <c r="J85" t="n">
-        <v>19.4071429129432</v>
+        <v>-9.78665375554532</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8.7161326754933</v>
+        <v>-5.31543891709469</v>
       </c>
       <c r="B86" t="n">
-        <v>11.9656079979642</v>
+        <v>-5.43918262912273</v>
       </c>
       <c r="C86" t="n">
-        <v>11.7473310356773</v>
+        <v>-5.88561365678933</v>
       </c>
       <c r="D86" t="n">
-        <v>14.3148959153785</v>
+        <v>-6.7305216761708</v>
       </c>
       <c r="E86" t="n">
-        <v>14.6403736236806</v>
+        <v>-6.86916612565206</v>
       </c>
       <c r="F86" t="n">
-        <v>15.4756860206858</v>
+        <v>-7.0007318782564</v>
       </c>
       <c r="G86" t="n">
-        <v>15.6066361911271</v>
+        <v>-8.00059369086646</v>
       </c>
       <c r="H86" t="n">
-        <v>17.0105633401644</v>
+        <v>-8.5472194206814</v>
       </c>
       <c r="I86" t="n">
-        <v>18.0475906158654</v>
+        <v>-8.88483101887166</v>
       </c>
       <c r="J86" t="n">
-        <v>19.0141334786144</v>
+        <v>-9.24218665106101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.6992293967437</v>
+        <v>-4.81526858702698</v>
       </c>
       <c r="B87" t="n">
-        <v>10.0954896693718</v>
+        <v>-5.69593681721597</v>
       </c>
       <c r="C87" t="n">
-        <v>11.3501549138179</v>
+        <v>-5.82835186559726</v>
       </c>
       <c r="D87" t="n">
-        <v>14.1802115874907</v>
+        <v>-6.57249654412731</v>
       </c>
       <c r="E87" t="n">
-        <v>14.6688476102766</v>
+        <v>-6.87840095318152</v>
       </c>
       <c r="F87" t="n">
-        <v>14.9428471841609</v>
+        <v>15.4261205151631</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.2814559839809</v>
+        <v>16.8154045492581</v>
       </c>
       <c r="H87" t="n">
-        <v>-9.06140142282909</v>
+        <v>16.9827614533827</v>
       </c>
       <c r="I87" t="n">
-        <v>-8.58361736349577</v>
+        <v>17.359540948695</v>
       </c>
       <c r="J87" t="n">
-        <v>-9.62671871834039</v>
+        <v>18.6632719074726</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9.55286909403548</v>
+        <v>9.93501861607758</v>
       </c>
       <c r="B88" t="n">
-        <v>10.2387637985267</v>
+        <v>10.715132311502</v>
       </c>
       <c r="C88" t="n">
-        <v>11.9573038385643</v>
+        <v>12.7826388142634</v>
       </c>
       <c r="D88" t="n">
-        <v>12.2526620863631</v>
+        <v>13.8868575339762</v>
       </c>
       <c r="E88" t="n">
-        <v>15.1320145681917</v>
+        <v>15.1068240257968</v>
       </c>
       <c r="F88" t="n">
-        <v>14.625144256793</v>
+        <v>14.8804069949587</v>
       </c>
       <c r="G88" t="n">
-        <v>15.3245100319715</v>
+        <v>15.2805072595648</v>
       </c>
       <c r="H88" t="n">
-        <v>16.5237770302364</v>
+        <v>-8.86571512584925</v>
       </c>
       <c r="I88" t="n">
-        <v>17.7861840705977</v>
+        <v>-8.76586401227458</v>
       </c>
       <c r="J88" t="n">
-        <v>17.9612188945671</v>
+        <v>-9.35610328126083</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10.2235103423769</v>
+        <v>10.3769810396162</v>
       </c>
       <c r="B89" t="n">
-        <v>10.7017686534582</v>
+        <v>9.49048136574463</v>
       </c>
       <c r="C89" t="n">
-        <v>11.8247468441833</v>
+        <v>-5.94175687649786</v>
       </c>
       <c r="D89" t="n">
-        <v>13.1871677299903</v>
+        <v>-6.63743570471881</v>
       </c>
       <c r="E89" t="n">
-        <v>13.6224557590145</v>
+        <v>-7.30774283993255</v>
       </c>
       <c r="F89" t="n">
-        <v>14.8166100726724</v>
+        <v>-7.67594079060716</v>
       </c>
       <c r="G89" t="n">
-        <v>14.9603954056806</v>
+        <v>-7.79595411941282</v>
       </c>
       <c r="H89" t="n">
-        <v>17.1087075925428</v>
+        <v>-8.35668533168626</v>
       </c>
       <c r="I89" t="n">
-        <v>18.5230675232577</v>
+        <v>-8.66383256333064</v>
       </c>
       <c r="J89" t="n">
-        <v>17.3086031776939</v>
+        <v>-9.04795306967949</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-5.00742451243396</v>
+        <v>9.90480231091668</v>
       </c>
       <c r="B90" t="n">
-        <v>-5.10188459350189</v>
+        <v>10.8762648025558</v>
       </c>
       <c r="C90" t="n">
-        <v>-6.10440584190613</v>
+        <v>11.5571297871367</v>
       </c>
       <c r="D90" t="n">
-        <v>-6.55304146281933</v>
+        <v>11.2945401116217</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.39840044103557</v>
+        <v>13.9045722146941</v>
       </c>
       <c r="F90" t="n">
-        <v>-7.51455732290944</v>
+        <v>14.550815394014</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.83186108373883</v>
+        <v>-8.35119865470018</v>
       </c>
       <c r="H90" t="n">
-        <v>-8.91772370094897</v>
+        <v>-8.61280877113777</v>
       </c>
       <c r="I90" t="n">
-        <v>-8.95714805491382</v>
+        <v>-8.52547759276867</v>
       </c>
       <c r="J90" t="n">
-        <v>-9.20625840725987</v>
+        <v>-9.39619611682239</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>11.0140648132605</v>
+        <v>-5.07388704616084</v>
       </c>
       <c r="B91" t="n">
-        <v>11.1963959479395</v>
+        <v>-5.73060373622852</v>
       </c>
       <c r="C91" t="n">
-        <v>11.6227042158286</v>
+        <v>-6.35616840340231</v>
       </c>
       <c r="D91" t="n">
-        <v>13.2336635871851</v>
+        <v>-6.78577556576512</v>
       </c>
       <c r="E91" t="n">
-        <v>13.2633499993694</v>
+        <v>-7.01825498515752</v>
       </c>
       <c r="F91" t="n">
-        <v>15.8663718575915</v>
+        <v>-7.33597509280958</v>
       </c>
       <c r="G91" t="n">
-        <v>16.0697360091684</v>
+        <v>-8.62611206718018</v>
       </c>
       <c r="H91" t="n">
-        <v>18.1611625965014</v>
+        <v>-8.36830703208693</v>
       </c>
       <c r="I91" t="n">
-        <v>18.7095468580541</v>
+        <v>-9.02030505395688</v>
       </c>
       <c r="J91" t="n">
-        <v>18.9531183162595</v>
+        <v>-9.50211698254793</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>10.5117727963744</v>
+        <v>-5.03956598748573</v>
       </c>
       <c r="B92" t="n">
-        <v>10.6823153038651</v>
+        <v>-5.43590323341354</v>
       </c>
       <c r="C92" t="n">
-        <v>11.9103261081408</v>
+        <v>-5.77841617767267</v>
       </c>
       <c r="D92" t="n">
-        <v>13.0967459228424</v>
+        <v>-6.15556998508879</v>
       </c>
       <c r="E92" t="n">
-        <v>14.2986374527812</v>
+        <v>-6.73678135167515</v>
       </c>
       <c r="F92" t="n">
-        <v>15.9236705342307</v>
+        <v>-7.48292288179021</v>
       </c>
       <c r="G92" t="n">
-        <v>15.6817966223152</v>
+        <v>-8.53565960349906</v>
       </c>
       <c r="H92" t="n">
-        <v>17.0254439668844</v>
+        <v>-8.74983071005366</v>
       </c>
       <c r="I92" t="n">
-        <v>17.7087149565782</v>
+        <v>-9.34427794374211</v>
       </c>
       <c r="J92" t="n">
-        <v>18.7224104967675</v>
+        <v>-9.58896023935008</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10.0425751054654</v>
+        <v>-5.38827270887012</v>
       </c>
       <c r="B93" t="n">
-        <v>11.5181069622043</v>
+        <v>-5.4873597089176</v>
       </c>
       <c r="C93" t="n">
-        <v>12.2973393585775</v>
+        <v>-6.03739987550687</v>
       </c>
       <c r="D93" t="n">
-        <v>13.2706582304459</v>
+        <v>12.8631998372366</v>
       </c>
       <c r="E93" t="n">
-        <v>13.246253257166</v>
+        <v>13.6673626540247</v>
       </c>
       <c r="F93" t="n">
-        <v>14.0901043384983</v>
+        <v>14.3946986868654</v>
       </c>
       <c r="G93" t="n">
-        <v>16.6654438590508</v>
+        <v>15.2296732156633</v>
       </c>
       <c r="H93" t="n">
-        <v>17.620767250198</v>
+        <v>16.0629603927136</v>
       </c>
       <c r="I93" t="n">
-        <v>17.2408526245977</v>
+        <v>18.3920514333473</v>
       </c>
       <c r="J93" t="n">
-        <v>18.5124476127904</v>
+        <v>18.7826257947141</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10.4417351394178</v>
+        <v>11.2390794606089</v>
       </c>
       <c r="B94" t="n">
-        <v>10.9975155303562</v>
+        <v>11.0056585042107</v>
       </c>
       <c r="C94" t="n">
-        <v>11.183558717768</v>
+        <v>12.0454799565239</v>
       </c>
       <c r="D94" t="n">
-        <v>13.7754929388232</v>
+        <v>12.1598982604846</v>
       </c>
       <c r="E94" t="n">
-        <v>14.456829752912</v>
+        <v>14.0818891593705</v>
       </c>
       <c r="F94" t="n">
-        <v>15.0176908033277</v>
+        <v>14.9953320207197</v>
       </c>
       <c r="G94" t="n">
-        <v>16.2977743800285</v>
+        <v>15.7742647385592</v>
       </c>
       <c r="H94" t="n">
-        <v>16.916073610698</v>
+        <v>16.3735584876366</v>
       </c>
       <c r="I94" t="n">
-        <v>17.6598783891366</v>
+        <v>20.1258865151995</v>
       </c>
       <c r="J94" t="n">
-        <v>18.6524389247907</v>
+        <v>19.102403192221</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-5.19660085054061</v>
+        <v>9.14106242117199</v>
       </c>
       <c r="B95" t="n">
-        <v>-5.5063241430673</v>
+        <v>11.6851598703002</v>
       </c>
       <c r="C95" t="n">
-        <v>-6.31690723413844</v>
+        <v>11.4936661966669</v>
       </c>
       <c r="D95" t="n">
-        <v>-6.35698726139517</v>
+        <v>-6.54990722792109</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.14658059611748</v>
+        <v>-6.76513922167669</v>
       </c>
       <c r="F95" t="n">
-        <v>-7.65526063078259</v>
+        <v>-7.64361758361357</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.10132189292089</v>
+        <v>-7.9057142512011</v>
       </c>
       <c r="H95" t="n">
-        <v>-8.20589587842904</v>
+        <v>-8.58973877977523</v>
       </c>
       <c r="I95" t="n">
-        <v>-8.73603061636869</v>
+        <v>-9.61804529837577</v>
       </c>
       <c r="J95" t="n">
-        <v>-10.111082250361</v>
+        <v>-9.18220917372703</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9.74221526907158</v>
+        <v>-4.96522866196036</v>
       </c>
       <c r="B96" t="n">
-        <v>9.16953286579701</v>
+        <v>-5.03567355367743</v>
       </c>
       <c r="C96" t="n">
-        <v>11.8384457461065</v>
+        <v>-5.98067170076494</v>
       </c>
       <c r="D96" t="n">
-        <v>11.8895156891848</v>
+        <v>-6.13686999959229</v>
       </c>
       <c r="E96" t="n">
-        <v>15.283434137583</v>
+        <v>-7.01301047922057</v>
       </c>
       <c r="F96" t="n">
-        <v>14.1103222280757</v>
+        <v>-7.19567958117082</v>
       </c>
       <c r="G96" t="n">
-        <v>17.5580608702802</v>
+        <v>-7.81247355523173</v>
       </c>
       <c r="H96" t="n">
-        <v>16.0923773864588</v>
+        <v>-8.35866453298584</v>
       </c>
       <c r="I96" t="n">
-        <v>19.6720101962901</v>
+        <v>-9.02519063221062</v>
       </c>
       <c r="J96" t="n">
-        <v>19.646010089316</v>
+        <v>19.4308512917359</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.588288715842</v>
+        <v>9.00274140709913</v>
       </c>
       <c r="B97" t="n">
-        <v>10.150153198641</v>
+        <v>10.4106210097761</v>
       </c>
       <c r="C97" t="n">
-        <v>12.9484574423129</v>
+        <v>11.713052466994</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.17899878463268</v>
+        <v>14.1293421214414</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.13988266967206</v>
+        <v>13.8105234949632</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.46518055142523</v>
+        <v>14.5391385326579</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.76717715388658</v>
+        <v>16.6036428557958</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.26578065665489</v>
+        <v>-8.35927598853895</v>
       </c>
       <c r="I97" t="n">
-        <v>-9.10260197428732</v>
+        <v>-8.89625040188208</v>
       </c>
       <c r="J97" t="n">
-        <v>-9.44491617279881</v>
+        <v>-9.7568480968305</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-4.84920534332899</v>
+        <v>9.8659378597834</v>
       </c>
       <c r="B98" t="n">
-        <v>-5.68161449728726</v>
+        <v>-5.83500039255671</v>
       </c>
       <c r="C98" t="n">
-        <v>-5.92322534709507</v>
+        <v>-5.81072242972578</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.32464731873155</v>
+        <v>-6.343057496114</v>
       </c>
       <c r="E98" t="n">
-        <v>-6.4891802201509</v>
+        <v>-7.10599918642746</v>
       </c>
       <c r="F98" t="n">
-        <v>-7.28570194700169</v>
+        <v>-7.23285994058749</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.3085780463842</v>
+        <v>-7.81966463056309</v>
       </c>
       <c r="H98" t="n">
-        <v>-8.51299754695046</v>
+        <v>-8.4508500991166</v>
       </c>
       <c r="I98" t="n">
-        <v>-9.05195117544945</v>
+        <v>-9.47159902163172</v>
       </c>
       <c r="J98" t="n">
-        <v>-9.79148645114213</v>
+        <v>17.7472525883291</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.7410317109328</v>
+        <v>10.3267123823641</v>
       </c>
       <c r="B99" t="n">
-        <v>11.7937708149447</v>
+        <v>9.74323881568009</v>
       </c>
       <c r="C99" t="n">
-        <v>11.3043765198776</v>
+        <v>10.5454632462051</v>
       </c>
       <c r="D99" t="n">
-        <v>12.1778191823807</v>
+        <v>-6.52739041068317</v>
       </c>
       <c r="E99" t="n">
-        <v>14.119261758557</v>
+        <v>-6.9773648029651</v>
       </c>
       <c r="F99" t="n">
-        <v>13.8823257050807</v>
+        <v>-7.53160186357094</v>
       </c>
       <c r="G99" t="n">
-        <v>16.3402979927567</v>
+        <v>-8.07078341695963</v>
       </c>
       <c r="H99" t="n">
-        <v>17.1299763562921</v>
+        <v>-8.48842581938204</v>
       </c>
       <c r="I99" t="n">
-        <v>18.1405717058056</v>
+        <v>-8.70426783973316</v>
       </c>
       <c r="J99" t="n">
-        <v>19.4311275711731</v>
+        <v>-9.83877729087429</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11.7303218127787</v>
+        <v>9.0538511728971</v>
       </c>
       <c r="B100" t="n">
-        <v>10.2969250266178</v>
+        <v>11.2062842095356</v>
       </c>
       <c r="C100" t="n">
-        <v>11.4864290034271</v>
+        <v>12.0052754195591</v>
       </c>
       <c r="D100" t="n">
-        <v>13.187327194102</v>
+        <v>12.1819729127911</v>
       </c>
       <c r="E100" t="n">
-        <v>13.6056856959947</v>
+        <v>13.8505649057604</v>
       </c>
       <c r="F100" t="n">
-        <v>14.3171013230239</v>
+        <v>14.0918256411173</v>
       </c>
       <c r="G100" t="n">
-        <v>16.5258479966891</v>
+        <v>16.5118948582686</v>
       </c>
       <c r="H100" t="n">
-        <v>16.2011124955976</v>
+        <v>16.080639691613</v>
       </c>
       <c r="I100" t="n">
-        <v>17.6302167997548</v>
+        <v>16.9356150868186</v>
       </c>
       <c r="J100" t="n">
-        <v>18.6160245788665</v>
+        <v>18.8438285488574</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-5.3176964551498</v>
+        <v>10.8387232240588</v>
       </c>
       <c r="B101" t="n">
-        <v>-5.39254928213056</v>
+        <v>11.6555243015416</v>
       </c>
       <c r="C101" t="n">
-        <v>-6.01324503591669</v>
+        <v>12.541512019833</v>
       </c>
       <c r="D101" t="n">
-        <v>-6.742641508325</v>
+        <v>11.9481786337836</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.61632395914753</v>
+        <v>13.6601916428304</v>
       </c>
       <c r="F101" t="n">
-        <v>-7.51320550895286</v>
+        <v>14.6676016850178</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.92505183844192</v>
+        <v>16.6262637652154</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.24887497612853</v>
+        <v>16.8631697134004</v>
       </c>
       <c r="I101" t="n">
-        <v>-9.18060927871539</v>
+        <v>18.2579820240861</v>
       </c>
       <c r="J101" t="n">
-        <v>-9.09801044873249</v>
+        <v>19.7355094740123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.85438703973985</v>
+        <v>10.8089469690924</v>
       </c>
       <c r="B102" t="n">
-        <v>10.5820945958022</v>
+        <v>9.64685023564754</v>
       </c>
       <c r="C102" t="n">
-        <v>11.9995953380502</v>
+        <v>11.0353644091724</v>
       </c>
       <c r="D102" t="n">
-        <v>13.5201129744167</v>
+        <v>12.7421020943725</v>
       </c>
       <c r="E102" t="n">
-        <v>13.9576759518126</v>
+        <v>14.5867723813771</v>
       </c>
       <c r="F102" t="n">
-        <v>14.976176604521</v>
+        <v>14.0057207553615</v>
       </c>
       <c r="G102" t="n">
-        <v>16.376477099237</v>
+        <v>16.0097056675597</v>
       </c>
       <c r="H102" t="n">
-        <v>17.006780690186</v>
+        <v>16.1141462269327</v>
       </c>
       <c r="I102" t="n">
-        <v>18.5150493974362</v>
+        <v>18.6216064718129</v>
       </c>
       <c r="J102" t="n">
-        <v>19.4905370556572</v>
+        <v>19.445742657064</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10.3132587511606</v>
+        <v>9.18427792013993</v>
       </c>
       <c r="B103" t="n">
-        <v>-5.98545450184597</v>
+        <v>11.4100756056118</v>
       </c>
       <c r="C103" t="n">
-        <v>-5.9242257457142</v>
+        <v>12.1761850946776</v>
       </c>
       <c r="D103" t="n">
-        <v>-6.52037289700435</v>
+        <v>12.8911934662991</v>
       </c>
       <c r="E103" t="n">
-        <v>-6.94650873492133</v>
+        <v>13.8783027345614</v>
       </c>
       <c r="F103" t="n">
-        <v>-7.28746997362036</v>
+        <v>13.6019953271266</v>
       </c>
       <c r="G103" t="n">
-        <v>-8.10715168227298</v>
+        <v>-8.16968541430925</v>
       </c>
       <c r="H103" t="n">
-        <v>-8.51986216883911</v>
+        <v>-8.92628666634547</v>
       </c>
       <c r="I103" t="n">
-        <v>-8.92467929794939</v>
+        <v>-8.83373526149766</v>
       </c>
       <c r="J103" t="n">
-        <v>-9.74426328189253</v>
+        <v>-9.50976319182915</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.11283064739155</v>
+        <v>10.6999007438698</v>
       </c>
       <c r="B104" t="n">
-        <v>10.8369644460392</v>
+        <v>10.8741757534465</v>
       </c>
       <c r="C104" t="n">
-        <v>11.7032913850417</v>
+        <v>-6.12822121955345</v>
       </c>
       <c r="D104" t="n">
-        <v>14.1450238746401</v>
+        <v>-6.75404159087847</v>
       </c>
       <c r="E104" t="n">
-        <v>14.4602808743634</v>
+        <v>-7.35817939919086</v>
       </c>
       <c r="F104" t="n">
-        <v>14.6669060856675</v>
+        <v>-7.64419881935614</v>
       </c>
       <c r="G104" t="n">
-        <v>16.9620270788318</v>
+        <v>-8.06183119730852</v>
       </c>
       <c r="H104" t="n">
-        <v>16.8904015767382</v>
+        <v>-8.28388862859749</v>
       </c>
       <c r="I104" t="n">
-        <v>19.2607111082997</v>
+        <v>-8.97543828823257</v>
       </c>
       <c r="J104" t="n">
-        <v>19.5969444132985</v>
+        <v>-9.02410872744653</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-5.41882975242519</v>
+        <v>9.25938898543775</v>
       </c>
       <c r="B105" t="n">
-        <v>-5.34036051608027</v>
+        <v>11.4447989375959</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.84216074001175</v>
+        <v>12.1409549975211</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.00500641751987</v>
+        <v>13.6709580996796</v>
       </c>
       <c r="E105" t="n">
-        <v>-6.88768306619675</v>
+        <v>15.515940611966</v>
       </c>
       <c r="F105" t="n">
-        <v>-7.83608604418718</v>
+        <v>14.6985311089284</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.89418519575542</v>
+        <v>16.0034396624111</v>
       </c>
       <c r="H105" t="n">
-        <v>-8.24237243442797</v>
+        <v>18.0074562325974</v>
       </c>
       <c r="I105" t="n">
-        <v>-8.76539363581671</v>
+        <v>18.7159493547952</v>
       </c>
       <c r="J105" t="n">
-        <v>-9.59774648818225</v>
+        <v>19.6246267152506</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.43971290806461</v>
+        <v>10.3318134994987</v>
       </c>
       <c r="B106" t="n">
-        <v>9.84921818860551</v>
+        <v>11.243533286889</v>
       </c>
       <c r="C106" t="n">
-        <v>12.0919541565379</v>
+        <v>11.8816395072585</v>
       </c>
       <c r="D106" t="n">
-        <v>11.8815210868085</v>
+        <v>13.1349987581901</v>
       </c>
       <c r="E106" t="n">
-        <v>14.442123938907</v>
+        <v>13.886960734768</v>
       </c>
       <c r="F106" t="n">
-        <v>15.7235980578628</v>
+        <v>15.0576802261527</v>
       </c>
       <c r="G106" t="n">
-        <v>17.5358656945534</v>
+        <v>-8.10510255398528</v>
       </c>
       <c r="H106" t="n">
-        <v>17.7318230699203</v>
+        <v>-8.24316456095974</v>
       </c>
       <c r="I106" t="n">
-        <v>17.3694588053245</v>
+        <v>-9.39938387860066</v>
       </c>
       <c r="J106" t="n">
-        <v>19.6413412787089</v>
+        <v>-9.2965269888516</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-5.19637904844749</v>
+        <v>9.23094087937274</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.61000272632149</v>
+        <v>10.4520803189401</v>
       </c>
       <c r="C107" t="n">
-        <v>-5.67734045098058</v>
+        <v>12.0797103117008</v>
       </c>
       <c r="D107" t="n">
-        <v>-6.65473967759081</v>
+        <v>13.230170455465</v>
       </c>
       <c r="E107" t="n">
-        <v>-6.88113292556379</v>
+        <v>14.1123310867545</v>
       </c>
       <c r="F107" t="n">
-        <v>-7.77538082250856</v>
+        <v>14.6664348273274</v>
       </c>
       <c r="G107" t="n">
-        <v>-8.23138616849317</v>
+        <v>16.9746640891573</v>
       </c>
       <c r="H107" t="n">
-        <v>-8.39016413723287</v>
+        <v>17.8729564377635</v>
       </c>
       <c r="I107" t="n">
-        <v>-8.71347281083911</v>
+        <v>19.228994317787</v>
       </c>
       <c r="J107" t="n">
-        <v>-9.42052810261837</v>
+        <v>17.5022972658046</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.2401072013469</v>
+        <v>10.1087452415653</v>
       </c>
       <c r="B108" t="n">
-        <v>10.4918888118399</v>
+        <v>11.0350396508972</v>
       </c>
       <c r="C108" t="n">
-        <v>11.5303739304581</v>
+        <v>13.4335063175042</v>
       </c>
       <c r="D108" t="n">
-        <v>13.0138625428819</v>
+        <v>11.8828633582502</v>
       </c>
       <c r="E108" t="n">
-        <v>-6.8217712661996</v>
+        <v>14.7360464177006</v>
       </c>
       <c r="F108" t="n">
-        <v>-8.00048481272646</v>
+        <v>-7.01672991400623</v>
       </c>
       <c r="G108" t="n">
-        <v>-7.59465399492969</v>
+        <v>-8.50118486557518</v>
       </c>
       <c r="H108" t="n">
-        <v>-8.71544458750843</v>
+        <v>-8.64984178096717</v>
       </c>
       <c r="I108" t="n">
-        <v>-8.81263822640097</v>
+        <v>-9.28774563116485</v>
       </c>
       <c r="J108" t="n">
-        <v>-10.0497930595214</v>
+        <v>-9.70431102637991</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9.4019193130184</v>
+        <v>9.79608268157004</v>
       </c>
       <c r="B109" t="n">
-        <v>10.7388520752474</v>
+        <v>10.7545795815694</v>
       </c>
       <c r="C109" t="n">
-        <v>11.9736770797226</v>
+        <v>11.7180641364167</v>
       </c>
       <c r="D109" t="n">
-        <v>12.9947794293589</v>
+        <v>13.7432115010257</v>
       </c>
       <c r="E109" t="n">
-        <v>-6.78894571515819</v>
+        <v>13.9975916416872</v>
       </c>
       <c r="F109" t="n">
-        <v>-7.61101447945638</v>
+        <v>16.3146096302853</v>
       </c>
       <c r="G109" t="n">
-        <v>-8.00519716684028</v>
+        <v>15.6493023470522</v>
       </c>
       <c r="H109" t="n">
-        <v>-8.28778552699803</v>
+        <v>-8.84905722634844</v>
       </c>
       <c r="I109" t="n">
-        <v>-8.86982902786728</v>
+        <v>-8.88892777715375</v>
       </c>
       <c r="J109" t="n">
-        <v>-9.76267747405475</v>
+        <v>-9.46829764429583</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-5.13620421015016</v>
+        <v>-5.01254161249213</v>
       </c>
       <c r="B110" t="n">
-        <v>-5.255141249863</v>
+        <v>-5.38792485537363</v>
       </c>
       <c r="C110" t="n">
-        <v>-5.94551926229614</v>
+        <v>-5.81118167783673</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.88122650640045</v>
+        <v>-6.84462285274751</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.02333947105974</v>
+        <v>-6.98162945157188</v>
       </c>
       <c r="F110" t="n">
-        <v>-7.50315490753321</v>
+        <v>-7.38786455295</v>
       </c>
       <c r="G110" t="n">
-        <v>-8.16952465730914</v>
+        <v>-8.01950247175464</v>
       </c>
       <c r="H110" t="n">
-        <v>-8.65404863102185</v>
+        <v>-8.68556620433199</v>
       </c>
       <c r="I110" t="n">
-        <v>-9.28676894050684</v>
+        <v>-9.07061704876588</v>
       </c>
       <c r="J110" t="n">
-        <v>-9.6943256618261</v>
+        <v>-9.69493498833686</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9.63877460410486</v>
+        <v>10.3358662924636</v>
       </c>
       <c r="B111" t="n">
-        <v>12.1476553068837</v>
+        <v>9.94860246116655</v>
       </c>
       <c r="C111" t="n">
-        <v>12.1937018512485</v>
+        <v>11.1861407389896</v>
       </c>
       <c r="D111" t="n">
-        <v>13.1735247432367</v>
+        <v>12.8266248656715</v>
       </c>
       <c r="E111" t="n">
-        <v>13.6254500836648</v>
+        <v>15.0348475442753</v>
       </c>
       <c r="F111" t="n">
-        <v>14.7447916153697</v>
+        <v>15.3766679151903</v>
       </c>
       <c r="G111" t="n">
-        <v>15.6456537295848</v>
+        <v>-7.98937324216106</v>
       </c>
       <c r="H111" t="n">
-        <v>16.9930293242284</v>
+        <v>-8.87484156471409</v>
       </c>
       <c r="I111" t="n">
-        <v>16.8230550368667</v>
+        <v>-9.35260627712266</v>
       </c>
       <c r="J111" t="n">
-        <v>18.0111187633517</v>
+        <v>-9.37691364280492</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-5.22746149082182</v>
+        <v>9.09856631878403</v>
       </c>
       <c r="B112" t="n">
-        <v>-5.11059733224235</v>
+        <v>-5.70998910044335</v>
       </c>
       <c r="C112" t="n">
-        <v>-6.06513375317327</v>
+        <v>-6.44858019229564</v>
       </c>
       <c r="D112" t="n">
-        <v>-6.45034431466916</v>
+        <v>-6.46809370805681</v>
       </c>
       <c r="E112" t="n">
-        <v>-6.98371800974462</v>
+        <v>-7.24633011036638</v>
       </c>
       <c r="F112" t="n">
-        <v>-7.61055421039414</v>
+        <v>-7.7384879824746</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.81628081339633</v>
+        <v>-7.91595200096026</v>
       </c>
       <c r="H112" t="n">
-        <v>-8.29861322038135</v>
+        <v>-8.32236172041678</v>
       </c>
       <c r="I112" t="n">
-        <v>-8.6066974364831</v>
+        <v>-8.84795676752285</v>
       </c>
       <c r="J112" t="n">
-        <v>-9.84698745588816</v>
+        <v>-9.42045077106433</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.1279258144185</v>
+        <v>9.48013476982383</v>
       </c>
       <c r="B113" t="n">
-        <v>10.659802992278</v>
+        <v>10.7507645960785</v>
       </c>
       <c r="C113" t="n">
-        <v>12.5780594646295</v>
+        <v>11.912973624345</v>
       </c>
       <c r="D113" t="n">
-        <v>12.0204503145442</v>
+        <v>13.0490074976649</v>
       </c>
       <c r="E113" t="n">
-        <v>12.733653005209</v>
+        <v>14.2376451721126</v>
       </c>
       <c r="F113" t="n">
-        <v>14.3730218335846</v>
+        <v>15.8003170343703</v>
       </c>
       <c r="G113" t="n">
-        <v>15.7587267789529</v>
+        <v>15.1140287394505</v>
       </c>
       <c r="H113" t="n">
-        <v>16.9569429410044</v>
+        <v>16.4632741177847</v>
       </c>
       <c r="I113" t="n">
-        <v>17.2183005093349</v>
+        <v>18.4037588323462</v>
       </c>
       <c r="J113" t="n">
-        <v>19.2889251688698</v>
+        <v>20.4211134518388</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.2915189361053</v>
+        <v>-4.68425913513904</v>
       </c>
       <c r="B114" t="n">
-        <v>10.762423300951</v>
+        <v>-5.499051512822</v>
       </c>
       <c r="C114" t="n">
-        <v>12.0589775332404</v>
+        <v>-5.44934193065204</v>
       </c>
       <c r="D114" t="n">
-        <v>12.6258411492719</v>
+        <v>-6.94671038328314</v>
       </c>
       <c r="E114" t="n">
-        <v>14.8763839161226</v>
+        <v>-7.04958157081739</v>
       </c>
       <c r="F114" t="n">
-        <v>15.5805824713158</v>
+        <v>-7.31220120186631</v>
       </c>
       <c r="G114" t="n">
-        <v>15.6240791020979</v>
+        <v>-7.85363735284771</v>
       </c>
       <c r="H114" t="n">
-        <v>17.1749649240081</v>
+        <v>-8.71359213979457</v>
       </c>
       <c r="I114" t="n">
-        <v>18.3318865962316</v>
+        <v>-8.87117765446542</v>
       </c>
       <c r="J114" t="n">
-        <v>18.9060392354032</v>
+        <v>-9.53753339525013</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-5.00500508763984</v>
+        <v>10.4846763275248</v>
       </c>
       <c r="B115" t="n">
-        <v>-5.41732341439605</v>
+        <v>11.2321227415337</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.33588485297996</v>
+        <v>11.988798552075</v>
       </c>
       <c r="D115" t="n">
-        <v>-6.25089548487551</v>
+        <v>12.8631655239102</v>
       </c>
       <c r="E115" t="n">
-        <v>-7.10807684962108</v>
+        <v>13.8679670712808</v>
       </c>
       <c r="F115" t="n">
-        <v>-7.76417239735497</v>
+        <v>15.5022699186599</v>
       </c>
       <c r="G115" t="n">
-        <v>-8.0978622726792</v>
+        <v>15.8099661354356</v>
       </c>
       <c r="H115" t="n">
-        <v>-8.28921780196693</v>
+        <v>17.1108979734074</v>
       </c>
       <c r="I115" t="n">
-        <v>-9.08277553676493</v>
+        <v>18.6333522581095</v>
       </c>
       <c r="J115" t="n">
-        <v>-9.38172972259153</v>
+        <v>18.9844822920945</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.0455684628963</v>
+        <v>9.58985272110831</v>
       </c>
       <c r="B116" t="n">
-        <v>11.8537508142587</v>
+        <v>9.32378176598017</v>
       </c>
       <c r="C116" t="n">
-        <v>12.4593828364725</v>
+        <v>11.7600084939576</v>
       </c>
       <c r="D116" t="n">
-        <v>13.8652119919631</v>
+        <v>12.1195165619881</v>
       </c>
       <c r="E116" t="n">
-        <v>14.5402280332262</v>
+        <v>14.3383350052155</v>
       </c>
       <c r="F116" t="n">
-        <v>15.7296802868037</v>
+        <v>14.7359491741171</v>
       </c>
       <c r="G116" t="n">
-        <v>15.5447425661991</v>
+        <v>17.2183455953866</v>
       </c>
       <c r="H116" t="n">
-        <v>15.4307736730137</v>
+        <v>17.9966865626679</v>
       </c>
       <c r="I116" t="n">
-        <v>19.4651735255294</v>
+        <v>19.1721055185321</v>
       </c>
       <c r="J116" t="n">
-        <v>18.8938083199737</v>
+        <v>19.1060889170857</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9.14738572197408</v>
+        <v>-5.16862583533975</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.60435871129007</v>
+        <v>-5.32880222859791</v>
       </c>
       <c r="C117" t="n">
-        <v>-5.4081495317804</v>
+        <v>-5.72479189868619</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.24633635258279</v>
+        <v>-5.99555179629184</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.09755833593996</v>
+        <v>-7.22584553396741</v>
       </c>
       <c r="F117" t="n">
-        <v>-7.53284993390998</v>
+        <v>-7.20247726765803</v>
       </c>
       <c r="G117" t="n">
-        <v>-8.26245256582076</v>
+        <v>-8.38613305504509</v>
       </c>
       <c r="H117" t="n">
-        <v>-8.42348398667279</v>
+        <v>-8.83634055714707</v>
       </c>
       <c r="I117" t="n">
-        <v>-9.02214623681806</v>
+        <v>-8.32016242231535</v>
       </c>
       <c r="J117" t="n">
-        <v>19.4105677121509</v>
+        <v>-9.66754164821599</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.7299327158397</v>
+        <v>-5.12500072409214</v>
       </c>
       <c r="B118" t="n">
-        <v>10.8674894347924</v>
+        <v>-5.76174852417756</v>
       </c>
       <c r="C118" t="n">
-        <v>11.787688426807</v>
+        <v>-6.14727301980679</v>
       </c>
       <c r="D118" t="n">
-        <v>12.9881031994038</v>
+        <v>-6.7231838684818</v>
       </c>
       <c r="E118" t="n">
-        <v>14.2253269957964</v>
+        <v>-6.86977596570984</v>
       </c>
       <c r="F118" t="n">
-        <v>14.4235015403456</v>
+        <v>-7.8244737434494</v>
       </c>
       <c r="G118" t="n">
-        <v>15.1631904651695</v>
+        <v>-8.11952221141503</v>
       </c>
       <c r="H118" t="n">
-        <v>16.8713238922796</v>
+        <v>-8.00938915355841</v>
       </c>
       <c r="I118" t="n">
-        <v>-9.21909392619033</v>
+        <v>-8.98829702807338</v>
       </c>
       <c r="J118" t="n">
-        <v>-9.25124258178453</v>
+        <v>-9.47368613586848</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.79800364759882</v>
+        <v>-5.05935445501612</v>
       </c>
       <c r="B119" t="n">
-        <v>9.54364787094407</v>
+        <v>-4.99685324657794</v>
       </c>
       <c r="C119" t="n">
-        <v>12.2581063234227</v>
+        <v>-5.81438238264827</v>
       </c>
       <c r="D119" t="n">
-        <v>12.7980802247937</v>
+        <v>-6.60613532623828</v>
       </c>
       <c r="E119" t="n">
-        <v>14.9376312878301</v>
+        <v>-7.58439715809839</v>
       </c>
       <c r="F119" t="n">
-        <v>15.1657835037687</v>
+        <v>-7.3915801731457</v>
       </c>
       <c r="G119" t="n">
-        <v>17.202689052417</v>
+        <v>-7.92867184698533</v>
       </c>
       <c r="H119" t="n">
-        <v>16.3505157174939</v>
+        <v>-8.48407580152379</v>
       </c>
       <c r="I119" t="n">
-        <v>16.955780551319</v>
+        <v>-8.39610076847232</v>
       </c>
       <c r="J119" t="n">
-        <v>18.1412970027467</v>
+        <v>-9.49643896497927</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10.5581459769195</v>
+        <v>-5.12622674201993</v>
       </c>
       <c r="B120" t="n">
-        <v>10.6614379632792</v>
+        <v>-5.150496556851</v>
       </c>
       <c r="C120" t="n">
-        <v>11.5154275718773</v>
+        <v>-5.73039571689959</v>
       </c>
       <c r="D120" t="n">
-        <v>12.0899565232723</v>
+        <v>-6.72189317078801</v>
       </c>
       <c r="E120" t="n">
-        <v>13.4041532693528</v>
+        <v>-6.83736832296828</v>
       </c>
       <c r="F120" t="n">
-        <v>14.1873943118051</v>
+        <v>-7.66916845748346</v>
       </c>
       <c r="G120" t="n">
-        <v>15.4360733202313</v>
+        <v>-8.2454685116159</v>
       </c>
       <c r="H120" t="n">
-        <v>18.1699411796439</v>
+        <v>-8.91220228140541</v>
       </c>
       <c r="I120" t="n">
-        <v>18.3096768554938</v>
+        <v>18.8224914259627</v>
       </c>
       <c r="J120" t="n">
-        <v>19.9889024770241</v>
+        <v>19.7121490572668</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-5.02718004036678</v>
+        <v>-5.23672562968233</v>
       </c>
       <c r="B121" t="n">
-        <v>-5.78460873138603</v>
+        <v>-5.70016466977651</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.37403568449152</v>
+        <v>-5.88103034862111</v>
       </c>
       <c r="D121" t="n">
-        <v>-6.35729864739456</v>
+        <v>-6.49748325807169</v>
       </c>
       <c r="E121" t="n">
-        <v>-6.82960739145723</v>
+        <v>-7.12618049936882</v>
       </c>
       <c r="F121" t="n">
-        <v>-7.2906735581701</v>
+        <v>-7.87502083484994</v>
       </c>
       <c r="G121" t="n">
-        <v>-8.12108070569626</v>
+        <v>-7.74179509718709</v>
       </c>
       <c r="H121" t="n">
-        <v>-8.41720889858247</v>
+        <v>-8.63824815625057</v>
       </c>
       <c r="I121" t="n">
-        <v>-8.78338552306203</v>
+        <v>-9.26280349352306</v>
       </c>
       <c r="J121" t="n">
-        <v>-9.66750182568699</v>
+        <v>-9.4532737725446</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>10.1487229864027</v>
+        <v>9.73906487845237</v>
       </c>
       <c r="B122" t="n">
-        <v>9.94036337311594</v>
+        <v>11.9632660675013</v>
       </c>
       <c r="C122" t="n">
-        <v>12.7624606233664</v>
+        <v>11.3434779844951</v>
       </c>
       <c r="D122" t="n">
-        <v>13.5543680819344</v>
+        <v>13.4565029436595</v>
       </c>
       <c r="E122" t="n">
-        <v>13.8923477933274</v>
+        <v>13.4014565128336</v>
       </c>
       <c r="F122" t="n">
-        <v>14.4136295939783</v>
+        <v>14.0589309416628</v>
       </c>
       <c r="G122" t="n">
-        <v>16.7434186904485</v>
+        <v>17.2499205439654</v>
       </c>
       <c r="H122" t="n">
-        <v>16.8847712162001</v>
+        <v>16.7638126994152</v>
       </c>
       <c r="I122" t="n">
-        <v>17.3582438850911</v>
+        <v>19.3413940300901</v>
       </c>
       <c r="J122" t="n">
-        <v>19.9577184799309</v>
+        <v>19.4661909148381</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-4.88275497092644</v>
+        <v>9.80065429942702</v>
       </c>
       <c r="B123" t="n">
-        <v>-5.71075814290895</v>
+        <v>10.5322765054776</v>
       </c>
       <c r="C123" t="n">
-        <v>-5.89513848756032</v>
+        <v>12.2158454815745</v>
       </c>
       <c r="D123" t="n">
-        <v>-6.13814537215576</v>
+        <v>11.9118473779949</v>
       </c>
       <c r="E123" t="n">
-        <v>-7.39910025673736</v>
+        <v>13.7230588615115</v>
       </c>
       <c r="F123" t="n">
-        <v>-7.86646393316176</v>
+        <v>16.6801301067589</v>
       </c>
       <c r="G123" t="n">
-        <v>-7.72485930136914</v>
+        <v>17.3849105678765</v>
       </c>
       <c r="H123" t="n">
-        <v>-8.2785981189529</v>
+        <v>17.7483954972149</v>
       </c>
       <c r="I123" t="n">
-        <v>-9.06513087855593</v>
+        <v>17.9757359162444</v>
       </c>
       <c r="J123" t="n">
-        <v>-9.39152970152796</v>
+        <v>19.1655655627669</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9.43356784535371</v>
+        <v>10.1170191148391</v>
       </c>
       <c r="B124" t="n">
-        <v>10.4681187995846</v>
+        <v>10.2460719954467</v>
       </c>
       <c r="C124" t="n">
-        <v>12.6173698488568</v>
+        <v>11.3695875187528</v>
       </c>
       <c r="D124" t="n">
-        <v>12.9814242442898</v>
+        <v>13.9967260659813</v>
       </c>
       <c r="E124" t="n">
-        <v>13.4229061895355</v>
+        <v>14.5238540974439</v>
       </c>
       <c r="F124" t="n">
-        <v>15.6941465048926</v>
+        <v>14.7290913774704</v>
       </c>
       <c r="G124" t="n">
-        <v>15.7566730401604</v>
+        <v>16.3515620352558</v>
       </c>
       <c r="H124" t="n">
-        <v>16.7184965963741</v>
+        <v>16.1187431993288</v>
       </c>
       <c r="I124" t="n">
-        <v>17.5677102133446</v>
+        <v>17.8578173344479</v>
       </c>
       <c r="J124" t="n">
-        <v>18.9615397046109</v>
+        <v>17.9396772970854</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>10.5731190536282</v>
+        <v>9.62509951778517</v>
       </c>
       <c r="B125" t="n">
-        <v>11.317616867827</v>
+        <v>-5.25274196947234</v>
       </c>
       <c r="C125" t="n">
-        <v>12.6872404732567</v>
+        <v>-6.19844268313756</v>
       </c>
       <c r="D125" t="n">
-        <v>13.4695763951698</v>
+        <v>-6.44884113160516</v>
       </c>
       <c r="E125" t="n">
-        <v>14.4528942801022</v>
+        <v>-6.78522800425873</v>
       </c>
       <c r="F125" t="n">
-        <v>14.5456818376149</v>
+        <v>-7.35928105335752</v>
       </c>
       <c r="G125" t="n">
-        <v>15.8447735747966</v>
+        <v>-8.26717901575143</v>
       </c>
       <c r="H125" t="n">
-        <v>16.1744023460245</v>
+        <v>-8.74213269307756</v>
       </c>
       <c r="I125" t="n">
-        <v>17.6518592776411</v>
+        <v>-9.57220625616639</v>
       </c>
       <c r="J125" t="n">
-        <v>19.8479028898875</v>
+        <v>-9.32610825809246</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-5.34283687422254</v>
+        <v>9.00374855431754</v>
       </c>
       <c r="B126" t="n">
-        <v>-5.39933611116653</v>
+        <v>10.4482402338409</v>
       </c>
       <c r="C126" t="n">
-        <v>-6.51174849179465</v>
+        <v>11.3254952293427</v>
       </c>
       <c r="D126" t="n">
-        <v>-6.33176249441127</v>
+        <v>13.5045566056993</v>
       </c>
       <c r="E126" t="n">
-        <v>-6.92605170562827</v>
+        <v>13.2104195348687</v>
       </c>
       <c r="F126" t="n">
-        <v>-7.58717858319779</v>
+        <v>14.5836056445824</v>
       </c>
       <c r="G126" t="n">
-        <v>-8.03503729046296</v>
+        <v>17.4697499447632</v>
       </c>
       <c r="H126" t="n">
-        <v>-8.50210784920048</v>
+        <v>-8.05323329635224</v>
       </c>
       <c r="I126" t="n">
-        <v>-9.05886766171004</v>
+        <v>-9.35809739909998</v>
       </c>
       <c r="J126" t="n">
-        <v>-9.43037208813193</v>
+        <v>-9.72532721398089</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-5.32655297948527</v>
+        <v>-5.02899101775084</v>
       </c>
       <c r="B127" t="n">
-        <v>-5.27220875001675</v>
+        <v>-5.68806555549436</v>
       </c>
       <c r="C127" t="n">
-        <v>-5.68621925355711</v>
+        <v>-6.17258009870732</v>
       </c>
       <c r="D127" t="n">
-        <v>-6.19982512423066</v>
+        <v>-6.50211829830166</v>
       </c>
       <c r="E127" t="n">
-        <v>-7.18792673532954</v>
+        <v>-7.16118779451352</v>
       </c>
       <c r="F127" t="n">
-        <v>-7.36501331452456</v>
+        <v>-7.47301227411427</v>
       </c>
       <c r="G127" t="n">
-        <v>-7.85734041450447</v>
+        <v>-8.03516093212273</v>
       </c>
       <c r="H127" t="n">
-        <v>-8.46335752674822</v>
+        <v>-8.24355263164232</v>
       </c>
       <c r="I127" t="n">
-        <v>-8.65969660074272</v>
+        <v>-9.11158135356584</v>
       </c>
       <c r="J127" t="n">
-        <v>-8.97613987317174</v>
+        <v>-9.30315834000529</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9.22364200877593</v>
+        <v>-5.14741806658938</v>
       </c>
       <c r="B128" t="n">
-        <v>11.5965982510868</v>
+        <v>-5.72798106393272</v>
       </c>
       <c r="C128" t="n">
-        <v>11.8687388299706</v>
+        <v>-6.19518509385781</v>
       </c>
       <c r="D128" t="n">
-        <v>11.8873926938106</v>
+        <v>-6.50445296490735</v>
       </c>
       <c r="E128" t="n">
-        <v>13.2582442244699</v>
+        <v>-6.89758527012703</v>
       </c>
       <c r="F128" t="n">
-        <v>15.9266422320403</v>
+        <v>-7.59312833668888</v>
       </c>
       <c r="G128" t="n">
-        <v>16.3723896970108</v>
+        <v>-8.08654032654091</v>
       </c>
       <c r="H128" t="n">
-        <v>17.1843366605249</v>
+        <v>-8.48444530797717</v>
       </c>
       <c r="I128" t="n">
-        <v>18.7351299934011</v>
+        <v>-9.17993765354072</v>
       </c>
       <c r="J128" t="n">
-        <v>19.7696616624442</v>
+        <v>-9.68103088834614</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-4.94507426958916</v>
+        <v>9.20752857703356</v>
       </c>
       <c r="B129" t="n">
-        <v>-5.65970484567296</v>
+        <v>9.79250803944094</v>
       </c>
       <c r="C129" t="n">
-        <v>-5.90751113684785</v>
+        <v>12.4635900979381</v>
       </c>
       <c r="D129" t="n">
-        <v>-6.80924435391244</v>
+        <v>12.776713606172</v>
       </c>
       <c r="E129" t="n">
-        <v>-6.94153133223806</v>
+        <v>15.3085124482855</v>
       </c>
       <c r="F129" t="n">
-        <v>-7.19231387978353</v>
+        <v>13.2956652623093</v>
       </c>
       <c r="G129" t="n">
-        <v>-8.07050347239672</v>
+        <v>16.5386349447007</v>
       </c>
       <c r="H129" t="n">
-        <v>-8.15717386382724</v>
+        <v>17.2261806907858</v>
       </c>
       <c r="I129" t="n">
-        <v>-9.35255261773922</v>
+        <v>18.5962402594663</v>
       </c>
       <c r="J129" t="n">
-        <v>-9.59704466711577</v>
+        <v>19.2297043978553</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8.27050144721101</v>
+        <v>11.0544526381366</v>
       </c>
       <c r="B130" t="n">
-        <v>10.1122378975303</v>
+        <v>12.4521499652231</v>
       </c>
       <c r="C130" t="n">
-        <v>11.4880745456635</v>
+        <v>13.2256642124415</v>
       </c>
       <c r="D130" t="n">
-        <v>13.4979412405151</v>
+        <v>13.5708458286482</v>
       </c>
       <c r="E130" t="n">
-        <v>13.2365713044726</v>
+        <v>12.5934770240264</v>
       </c>
       <c r="F130" t="n">
-        <v>-7.82921200852365</v>
+        <v>-7.28874923116658</v>
       </c>
       <c r="G130" t="n">
-        <v>-8.39867737452586</v>
+        <v>-8.00851788738552</v>
       </c>
       <c r="H130" t="n">
-        <v>-8.60268387646822</v>
+        <v>-8.67935823061349</v>
       </c>
       <c r="I130" t="n">
-        <v>-9.15075649021446</v>
+        <v>-8.84603807949844</v>
       </c>
       <c r="J130" t="n">
-        <v>-9.3806662224342</v>
+        <v>-9.16746157171329</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8.81734059278056</v>
+        <v>-5.32174385451607</v>
       </c>
       <c r="B131" t="n">
-        <v>10.2867070021809</v>
+        <v>-5.5492882210961</v>
       </c>
       <c r="C131" t="n">
-        <v>13.6943438502405</v>
+        <v>-6.10077397709814</v>
       </c>
       <c r="D131" t="n">
-        <v>14.5388781526998</v>
+        <v>-6.27635156421832</v>
       </c>
       <c r="E131" t="n">
-        <v>15.531933633101</v>
+        <v>-6.84221192314931</v>
       </c>
       <c r="F131" t="n">
-        <v>14.8470817335676</v>
+        <v>-7.46504230779739</v>
       </c>
       <c r="G131" t="n">
-        <v>16.5064755162513</v>
+        <v>-8.07901302967986</v>
       </c>
       <c r="H131" t="n">
-        <v>17.4969487906962</v>
+        <v>-8.48473296392238</v>
       </c>
       <c r="I131" t="n">
-        <v>18.3792783263061</v>
+        <v>-8.87671500455356</v>
       </c>
       <c r="J131" t="n">
-        <v>21.0845405847305</v>
+        <v>-9.63999513890616</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.2476033672726</v>
+        <v>9.99149387286659</v>
       </c>
       <c r="B132" t="n">
-        <v>10.7883300191127</v>
+        <v>10.5262422058001</v>
       </c>
       <c r="C132" t="n">
-        <v>12.6219236342387</v>
+        <v>12.907671901717</v>
       </c>
       <c r="D132" t="n">
-        <v>11.9347389233131</v>
+        <v>11.7989685357224</v>
       </c>
       <c r="E132" t="n">
-        <v>13.6757831651621</v>
+        <v>13.7318359959438</v>
       </c>
       <c r="F132" t="n">
-        <v>15.5260508342058</v>
+        <v>15.6822706069358</v>
       </c>
       <c r="G132" t="n">
-        <v>14.9928957479234</v>
+        <v>15.9278592598249</v>
       </c>
       <c r="H132" t="n">
-        <v>16.6335670978617</v>
+        <v>18.7910002165212</v>
       </c>
       <c r="I132" t="n">
-        <v>17.1952131272959</v>
+        <v>19.3648147818287</v>
       </c>
       <c r="J132" t="n">
-        <v>19.2597558139301</v>
+        <v>-9.40721037883521</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-4.99348010854576</v>
+        <v>-4.96733322548089</v>
       </c>
       <c r="B133" t="n">
-        <v>-5.38436397055283</v>
+        <v>-5.81762581499398</v>
       </c>
       <c r="C133" t="n">
-        <v>-6.45451195013679</v>
+        <v>-5.72928298762709</v>
       </c>
       <c r="D133" t="n">
-        <v>-6.5894771678918</v>
+        <v>-6.13210377710638</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.00952647831162</v>
+        <v>-7.47331614856632</v>
       </c>
       <c r="F133" t="n">
-        <v>-7.70563384566452</v>
+        <v>-7.53859542034272</v>
       </c>
       <c r="G133" t="n">
-        <v>-8.55799840645307</v>
+        <v>-7.44106187951837</v>
       </c>
       <c r="H133" t="n">
-        <v>-8.88382506311572</v>
+        <v>-7.86389542400596</v>
       </c>
       <c r="I133" t="n">
-        <v>-8.64558407317658</v>
+        <v>-9.3785125908733</v>
       </c>
       <c r="J133" t="n">
-        <v>-9.39544168047583</v>
+        <v>-9.60498451661332</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-5.11711077396576</v>
+        <v>-5.11083124959104</v>
       </c>
       <c r="B134" t="n">
-        <v>-5.58644065206129</v>
+        <v>-5.56919507769122</v>
       </c>
       <c r="C134" t="n">
-        <v>-5.71881199248082</v>
+        <v>-5.90976329205026</v>
       </c>
       <c r="D134" t="n">
-        <v>-6.60178816518338</v>
+        <v>-6.42284893165764</v>
       </c>
       <c r="E134" t="n">
-        <v>-6.96942917153332</v>
+        <v>-7.14237333217553</v>
       </c>
       <c r="F134" t="n">
-        <v>-7.72727013892189</v>
+        <v>-7.76775972685468</v>
       </c>
       <c r="G134" t="n">
-        <v>-7.70696940906473</v>
+        <v>-8.04636119657968</v>
       </c>
       <c r="H134" t="n">
-        <v>-9.04619693676956</v>
+        <v>-8.66613432251346</v>
       </c>
       <c r="I134" t="n">
-        <v>-9.04786535907253</v>
+        <v>-8.5096008889954</v>
       </c>
       <c r="J134" t="n">
-        <v>-9.10640259101798</v>
+        <v>-9.87481866359338</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-5.17052018016224</v>
+        <v>8.82243806972581</v>
       </c>
       <c r="B135" t="n">
-        <v>-5.47017140804682</v>
+        <v>11.9417430670305</v>
       </c>
       <c r="C135" t="n">
-        <v>-6.10748949911166</v>
+        <v>-5.93990380126599</v>
       </c>
       <c r="D135" t="n">
-        <v>-6.50041215919089</v>
+        <v>-6.2933306879603</v>
       </c>
       <c r="E135" t="n">
-        <v>-6.89800450150268</v>
+        <v>-6.97183576045146</v>
       </c>
       <c r="F135" t="n">
-        <v>-7.40534306434708</v>
+        <v>-8.03965095705067</v>
       </c>
       <c r="G135" t="n">
-        <v>-7.60886684093595</v>
+        <v>-8.25790477219794</v>
       </c>
       <c r="H135" t="n">
-        <v>-8.75932813465644</v>
+        <v>-8.49389891779615</v>
       </c>
       <c r="I135" t="n">
-        <v>-9.15081236082936</v>
+        <v>-8.73690063999802</v>
       </c>
       <c r="J135" t="n">
-        <v>-9.72810364838103</v>
+        <v>-9.08490855271284</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.82163404753</v>
+        <v>9.41920280509586</v>
       </c>
       <c r="B136" t="n">
-        <v>11.7724639736066</v>
+        <v>10.3338434820111</v>
       </c>
       <c r="C136" t="n">
-        <v>12.5930047000124</v>
+        <v>11.7264701229883</v>
       </c>
       <c r="D136" t="n">
-        <v>13.8120745618716</v>
+        <v>12.7514713476059</v>
       </c>
       <c r="E136" t="n">
-        <v>12.670651813128</v>
+        <v>13.2759464793545</v>
       </c>
       <c r="F136" t="n">
-        <v>15.7460698826893</v>
+        <v>14.2764096474313</v>
       </c>
       <c r="G136" t="n">
-        <v>15.1715908952306</v>
+        <v>16.9923562066744</v>
       </c>
       <c r="H136" t="n">
-        <v>16.1324001500014</v>
+        <v>17.8653046109235</v>
       </c>
       <c r="I136" t="n">
-        <v>17.4366170123771</v>
+        <v>18.0063264936116</v>
       </c>
       <c r="J136" t="n">
-        <v>18.0766123682978</v>
+        <v>19.483514944237</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.21843357398162</v>
+        <v>-5.20304355916512</v>
       </c>
       <c r="B137" t="n">
-        <v>11.0880142262271</v>
+        <v>-5.89153775707008</v>
       </c>
       <c r="C137" t="n">
-        <v>12.993026646373</v>
+        <v>-5.84744723534511</v>
       </c>
       <c r="D137" t="n">
-        <v>12.5802458966818</v>
+        <v>-6.4168235699874</v>
       </c>
       <c r="E137" t="n">
-        <v>14.8495517820881</v>
+        <v>-7.10218267934269</v>
       </c>
       <c r="F137" t="n">
-        <v>16.063850537898</v>
+        <v>-7.42262516830775</v>
       </c>
       <c r="G137" t="n">
-        <v>15.8073630815167</v>
+        <v>-7.2036614938217</v>
       </c>
       <c r="H137" t="n">
-        <v>18.2874309436856</v>
+        <v>-8.71099746724094</v>
       </c>
       <c r="I137" t="n">
-        <v>16.5319613321735</v>
+        <v>-8.63892282640655</v>
       </c>
       <c r="J137" t="n">
-        <v>19.1425409937794</v>
+        <v>-9.60158510899131</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10.1410514869607</v>
+        <v>10.3557543578267</v>
       </c>
       <c r="B138" t="n">
-        <v>11.8697127568634</v>
+        <v>11.8150322952431</v>
       </c>
       <c r="C138" t="n">
-        <v>11.8570131305726</v>
+        <v>11.984384297959</v>
       </c>
       <c r="D138" t="n">
-        <v>-6.59842024101011</v>
+        <v>13.9448006340579</v>
       </c>
       <c r="E138" t="n">
-        <v>-6.78838627605747</v>
+        <v>15.2290789574863</v>
       </c>
       <c r="F138" t="n">
-        <v>-7.4110035276039</v>
+        <v>14.8876034792185</v>
       </c>
       <c r="G138" t="n">
-        <v>-7.84367003848672</v>
+        <v>14.8563881204279</v>
       </c>
       <c r="H138" t="n">
-        <v>-8.41004538871849</v>
+        <v>16.8052942680037</v>
       </c>
       <c r="I138" t="n">
-        <v>-8.38568434989048</v>
+        <v>18.2309172647295</v>
       </c>
       <c r="J138" t="n">
-        <v>-9.59162264075544</v>
+        <v>-8.86851313262713</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-4.67483701717517</v>
+        <v>9.57194108931623</v>
       </c>
       <c r="B139" t="n">
-        <v>-5.80778558979722</v>
+        <v>-5.84667276447054</v>
       </c>
       <c r="C139" t="n">
-        <v>-6.08157155103887</v>
+        <v>-6.33091536059168</v>
       </c>
       <c r="D139" t="n">
-        <v>-6.49800314636692</v>
+        <v>-6.76073835883788</v>
       </c>
       <c r="E139" t="n">
-        <v>-7.22224337497271</v>
+        <v>-7.00189847419527</v>
       </c>
       <c r="F139" t="n">
-        <v>-8.11800244738022</v>
+        <v>-7.21567350615277</v>
       </c>
       <c r="G139" t="n">
-        <v>-8.21880776582022</v>
+        <v>-8.17281157405611</v>
       </c>
       <c r="H139" t="n">
-        <v>-8.93387284813058</v>
+        <v>-8.88591200923678</v>
       </c>
       <c r="I139" t="n">
-        <v>-8.7779783912196</v>
+        <v>-9.11051859911547</v>
       </c>
       <c r="J139" t="n">
-        <v>-9.780756044614</v>
+        <v>-9.36715698141719</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-4.83046255095982</v>
+        <v>9.89474110399034</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.56154726729575</v>
+        <v>10.6630422796925</v>
       </c>
       <c r="C140" t="n">
-        <v>-6.24818968923835</v>
+        <v>12.3872929066713</v>
       </c>
       <c r="D140" t="n">
-        <v>-6.49319478025652</v>
+        <v>12.8836693976322</v>
       </c>
       <c r="E140" t="n">
-        <v>-6.66583355944052</v>
+        <v>13.5741681578252</v>
       </c>
       <c r="F140" t="n">
-        <v>-7.81122229460947</v>
+        <v>14.2319131283456</v>
       </c>
       <c r="G140" t="n">
-        <v>-7.8044737265887</v>
+        <v>17.4447081209204</v>
       </c>
       <c r="H140" t="n">
-        <v>-8.41547406113568</v>
+        <v>18.3009913554296</v>
       </c>
       <c r="I140" t="n">
-        <v>-8.79112168421785</v>
+        <v>18.5358293959405</v>
       </c>
       <c r="J140" t="n">
-        <v>-9.47361308592525</v>
+        <v>18.6417034175088</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.53999441055834</v>
+        <v>9.59248683866706</v>
       </c>
       <c r="B141" t="n">
-        <v>11.7865079034844</v>
+        <v>10.7094580182106</v>
       </c>
       <c r="C141" t="n">
-        <v>12.5220927556127</v>
+        <v>12.3716575018539</v>
       </c>
       <c r="D141" t="n">
-        <v>13.245121747223</v>
+        <v>13.357112255091</v>
       </c>
       <c r="E141" t="n">
-        <v>14.3297936390793</v>
+        <v>13.7745029428854</v>
       </c>
       <c r="F141" t="n">
-        <v>15.8226395563207</v>
+        <v>16.6264402755673</v>
       </c>
       <c r="G141" t="n">
-        <v>15.971188170144</v>
+        <v>16.2300693736844</v>
       </c>
       <c r="H141" t="n">
-        <v>16.7150108460644</v>
+        <v>17.2300377075847</v>
       </c>
       <c r="I141" t="n">
-        <v>18.0879718050276</v>
+        <v>19.1445110737704</v>
       </c>
       <c r="J141" t="n">
-        <v>18.1922707846791</v>
+        <v>18.6564523896199</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.62468767966971</v>
+        <v>-5.10275122974354</v>
       </c>
       <c r="B142" t="n">
-        <v>11.6033456760523</v>
+        <v>-5.40271456852305</v>
       </c>
       <c r="C142" t="n">
-        <v>12.2393498680732</v>
+        <v>12.5016281525714</v>
       </c>
       <c r="D142" t="n">
-        <v>13.4856211523405</v>
+        <v>-6.46208719890171</v>
       </c>
       <c r="E142" t="n">
-        <v>13.7325738120043</v>
+        <v>-6.92288650766487</v>
       </c>
       <c r="F142" t="n">
-        <v>-7.29910776479003</v>
+        <v>-7.4626608595845</v>
       </c>
       <c r="G142" t="n">
-        <v>-7.78641579170064</v>
+        <v>-8.14618567986554</v>
       </c>
       <c r="H142" t="n">
-        <v>-8.66356909788827</v>
+        <v>-8.41992677939609</v>
       </c>
       <c r="I142" t="n">
-        <v>-8.82759472502552</v>
+        <v>-8.76833659740721</v>
       </c>
       <c r="J142" t="n">
-        <v>-9.31841836625229</v>
+        <v>-9.58596658006375</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.64441841951951</v>
+        <v>10.2625023121069</v>
       </c>
       <c r="B143" t="n">
-        <v>11.5786934104122</v>
+        <v>11.1403672326343</v>
       </c>
       <c r="C143" t="n">
-        <v>11.1879900302091</v>
+        <v>11.8344268867197</v>
       </c>
       <c r="D143" t="n">
-        <v>12.771821753769</v>
+        <v>13.1698520166355</v>
       </c>
       <c r="E143" t="n">
-        <v>14.2950047817315</v>
+        <v>13.9434928075297</v>
       </c>
       <c r="F143" t="n">
-        <v>-7.43892520961135</v>
+        <v>14.5027474786119</v>
       </c>
       <c r="G143" t="n">
-        <v>-8.03731649620768</v>
+        <v>15.6765124600085</v>
       </c>
       <c r="H143" t="n">
-        <v>-8.13176377222017</v>
+        <v>17.0712305644874</v>
       </c>
       <c r="I143" t="n">
-        <v>-9.15291250774451</v>
+        <v>18.1098846765439</v>
       </c>
       <c r="J143" t="n">
-        <v>-9.59706072414498</v>
+        <v>18.1049709670186</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10.4847982189138</v>
+        <v>9.42372860603681</v>
       </c>
       <c r="B144" t="n">
-        <v>8.73533463902616</v>
+        <v>11.0315523046313</v>
       </c>
       <c r="C144" t="n">
-        <v>11.9757517031747</v>
+        <v>-5.71367177279351</v>
       </c>
       <c r="D144" t="n">
-        <v>12.837225896749</v>
+        <v>-6.13697865204165</v>
       </c>
       <c r="E144" t="n">
-        <v>13.222583981729</v>
+        <v>-6.65640655752233</v>
       </c>
       <c r="F144" t="n">
-        <v>-7.73045014368676</v>
+        <v>-7.67572851479038</v>
       </c>
       <c r="G144" t="n">
-        <v>-8.08256885228815</v>
+        <v>-8.00925310898649</v>
       </c>
       <c r="H144" t="n">
-        <v>17.2806939420607</v>
+        <v>-8.51765631411867</v>
       </c>
       <c r="I144" t="n">
-        <v>16.7932623988552</v>
+        <v>-8.82378134170311</v>
       </c>
       <c r="J144" t="n">
-        <v>-9.48503534440404</v>
+        <v>-9.30574729715881</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>9.1156721398808</v>
+        <v>10.1017762926694</v>
       </c>
       <c r="B145" t="n">
-        <v>11.6254337639437</v>
+        <v>10.8249678522841</v>
       </c>
       <c r="C145" t="n">
-        <v>11.5334521706609</v>
+        <v>11.2975602855974</v>
       </c>
       <c r="D145" t="n">
-        <v>13.3871736590438</v>
+        <v>13.960988430631</v>
       </c>
       <c r="E145" t="n">
-        <v>14.7099630189651</v>
+        <v>14.0052277633749</v>
       </c>
       <c r="F145" t="n">
-        <v>15.0009526421768</v>
+        <v>15.7653077301659</v>
       </c>
       <c r="G145" t="n">
-        <v>15.8592217349603</v>
+        <v>16.9394972145229</v>
       </c>
       <c r="H145" t="n">
-        <v>17.3284169498101</v>
+        <v>17.1592833257388</v>
       </c>
       <c r="I145" t="n">
-        <v>17.2140071324914</v>
+        <v>18.3658730939443</v>
       </c>
       <c r="J145" t="n">
-        <v>18.1966923247742</v>
+        <v>18.6116192481524</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10.4908132530361</v>
+        <v>10.9651543592436</v>
       </c>
       <c r="B146" t="n">
-        <v>11.0054617318522</v>
+        <v>12.0099056405254</v>
       </c>
       <c r="C146" t="n">
-        <v>11.0736847444309</v>
+        <v>10.1378737890866</v>
       </c>
       <c r="D146" t="n">
-        <v>12.7822952100149</v>
+        <v>13.4474691954616</v>
       </c>
       <c r="E146" t="n">
-        <v>13.7080191739435</v>
+        <v>14.2576625777437</v>
       </c>
       <c r="F146" t="n">
-        <v>15.125808871013</v>
+        <v>14.4447059700508</v>
       </c>
       <c r="G146" t="n">
-        <v>15.6137026129304</v>
+        <v>16.6621456443946</v>
       </c>
       <c r="H146" t="n">
-        <v>16.0359328617672</v>
+        <v>17.0369617021565</v>
       </c>
       <c r="I146" t="n">
-        <v>17.9581903423584</v>
+        <v>18.7731811017853</v>
       </c>
       <c r="J146" t="n">
-        <v>-9.49397345285002</v>
+        <v>21.1295350807193</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>9.35499815794113</v>
+        <v>-5.44501152719394</v>
       </c>
       <c r="B147" t="n">
-        <v>10.5898001581445</v>
+        <v>-5.45614847909046</v>
       </c>
       <c r="C147" t="n">
-        <v>11.431875762285</v>
+        <v>-5.82861023806775</v>
       </c>
       <c r="D147" t="n">
-        <v>11.9343246944812</v>
+        <v>-6.58309558127163</v>
       </c>
       <c r="E147" t="n">
-        <v>14.2125959042383</v>
+        <v>-7.15431426181909</v>
       </c>
       <c r="F147" t="n">
-        <v>15.5189268226862</v>
+        <v>-7.46754524767447</v>
       </c>
       <c r="G147" t="n">
-        <v>15.2297013043621</v>
+        <v>-7.81412521000994</v>
       </c>
       <c r="H147" t="n">
-        <v>17.6924328786079</v>
+        <v>-8.25973859500141</v>
       </c>
       <c r="I147" t="n">
-        <v>16.0957264707353</v>
+        <v>-8.97961330854642</v>
       </c>
       <c r="J147" t="n">
-        <v>17.5958888876792</v>
+        <v>-9.80714312384105</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-5.44609043162492</v>
+        <v>9.66020952685007</v>
       </c>
       <c r="B148" t="n">
-        <v>-5.66104585777505</v>
+        <v>11.2930415941244</v>
       </c>
       <c r="C148" t="n">
-        <v>-6.15820096534525</v>
+        <v>12.4183941368968</v>
       </c>
       <c r="D148" t="n">
-        <v>-6.41262219273459</v>
+        <v>13.584276866704</v>
       </c>
       <c r="E148" t="n">
-        <v>-6.80076671850421</v>
+        <v>14.1285498703135</v>
       </c>
       <c r="F148" t="n">
-        <v>-7.507884887264</v>
+        <v>15.7174482241606</v>
       </c>
       <c r="G148" t="n">
-        <v>-7.79575637806546</v>
+        <v>14.9723500226122</v>
       </c>
       <c r="H148" t="n">
-        <v>-8.15836554854779</v>
+        <v>17.837175086805</v>
       </c>
       <c r="I148" t="n">
-        <v>-8.87028131106914</v>
+        <v>18.4886502471866</v>
       </c>
       <c r="J148" t="n">
-        <v>-9.62568857779394</v>
+        <v>18.7115191082854</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-5.20844162252673</v>
+        <v>10.0953859500667</v>
       </c>
       <c r="B149" t="n">
-        <v>-5.74500674463447</v>
+        <v>11.3840228031174</v>
       </c>
       <c r="C149" t="n">
-        <v>-5.90066084049393</v>
+        <v>12.0345921705455</v>
       </c>
       <c r="D149" t="n">
-        <v>-6.29486409017515</v>
+        <v>13.2131210293844</v>
       </c>
       <c r="E149" t="n">
-        <v>-6.78923994948667</v>
+        <v>13.896930458731</v>
       </c>
       <c r="F149" t="n">
-        <v>-6.78741129320115</v>
+        <v>15.3239811030453</v>
       </c>
       <c r="G149" t="n">
-        <v>-7.9907616712955</v>
+        <v>16.7526025651945</v>
       </c>
       <c r="H149" t="n">
-        <v>-8.53915375899318</v>
+        <v>17.28743874424</v>
       </c>
       <c r="I149" t="n">
-        <v>-8.86240341095266</v>
+        <v>19.2038530298764</v>
       </c>
       <c r="J149" t="n">
-        <v>-9.63734349767842</v>
+        <v>18.7060330831501</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.9130856371499</v>
+        <v>9.30669434136315</v>
       </c>
       <c r="B150" t="n">
-        <v>11.8436910329791</v>
+        <v>10.5415719235151</v>
       </c>
       <c r="C150" t="n">
-        <v>13.1154573283868</v>
+        <v>13.1756662228658</v>
       </c>
       <c r="D150" t="n">
-        <v>11.6684113898476</v>
+        <v>13.5196014285773</v>
       </c>
       <c r="E150" t="n">
-        <v>13.4657854076616</v>
+        <v>12.7802222367391</v>
       </c>
       <c r="F150" t="n">
-        <v>14.6290174868383</v>
+        <v>15.3154686767581</v>
       </c>
       <c r="G150" t="n">
-        <v>16.3703242577053</v>
+        <v>15.4844335294702</v>
       </c>
       <c r="H150" t="n">
-        <v>17.184492367977</v>
+        <v>15.7245903720256</v>
       </c>
       <c r="I150" t="n">
-        <v>17.5150090712352</v>
+        <v>18.3530096989169</v>
       </c>
       <c r="J150" t="n">
-        <v>19.8041941055181</v>
+        <v>19.8955501895219</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10.8132304315582</v>
+        <v>9.50683528135313</v>
       </c>
       <c r="B151" t="n">
-        <v>9.83724110764379</v>
+        <v>11.4521362920488</v>
       </c>
       <c r="C151" t="n">
-        <v>12.7669210868785</v>
+        <v>12.3453463322298</v>
       </c>
       <c r="D151" t="n">
-        <v>12.688239284881</v>
+        <v>12.9398078573768</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.03520636873218</v>
+        <v>14.4710228398585</v>
       </c>
       <c r="F151" t="n">
-        <v>-7.13976146248254</v>
+        <v>15.256080938527</v>
       </c>
       <c r="G151" t="n">
-        <v>-7.94792931271419</v>
+        <v>14.9869373784648</v>
       </c>
       <c r="H151" t="n">
-        <v>-8.32013885138379</v>
+        <v>16.5804254665311</v>
       </c>
       <c r="I151" t="n">
-        <v>-8.81679107925677</v>
+        <v>18.1668333058614</v>
       </c>
       <c r="J151" t="n">
-        <v>-9.74141925131166</v>
+        <v>20.1062824027781</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10.4863360782801</v>
+        <v>9.79824828919704</v>
       </c>
       <c r="B152" t="n">
-        <v>11.1547471811958</v>
+        <v>10.9757976970643</v>
       </c>
       <c r="C152" t="n">
-        <v>11.690879182022</v>
+        <v>10.8683625509646</v>
       </c>
       <c r="D152" t="n">
-        <v>13.1867500645731</v>
+        <v>14.0238879791138</v>
       </c>
       <c r="E152" t="n">
-        <v>14.3359977523508</v>
+        <v>12.7119815773902</v>
       </c>
       <c r="F152" t="n">
-        <v>14.673952266504</v>
+        <v>15.9015589665646</v>
       </c>
       <c r="G152" t="n">
-        <v>16.544337265504</v>
+        <v>16.0572856733488</v>
       </c>
       <c r="H152" t="n">
-        <v>18.4199824068775</v>
+        <v>18.3387932332001</v>
       </c>
       <c r="I152" t="n">
-        <v>18.3788808312344</v>
+        <v>18.1056188749279</v>
       </c>
       <c r="J152" t="n">
-        <v>18.299285146773</v>
+        <v>18.1490591834721</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10.4868732425046</v>
+        <v>10.1261519514223</v>
       </c>
       <c r="B153" t="n">
-        <v>9.2740915062451</v>
+        <v>10.6373168264053</v>
       </c>
       <c r="C153" t="n">
-        <v>12.5183393613753</v>
+        <v>12.9477270580002</v>
       </c>
       <c r="D153" t="n">
-        <v>13.3420621700667</v>
+        <v>12.4452762113602</v>
       </c>
       <c r="E153" t="n">
-        <v>14.2627293103281</v>
+        <v>14.0856945522775</v>
       </c>
       <c r="F153" t="n">
-        <v>14.5931398112533</v>
+        <v>14.5144366480301</v>
       </c>
       <c r="G153" t="n">
-        <v>17.4151205188675</v>
+        <v>14.6551084496033</v>
       </c>
       <c r="H153" t="n">
-        <v>16.5081436346801</v>
+        <v>16.0446407598743</v>
       </c>
       <c r="I153" t="n">
-        <v>18.3211640444703</v>
+        <v>16.6119661227255</v>
       </c>
       <c r="J153" t="n">
-        <v>19.0812860051354</v>
+        <v>18.6837851686221</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-5.07609798779168</v>
+        <v>9.48755136988906</v>
       </c>
       <c r="B154" t="n">
-        <v>-5.78029460303275</v>
+        <v>11.3937446894683</v>
       </c>
       <c r="C154" t="n">
-        <v>-6.05125237934033</v>
+        <v>11.7734090090849</v>
       </c>
       <c r="D154" t="n">
-        <v>-6.56628419052443</v>
+        <v>14.4127507554105</v>
       </c>
       <c r="E154" t="n">
-        <v>-6.88447763679446</v>
+        <v>13.5846644740037</v>
       </c>
       <c r="F154" t="n">
-        <v>-7.89195949743693</v>
+        <v>15.0118948691396</v>
       </c>
       <c r="G154" t="n">
-        <v>-8.29507742871681</v>
+        <v>15.2063461594936</v>
       </c>
       <c r="H154" t="n">
-        <v>-8.81120657108099</v>
+        <v>-8.35187533513102</v>
       </c>
       <c r="I154" t="n">
-        <v>-8.85700484986798</v>
+        <v>-8.91802023363072</v>
       </c>
       <c r="J154" t="n">
-        <v>-9.84252343216875</v>
+        <v>-9.80028932673851</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-4.84980760451137</v>
+        <v>9.63475148422208</v>
       </c>
       <c r="B155" t="n">
-        <v>-5.4175404578135</v>
+        <v>10.7871945369716</v>
       </c>
       <c r="C155" t="n">
-        <v>-6.41087866661919</v>
+        <v>11.0152706784053</v>
       </c>
       <c r="D155" t="n">
-        <v>-6.99282623747058</v>
+        <v>13.2325201046192</v>
       </c>
       <c r="E155" t="n">
-        <v>-7.3521588349537</v>
+        <v>14.3985519636914</v>
       </c>
       <c r="F155" t="n">
-        <v>-7.8411390693694</v>
+        <v>16.3000139680478</v>
       </c>
       <c r="G155" t="n">
-        <v>-7.98187960538649</v>
+        <v>16.9865195509352</v>
       </c>
       <c r="H155" t="n">
-        <v>-8.32443827843951</v>
+        <v>18.4004378365464</v>
       </c>
       <c r="I155" t="n">
-        <v>-9.17022210013502</v>
+        <v>17.1264993096477</v>
       </c>
       <c r="J155" t="n">
-        <v>-9.60706678606816</v>
+        <v>19.1801470383005</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.3716349206795</v>
+        <v>9.4325900105676</v>
       </c>
       <c r="B156" t="n">
-        <v>10.6470696333174</v>
+        <v>10.8349132184366</v>
       </c>
       <c r="C156" t="n">
-        <v>11.4410235723969</v>
+        <v>12.0881530123257</v>
       </c>
       <c r="D156" t="n">
-        <v>11.6204954957721</v>
+        <v>13.2603632630633</v>
       </c>
       <c r="E156" t="n">
-        <v>14.1687191458713</v>
+        <v>-6.55313204704047</v>
       </c>
       <c r="F156" t="n">
-        <v>15.6433372885863</v>
+        <v>-7.33644641477132</v>
       </c>
       <c r="G156" t="n">
-        <v>16.1140877004722</v>
+        <v>-8.14797401705301</v>
       </c>
       <c r="H156" t="n">
-        <v>17.087073560469</v>
+        <v>-8.38228129304877</v>
       </c>
       <c r="I156" t="n">
-        <v>18.1031862601836</v>
+        <v>-9.00571079257309</v>
       </c>
       <c r="J156" t="n">
-        <v>19.8030318870394</v>
+        <v>-9.30066814685493</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.2465273003681</v>
+        <v>-5.10400536066448</v>
       </c>
       <c r="B157" t="n">
-        <v>11.9478193823049</v>
+        <v>-5.5879992584764</v>
       </c>
       <c r="C157" t="n">
-        <v>11.6735819828002</v>
+        <v>-5.81257767845641</v>
       </c>
       <c r="D157" t="n">
-        <v>11.9421816393081</v>
+        <v>-6.45444110832014</v>
       </c>
       <c r="E157" t="n">
-        <v>12.6042424221936</v>
+        <v>-7.07867970609835</v>
       </c>
       <c r="F157" t="n">
-        <v>14.0426061285073</v>
+        <v>-7.4899403794284</v>
       </c>
       <c r="G157" t="n">
-        <v>15.8940403556672</v>
+        <v>-8.32083835129513</v>
       </c>
       <c r="H157" t="n">
-        <v>17.3873196097468</v>
+        <v>-8.37879004233746</v>
       </c>
       <c r="I157" t="n">
-        <v>17.6369796298271</v>
+        <v>-8.81641418194791</v>
       </c>
       <c r="J157" t="n">
-        <v>20.1796419632633</v>
+        <v>-9.16551760707567</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.534356760154</v>
+        <v>9.607194628059</v>
       </c>
       <c r="B158" t="n">
-        <v>11.4695683301274</v>
+        <v>10.3076258423093</v>
       </c>
       <c r="C158" t="n">
-        <v>10.8254159525014</v>
+        <v>-5.89089869276973</v>
       </c>
       <c r="D158" t="n">
-        <v>14.374662296495</v>
+        <v>-6.46759498829844</v>
       </c>
       <c r="E158" t="n">
-        <v>14.4506142223855</v>
+        <v>-6.59897665068959</v>
       </c>
       <c r="F158" t="n">
-        <v>14.937848676853</v>
+        <v>-7.63641744883263</v>
       </c>
       <c r="G158" t="n">
-        <v>16.7065758510953</v>
+        <v>-8.01260530438768</v>
       </c>
       <c r="H158" t="n">
-        <v>-8.34869102830166</v>
+        <v>-8.26850851053908</v>
       </c>
       <c r="I158" t="n">
-        <v>-9.09539112764872</v>
+        <v>-8.90018748974271</v>
       </c>
       <c r="J158" t="n">
-        <v>-9.50393574506421</v>
+        <v>-9.10953284819127</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-4.97183288652324</v>
+        <v>9.04816762350275</v>
       </c>
       <c r="B159" t="n">
-        <v>-5.84283672991992</v>
+        <v>9.87023334604374</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.14023053147922</v>
+        <v>10.8993413240563</v>
       </c>
       <c r="D159" t="n">
-        <v>-6.61380718136182</v>
+        <v>12.8019943125461</v>
       </c>
       <c r="E159" t="n">
-        <v>-6.60681807200903</v>
+        <v>13.718424345815</v>
       </c>
       <c r="F159" t="n">
-        <v>-8.06270775216233</v>
+        <v>14.4031811793784</v>
       </c>
       <c r="G159" t="n">
-        <v>14.3354446939411</v>
+        <v>16.2655479786137</v>
       </c>
       <c r="H159" t="n">
-        <v>17.0309366718628</v>
+        <v>16.9091856578174</v>
       </c>
       <c r="I159" t="n">
-        <v>18.4672296780173</v>
+        <v>17.6892769728833</v>
       </c>
       <c r="J159" t="n">
-        <v>19.0587196051401</v>
+        <v>19.7645551821928</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9.61908615867389</v>
+        <v>-5.45252186847458</v>
       </c>
       <c r="B160" t="n">
-        <v>11.6339992394963</v>
+        <v>-5.12813944333259</v>
       </c>
       <c r="C160" t="n">
-        <v>11.9779315441307</v>
+        <v>-6.23673415508209</v>
       </c>
       <c r="D160" t="n">
-        <v>12.2340928353443</v>
+        <v>12.8158429690427</v>
       </c>
       <c r="E160" t="n">
-        <v>14.7382285767239</v>
+        <v>13.1216513363766</v>
       </c>
       <c r="F160" t="n">
-        <v>14.5786483205026</v>
+        <v>14.0735230584871</v>
       </c>
       <c r="G160" t="n">
-        <v>15.7436348217537</v>
+        <v>15.2727775023031</v>
       </c>
       <c r="H160" t="n">
-        <v>17.7058118000474</v>
+        <v>16.816049881853</v>
       </c>
       <c r="I160" t="n">
-        <v>17.3214874947877</v>
+        <v>18.2537843614311</v>
       </c>
       <c r="J160" t="n">
-        <v>19.6013134425098</v>
+        <v>18.2298338778473</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-4.79742594987148</v>
+        <v>8.73987307782722</v>
       </c>
       <c r="B161" t="n">
-        <v>-5.26825125303078</v>
+        <v>-5.04701309139541</v>
       </c>
       <c r="C161" t="n">
-        <v>-6.55720562099616</v>
+        <v>-5.96633964802413</v>
       </c>
       <c r="D161" t="n">
-        <v>-6.02302396258404</v>
+        <v>-5.98698222397254</v>
       </c>
       <c r="E161" t="n">
-        <v>-6.88418232161903</v>
+        <v>14.1318242910731</v>
       </c>
       <c r="F161" t="n">
-        <v>14.5797898934385</v>
+        <v>15.228447140503</v>
       </c>
       <c r="G161" t="n">
-        <v>15.1993402688425</v>
+        <v>15.9419227178437</v>
       </c>
       <c r="H161" t="n">
-        <v>17.8124973407065</v>
+        <v>17.5690734091625</v>
       </c>
       <c r="I161" t="n">
-        <v>19.21534795915</v>
+        <v>18.83711779459</v>
       </c>
       <c r="J161" t="n">
-        <v>19.7375440382921</v>
+        <v>18.4843234380929</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10.5383678259987</v>
+        <v>-5.21398099966906</v>
       </c>
       <c r="B162" t="n">
-        <v>9.86635380357459</v>
+        <v>-5.83851415671536</v>
       </c>
       <c r="C162" t="n">
-        <v>12.0559757757866</v>
+        <v>-6.01226817901302</v>
       </c>
       <c r="D162" t="n">
-        <v>13.4948788694211</v>
+        <v>-7.05803813973303</v>
       </c>
       <c r="E162" t="n">
-        <v>12.7077278878283</v>
+        <v>-7.3939212961916</v>
       </c>
       <c r="F162" t="n">
-        <v>15.0617088447254</v>
+        <v>-7.54900337391978</v>
       </c>
       <c r="G162" t="n">
-        <v>16.3824838419475</v>
+        <v>-8.10891174802947</v>
       </c>
       <c r="H162" t="n">
-        <v>16.9873837459963</v>
+        <v>-8.74554958377608</v>
       </c>
       <c r="I162" t="n">
-        <v>18.743660254829</v>
+        <v>-9.02453511030025</v>
       </c>
       <c r="J162" t="n">
-        <v>18.5543479041053</v>
+        <v>-9.61194030035397</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>9.56198291537432</v>
+        <v>-4.74987261762451</v>
       </c>
       <c r="B163" t="n">
-        <v>11.9234800598515</v>
+        <v>-5.60949399846352</v>
       </c>
       <c r="C163" t="n">
-        <v>12.1188698104226</v>
+        <v>-6.36565019240034</v>
       </c>
       <c r="D163" t="n">
-        <v>13.8699345652258</v>
+        <v>-7.01729353652141</v>
       </c>
       <c r="E163" t="n">
-        <v>14.267250088188</v>
+        <v>-7.12385119985534</v>
       </c>
       <c r="F163" t="n">
-        <v>15.6713996649852</v>
+        <v>-7.54586009643325</v>
       </c>
       <c r="G163" t="n">
-        <v>15.7237748753593</v>
+        <v>-7.90439665381896</v>
       </c>
       <c r="H163" t="n">
-        <v>16.3620514385024</v>
+        <v>-8.48555410405</v>
       </c>
       <c r="I163" t="n">
-        <v>19.7161134314603</v>
+        <v>-9.22103308596438</v>
       </c>
       <c r="J163" t="n">
-        <v>19.0691957835833</v>
+        <v>-9.43826657735392</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-4.84571357595364</v>
+        <v>10.0079935046312</v>
       </c>
       <c r="B164" t="n">
-        <v>-5.20161118225838</v>
+        <v>11.4190890648483</v>
       </c>
       <c r="C164" t="n">
-        <v>-5.7636617174847</v>
+        <v>10.9385995113708</v>
       </c>
       <c r="D164" t="n">
-        <v>-6.69275434168102</v>
+        <v>14.380852637745</v>
       </c>
       <c r="E164" t="n">
-        <v>-6.81433547922646</v>
+        <v>13.1270082934301</v>
       </c>
       <c r="F164" t="n">
-        <v>-7.9212580421206</v>
+        <v>15.2018631290498</v>
       </c>
       <c r="G164" t="n">
-        <v>-8.1354978171858</v>
+        <v>15.7817468607427</v>
       </c>
       <c r="H164" t="n">
-        <v>-8.90884241483459</v>
+        <v>15.4578350366925</v>
       </c>
       <c r="I164" t="n">
-        <v>-8.92531750462475</v>
+        <v>17.9296965353813</v>
       </c>
       <c r="J164" t="n">
-        <v>-9.12147846227313</v>
+        <v>19.0085531618053</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-5.19961225423296</v>
+        <v>10.1865514878378</v>
       </c>
       <c r="B165" t="n">
-        <v>-5.85931519380798</v>
+        <v>11.3846217118272</v>
       </c>
       <c r="C165" t="n">
-        <v>-5.65928239276457</v>
+        <v>-6.02830753048926</v>
       </c>
       <c r="D165" t="n">
-        <v>-6.35436091453669</v>
+        <v>-6.53653586011206</v>
       </c>
       <c r="E165" t="n">
-        <v>-7.49992734803827</v>
+        <v>-6.72314590773677</v>
       </c>
       <c r="F165" t="n">
-        <v>-7.74303657261204</v>
+        <v>-7.71918697782382</v>
       </c>
       <c r="G165" t="n">
-        <v>-7.84053176054657</v>
+        <v>-8.10817266431279</v>
       </c>
       <c r="H165" t="n">
-        <v>-8.24863385053157</v>
+        <v>-8.89488483618268</v>
       </c>
       <c r="I165" t="n">
-        <v>-8.74229690112155</v>
+        <v>-9.15830803413266</v>
       </c>
       <c r="J165" t="n">
-        <v>-9.49468545561348</v>
+        <v>-9.96403544399241</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.5306974432032</v>
+        <v>-5.06531683184159</v>
       </c>
       <c r="B166" t="n">
-        <v>10.6750960225502</v>
+        <v>-5.82561885912299</v>
       </c>
       <c r="C166" t="n">
-        <v>14.356122075435</v>
+        <v>-6.17589226349557</v>
       </c>
       <c r="D166" t="n">
-        <v>13.0447748885271</v>
+        <v>-6.33708362680737</v>
       </c>
       <c r="E166" t="n">
-        <v>15.0028418124979</v>
+        <v>-7.33688929357884</v>
       </c>
       <c r="F166" t="n">
-        <v>14.3742147838456</v>
+        <v>-7.00522885348311</v>
       </c>
       <c r="G166" t="n">
-        <v>15.31215153715</v>
+        <v>-7.99674570006473</v>
       </c>
       <c r="H166" t="n">
-        <v>16.2241130667637</v>
+        <v>-8.6146536291774</v>
       </c>
       <c r="I166" t="n">
-        <v>18.7337153522485</v>
+        <v>-8.86308154563349</v>
       </c>
       <c r="J166" t="n">
-        <v>18.644091899138</v>
+        <v>-9.662394990378</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11.3026811426255</v>
+        <v>-4.79800837762076</v>
       </c>
       <c r="B167" t="n">
-        <v>10.0620068743118</v>
+        <v>-5.50655410166907</v>
       </c>
       <c r="C167" t="n">
-        <v>13.8138493594244</v>
+        <v>-5.99104947641895</v>
       </c>
       <c r="D167" t="n">
-        <v>13.0228890006301</v>
+        <v>-6.39312125253363</v>
       </c>
       <c r="E167" t="n">
-        <v>13.2019317678074</v>
+        <v>-7.06661886493306</v>
       </c>
       <c r="F167" t="n">
-        <v>16.0379595781342</v>
+        <v>-7.61044848172833</v>
       </c>
       <c r="G167" t="n">
-        <v>16.094718865137</v>
+        <v>-7.97751440558549</v>
       </c>
       <c r="H167" t="n">
-        <v>15.5924810858141</v>
+        <v>-8.76147184213154</v>
       </c>
       <c r="I167" t="n">
-        <v>17.7696818075059</v>
+        <v>-9.3659245640372</v>
       </c>
       <c r="J167" t="n">
-        <v>19.8128915966365</v>
+        <v>-9.70325907968686</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-5.15940774378777</v>
+        <v>-4.8587775501346</v>
       </c>
       <c r="B168" t="n">
-        <v>-5.02164912892365</v>
+        <v>-4.91793928879799</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.95833672884846</v>
+        <v>-5.51015939580098</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.7205976242254</v>
+        <v>-6.84241602367921</v>
       </c>
       <c r="E168" t="n">
-        <v>-7.10220776295311</v>
+        <v>-7.27571279808114</v>
       </c>
       <c r="F168" t="n">
-        <v>-6.96668367670773</v>
+        <v>-7.26182058029299</v>
       </c>
       <c r="G168" t="n">
-        <v>-7.97726355632703</v>
+        <v>-8.28843798709759</v>
       </c>
       <c r="H168" t="n">
-        <v>-8.74072926407677</v>
+        <v>-8.57387001182606</v>
       </c>
       <c r="I168" t="n">
-        <v>-9.29875252044572</v>
+        <v>-8.72006367859894</v>
       </c>
       <c r="J168" t="n">
-        <v>-9.0988433454084</v>
+        <v>-9.69504998379315</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9.0130456913706</v>
+        <v>9.07134549555592</v>
       </c>
       <c r="B169" t="n">
-        <v>12.0283720263777</v>
+        <v>11.1339406883962</v>
       </c>
       <c r="C169" t="n">
-        <v>12.6936821658721</v>
+        <v>12.3494304924444</v>
       </c>
       <c r="D169" t="n">
-        <v>12.8344802745813</v>
+        <v>11.7497602251016</v>
       </c>
       <c r="E169" t="n">
-        <v>15.5656887662191</v>
+        <v>13.1153713066249</v>
       </c>
       <c r="F169" t="n">
-        <v>14.3554045346041</v>
+        <v>16.2780589060055</v>
       </c>
       <c r="G169" t="n">
-        <v>16.9266158307656</v>
+        <v>16.7986034843224</v>
       </c>
       <c r="H169" t="n">
-        <v>17.2459612991909</v>
+        <v>-8.24967475872451</v>
       </c>
       <c r="I169" t="n">
-        <v>19.0800687869893</v>
+        <v>-9.37977907430612</v>
       </c>
       <c r="J169" t="n">
-        <v>19.5684657927965</v>
+        <v>-9.71497607889783</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-4.99922899592985</v>
+        <v>8.19443247873289</v>
       </c>
       <c r="B170" t="n">
-        <v>-5.25220492163065</v>
+        <v>10.1370413448617</v>
       </c>
       <c r="C170" t="n">
-        <v>-5.91612557004466</v>
+        <v>11.0546187130359</v>
       </c>
       <c r="D170" t="n">
-        <v>-6.57381045267109</v>
+        <v>12.847818419492</v>
       </c>
       <c r="E170" t="n">
-        <v>-7.17304063830819</v>
+        <v>14.1388834191941</v>
       </c>
       <c r="F170" t="n">
-        <v>-7.60402124269874</v>
+        <v>14.2214271076008</v>
       </c>
       <c r="G170" t="n">
-        <v>-8.21265921665417</v>
+        <v>14.8438306875633</v>
       </c>
       <c r="H170" t="n">
-        <v>-8.61325157737913</v>
+        <v>16.7002158430956</v>
       </c>
       <c r="I170" t="n">
-        <v>-9.20625697183677</v>
+        <v>17.9003386125683</v>
       </c>
       <c r="J170" t="n">
-        <v>-9.43351336526578</v>
+        <v>18.1439311465102</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-5.20114109909373</v>
+        <v>9.66787552321295</v>
       </c>
       <c r="B171" t="n">
-        <v>-5.12140026843945</v>
+        <v>10.9735091550167</v>
       </c>
       <c r="C171" t="n">
-        <v>-6.28888635143772</v>
+        <v>10.4242980671468</v>
       </c>
       <c r="D171" t="n">
-        <v>-6.43216786023765</v>
+        <v>12.4551161178747</v>
       </c>
       <c r="E171" t="n">
-        <v>-6.98998657859171</v>
+        <v>13.8558598358895</v>
       </c>
       <c r="F171" t="n">
-        <v>-7.41256259601542</v>
+        <v>15.3807651319582</v>
       </c>
       <c r="G171" t="n">
-        <v>-7.78802332518765</v>
+        <v>15.0326116236404</v>
       </c>
       <c r="H171" t="n">
-        <v>-8.69730744630881</v>
+        <v>17.5738115091149</v>
       </c>
       <c r="I171" t="n">
-        <v>-8.53331384367816</v>
+        <v>17.8626625373216</v>
       </c>
       <c r="J171" t="n">
-        <v>-9.41129642326676</v>
+        <v>17.7007349704888</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-4.80237736039795</v>
+        <v>9.7593971730503</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.65279322409497</v>
+        <v>10.9427366096588</v>
       </c>
       <c r="C172" t="n">
-        <v>-5.89114506180231</v>
+        <v>12.6045582439896</v>
       </c>
       <c r="D172" t="n">
-        <v>-6.42146339220708</v>
+        <v>13.7495180290916</v>
       </c>
       <c r="E172" t="n">
-        <v>-6.96360046492233</v>
+        <v>13.2295605324074</v>
       </c>
       <c r="F172" t="n">
-        <v>-7.26838348217438</v>
+        <v>15.2847551610735</v>
       </c>
       <c r="G172" t="n">
-        <v>-7.92356480887796</v>
+        <v>18.1810283679615</v>
       </c>
       <c r="H172" t="n">
-        <v>-8.50314864082739</v>
+        <v>16.4774046702755</v>
       </c>
       <c r="I172" t="n">
-        <v>-9.28593909689172</v>
+        <v>17.7399869121701</v>
       </c>
       <c r="J172" t="n">
-        <v>-9.1567319456088</v>
+        <v>18.1084724918408</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>11.7650093206094</v>
+        <v>9.2873800687943</v>
       </c>
       <c r="B173" t="n">
-        <v>11.6166140728841</v>
+        <v>11.1318408603276</v>
       </c>
       <c r="C173" t="n">
-        <v>11.5654353101427</v>
+        <v>11.8507412490516</v>
       </c>
       <c r="D173" t="n">
-        <v>13.7305300121899</v>
+        <v>14.7419664808756</v>
       </c>
       <c r="E173" t="n">
-        <v>13.0966174453397</v>
+        <v>13.406385755669</v>
       </c>
       <c r="F173" t="n">
-        <v>14.2653278583341</v>
+        <v>16.319319197053</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.90302203412493</v>
+        <v>-8.36430402063194</v>
       </c>
       <c r="H173" t="n">
-        <v>-8.19548116867195</v>
+        <v>-8.31830022714302</v>
       </c>
       <c r="I173" t="n">
-        <v>-9.24785731048507</v>
+        <v>-8.9609611612677</v>
       </c>
       <c r="J173" t="n">
-        <v>-9.93768027212292</v>
+        <v>-9.54681085202178</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>9.48454646392</v>
+        <v>9.42467669154767</v>
       </c>
       <c r="B174" t="n">
-        <v>10.0471403359833</v>
+        <v>11.6460372136241</v>
       </c>
       <c r="C174" t="n">
-        <v>12.5718919044844</v>
+        <v>11.5427986486477</v>
       </c>
       <c r="D174" t="n">
-        <v>-6.24305448395603</v>
+        <v>12.3581006706449</v>
       </c>
       <c r="E174" t="n">
-        <v>-7.05338681549429</v>
+        <v>14.5073171899937</v>
       </c>
       <c r="F174" t="n">
-        <v>-7.37865299252233</v>
+        <v>14.4391799653271</v>
       </c>
       <c r="G174" t="n">
-        <v>-8.15752818718143</v>
+        <v>-8.16764125693064</v>
       </c>
       <c r="H174" t="n">
-        <v>-8.20500809381057</v>
+        <v>-8.34733114785754</v>
       </c>
       <c r="I174" t="n">
-        <v>-8.8558082094987</v>
+        <v>-9.06887039978232</v>
       </c>
       <c r="J174" t="n">
-        <v>-9.72876874444832</v>
+        <v>-9.52932241580656</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10.4583448647095</v>
+        <v>-4.59019077804343</v>
       </c>
       <c r="B175" t="n">
-        <v>11.1949306614515</v>
+        <v>-5.46241077657978</v>
       </c>
       <c r="C175" t="n">
-        <v>12.1811845171816</v>
+        <v>-6.25328219320574</v>
       </c>
       <c r="D175" t="n">
-        <v>12.9586014833657</v>
+        <v>-6.760339519951</v>
       </c>
       <c r="E175" t="n">
-        <v>13.1733682969921</v>
+        <v>-7.34009475377919</v>
       </c>
       <c r="F175" t="n">
-        <v>-7.65802891242183</v>
+        <v>-7.51208943718324</v>
       </c>
       <c r="G175" t="n">
-        <v>-7.67650125287116</v>
+        <v>-7.85325055222869</v>
       </c>
       <c r="H175" t="n">
-        <v>-8.57316501738308</v>
+        <v>-8.12844226637273</v>
       </c>
       <c r="I175" t="n">
-        <v>-9.00086437870084</v>
+        <v>-9.36009012996374</v>
       </c>
       <c r="J175" t="n">
-        <v>-9.56700590172536</v>
+        <v>-9.74253757506364</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-5.05993566976176</v>
+        <v>-4.80370851648774</v>
       </c>
       <c r="B176" t="n">
-        <v>-5.81971779871115</v>
+        <v>-5.26306252153262</v>
       </c>
       <c r="C176" t="n">
-        <v>-6.09898865464147</v>
+        <v>-5.88408626298468</v>
       </c>
       <c r="D176" t="n">
-        <v>-6.45427929735466</v>
+        <v>-6.20542650084176</v>
       </c>
       <c r="E176" t="n">
-        <v>-7.01857736896722</v>
+        <v>-7.21611201841301</v>
       </c>
       <c r="F176" t="n">
-        <v>-7.56826351808307</v>
+        <v>-7.5491386411758</v>
       </c>
       <c r="G176" t="n">
-        <v>-7.82131081569285</v>
+        <v>-8.00526036126581</v>
       </c>
       <c r="H176" t="n">
-        <v>-8.71293413524262</v>
+        <v>-8.78251714388787</v>
       </c>
       <c r="I176" t="n">
-        <v>-9.09682502964447</v>
+        <v>-9.25309723866465</v>
       </c>
       <c r="J176" t="n">
-        <v>-9.52252798726807</v>
+        <v>-9.3471602604067</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>9.80516898832849</v>
+        <v>-5.50547724179068</v>
       </c>
       <c r="B177" t="n">
-        <v>-4.84013749688306</v>
+        <v>-5.40745371990798</v>
       </c>
       <c r="C177" t="n">
-        <v>-5.82211636018769</v>
+        <v>-5.95640051201276</v>
       </c>
       <c r="D177" t="n">
-        <v>-6.00695771017663</v>
+        <v>-6.73746383395874</v>
       </c>
       <c r="E177" t="n">
-        <v>-7.01865039113995</v>
+        <v>-6.9402021765009</v>
       </c>
       <c r="F177" t="n">
-        <v>-7.70504765053612</v>
+        <v>-7.75590412832433</v>
       </c>
       <c r="G177" t="n">
-        <v>-8.11141887145268</v>
+        <v>-8.13855452268185</v>
       </c>
       <c r="H177" t="n">
-        <v>-8.44528022740724</v>
+        <v>-7.98755938037518</v>
       </c>
       <c r="I177" t="n">
-        <v>-8.85830799357458</v>
+        <v>-9.22259373175824</v>
       </c>
       <c r="J177" t="n">
-        <v>-9.47838434471109</v>
+        <v>-9.57485815128177</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>8.95404522806723</v>
+        <v>-5.26340178539169</v>
       </c>
       <c r="B178" t="n">
-        <v>10.7132222104668</v>
+        <v>-5.4240177205032</v>
       </c>
       <c r="C178" t="n">
-        <v>11.9898998598652</v>
+        <v>-5.85877553340959</v>
       </c>
       <c r="D178" t="n">
-        <v>14.1120303803572</v>
+        <v>-6.63252762049441</v>
       </c>
       <c r="E178" t="n">
-        <v>14.5580579260988</v>
+        <v>-7.19275656823684</v>
       </c>
       <c r="F178" t="n">
-        <v>-7.44187019280581</v>
+        <v>-7.57551533427412</v>
       </c>
       <c r="G178" t="n">
-        <v>-8.07508472192116</v>
+        <v>-7.89401460906799</v>
       </c>
       <c r="H178" t="n">
-        <v>-8.59650621166835</v>
+        <v>-8.32486486464318</v>
       </c>
       <c r="I178" t="n">
-        <v>-9.21511742866629</v>
+        <v>-8.59776994281828</v>
       </c>
       <c r="J178" t="n">
-        <v>-9.48406982606352</v>
+        <v>-9.46549784997135</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>12.0064243220312</v>
+        <v>-5.34711605243915</v>
       </c>
       <c r="B179" t="n">
-        <v>-5.61945288194886</v>
+        <v>-5.47025672499874</v>
       </c>
       <c r="C179" t="n">
-        <v>-5.90092391714883</v>
+        <v>-6.02988942488361</v>
       </c>
       <c r="D179" t="n">
-        <v>-6.57100946268487</v>
+        <v>-6.73757265139025</v>
       </c>
       <c r="E179" t="n">
-        <v>-6.5416494902002</v>
+        <v>-6.60864272148662</v>
       </c>
       <c r="F179" t="n">
-        <v>-7.32579651504993</v>
+        <v>-7.61125474250555</v>
       </c>
       <c r="G179" t="n">
-        <v>-8.15406766562094</v>
+        <v>-8.14136390084252</v>
       </c>
       <c r="H179" t="n">
-        <v>-8.24014755716879</v>
+        <v>-8.2973015247478</v>
       </c>
       <c r="I179" t="n">
-        <v>-8.76199880945144</v>
+        <v>-9.25217961335212</v>
       </c>
       <c r="J179" t="n">
-        <v>-9.33099874971319</v>
+        <v>-9.31520990033865</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9.80489536278053</v>
+        <v>-5.14667575827129</v>
       </c>
       <c r="B180" t="n">
-        <v>11.1174749553708</v>
+        <v>-5.91482064913188</v>
       </c>
       <c r="C180" t="n">
-        <v>12.9878632526271</v>
+        <v>-6.23700699158159</v>
       </c>
       <c r="D180" t="n">
-        <v>12.5497272134585</v>
+        <v>-6.4884422796243</v>
       </c>
       <c r="E180" t="n">
-        <v>15.0630042539941</v>
+        <v>-6.45600591738025</v>
       </c>
       <c r="F180" t="n">
-        <v>14.8493345117945</v>
+        <v>-7.41069524642928</v>
       </c>
       <c r="G180" t="n">
-        <v>15.1753369400569</v>
+        <v>-7.58377214017969</v>
       </c>
       <c r="H180" t="n">
-        <v>17.0764250188232</v>
+        <v>-8.46613041177543</v>
       </c>
       <c r="I180" t="n">
-        <v>18.9527482543624</v>
+        <v>-9.39622553887273</v>
       </c>
       <c r="J180" t="n">
-        <v>18.6101541471392</v>
+        <v>-9.70232577687771</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>10.1051107667025</v>
+        <v>8.59863448522837</v>
       </c>
       <c r="B181" t="n">
-        <v>10.9800883279078</v>
+        <v>11.5378692238274</v>
       </c>
       <c r="C181" t="n">
-        <v>11.8424928946641</v>
+        <v>11.5675463796468</v>
       </c>
       <c r="D181" t="n">
-        <v>12.0281943092926</v>
+        <v>12.8778021770317</v>
       </c>
       <c r="E181" t="n">
-        <v>13.131456078186</v>
+        <v>14.391462655069</v>
       </c>
       <c r="F181" t="n">
-        <v>14.4681366631717</v>
+        <v>15.5841738469471</v>
       </c>
       <c r="G181" t="n">
-        <v>14.2721146108588</v>
+        <v>14.7589202314877</v>
       </c>
       <c r="H181" t="n">
-        <v>17.7361878206976</v>
+        <v>17.2683108558862</v>
       </c>
       <c r="I181" t="n">
-        <v>17.2167830065644</v>
+        <v>17.2008561814077</v>
       </c>
       <c r="J181" t="n">
-        <v>17.8488362049908</v>
+        <v>18.443608854865</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>9.1909200007346</v>
+        <v>8.91641431945791</v>
       </c>
       <c r="B182" t="n">
-        <v>12.014591805742</v>
+        <v>10.725321105745</v>
       </c>
       <c r="C182" t="n">
-        <v>11.9218462541701</v>
+        <v>11.979186323985</v>
       </c>
       <c r="D182" t="n">
-        <v>12.8332675775836</v>
+        <v>12.8582938026986</v>
       </c>
       <c r="E182" t="n">
-        <v>14.706930570157</v>
+        <v>15.3428920232913</v>
       </c>
       <c r="F182" t="n">
-        <v>16.094691844057</v>
+        <v>15.4041422518719</v>
       </c>
       <c r="G182" t="n">
-        <v>14.6931392821843</v>
+        <v>15.8111077845588</v>
       </c>
       <c r="H182" t="n">
-        <v>17.4018752482708</v>
+        <v>17.1228071720805</v>
       </c>
       <c r="I182" t="n">
-        <v>17.4498483591699</v>
+        <v>17.8921512955609</v>
       </c>
       <c r="J182" t="n">
-        <v>19.7381066435866</v>
+        <v>18.8735272887203</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>10.7205810113013</v>
+        <v>9.31948936717925</v>
       </c>
       <c r="B183" t="n">
-        <v>10.7232056635802</v>
+        <v>12.2862247709693</v>
       </c>
       <c r="C183" t="n">
-        <v>11.8220046381683</v>
+        <v>12.4349195436193</v>
       </c>
       <c r="D183" t="n">
-        <v>13.3400871995731</v>
+        <v>12.2527704543169</v>
       </c>
       <c r="E183" t="n">
-        <v>13.1012381867092</v>
+        <v>15.3862941527124</v>
       </c>
       <c r="F183" t="n">
-        <v>15.0171054255211</v>
+        <v>13.7960580741343</v>
       </c>
       <c r="G183" t="n">
-        <v>16.2964581426019</v>
+        <v>15.0722358516548</v>
       </c>
       <c r="H183" t="n">
-        <v>16.1366039433463</v>
+        <v>17.3356373579938</v>
       </c>
       <c r="I183" t="n">
-        <v>17.7996116223985</v>
+        <v>19.0269581714822</v>
       </c>
       <c r="J183" t="n">
-        <v>19.8611671009287</v>
+        <v>18.5984254828885</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>8.32538823232493</v>
+        <v>10.1250409404371</v>
       </c>
       <c r="B184" t="n">
-        <v>10.4273303141736</v>
+        <v>10.6827895328611</v>
       </c>
       <c r="C184" t="n">
-        <v>13.5428641548482</v>
+        <v>11.7080658809147</v>
       </c>
       <c r="D184" t="n">
-        <v>12.4054452710807</v>
+        <v>14.4248419292619</v>
       </c>
       <c r="E184" t="n">
-        <v>12.8923830118634</v>
+        <v>14.4867812788314</v>
       </c>
       <c r="F184" t="n">
-        <v>14.8496204253773</v>
+        <v>16.2933986732822</v>
       </c>
       <c r="G184" t="n">
-        <v>16.6631445718006</v>
+        <v>16.2185201400314</v>
       </c>
       <c r="H184" t="n">
-        <v>17.3517430008502</v>
+        <v>17.5723504772593</v>
       </c>
       <c r="I184" t="n">
-        <v>17.7905729242921</v>
+        <v>19.5973631429145</v>
       </c>
       <c r="J184" t="n">
-        <v>19.2608850044029</v>
+        <v>18.628499969824</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-4.84726021170121</v>
+        <v>-5.16741443781486</v>
       </c>
       <c r="B185" t="n">
-        <v>-5.92116639761593</v>
+        <v>-5.6040949740942</v>
       </c>
       <c r="C185" t="n">
-        <v>-5.70514188747869</v>
+        <v>-6.10764007997407</v>
       </c>
       <c r="D185" t="n">
-        <v>-6.28132776847888</v>
+        <v>-6.45730105677147</v>
       </c>
       <c r="E185" t="n">
-        <v>14.4960391827721</v>
+        <v>-6.79344890497436</v>
       </c>
       <c r="F185" t="n">
-        <v>15.6636930790891</v>
+        <v>-7.78506697889928</v>
       </c>
       <c r="G185" t="n">
-        <v>16.4523309452736</v>
+        <v>-7.71201797919922</v>
       </c>
       <c r="H185" t="n">
-        <v>16.9616895373403</v>
+        <v>-8.38343424139121</v>
       </c>
       <c r="I185" t="n">
-        <v>17.6846927642711</v>
+        <v>-8.6742817661547</v>
       </c>
       <c r="J185" t="n">
-        <v>19.0146665157414</v>
+        <v>-9.33432444172024</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9.52580870818314</v>
+        <v>10.9227117813321</v>
       </c>
       <c r="B186" t="n">
-        <v>11.3079257734368</v>
+        <v>11.7468177909817</v>
       </c>
       <c r="C186" t="n">
-        <v>11.3737122739955</v>
+        <v>11.7602936204238</v>
       </c>
       <c r="D186" t="n">
-        <v>13.1797259898706</v>
+        <v>13.4341080532033</v>
       </c>
       <c r="E186" t="n">
-        <v>13.9520373650685</v>
+        <v>13.4807956920258</v>
       </c>
       <c r="F186" t="n">
-        <v>13.0907056405769</v>
+        <v>13.8135128686099</v>
       </c>
       <c r="G186" t="n">
-        <v>16.2752018681046</v>
+        <v>16.1851856496314</v>
       </c>
       <c r="H186" t="n">
-        <v>17.4295618486942</v>
+        <v>17.5471939758825</v>
       </c>
       <c r="I186" t="n">
-        <v>17.1254926345714</v>
+        <v>19.2986369619848</v>
       </c>
       <c r="J186" t="n">
-        <v>17.8483676063877</v>
+        <v>-10.098336114697</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-5.1927670638063</v>
+        <v>9.69249840578981</v>
       </c>
       <c r="B187" t="n">
-        <v>-5.57722968450662</v>
+        <v>12.194904536308</v>
       </c>
       <c r="C187" t="n">
-        <v>-6.10852507754774</v>
+        <v>13.848135064993</v>
       </c>
       <c r="D187" t="n">
-        <v>-6.12014365549434</v>
+        <v>13.9719285611963</v>
       </c>
       <c r="E187" t="n">
-        <v>-7.20871143276857</v>
+        <v>12.7832396160936</v>
       </c>
       <c r="F187" t="n">
-        <v>-7.62463854386766</v>
+        <v>14.3873685278781</v>
       </c>
       <c r="G187" t="n">
-        <v>-8.24110874511165</v>
+        <v>15.7142071453733</v>
       </c>
       <c r="H187" t="n">
-        <v>-8.67508268113495</v>
+        <v>18.1452420614196</v>
       </c>
       <c r="I187" t="n">
-        <v>-9.18357405923145</v>
+        <v>19.4098094616767</v>
       </c>
       <c r="J187" t="n">
-        <v>-9.55769138022231</v>
+        <v>20.0133424248574</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-5.45571879795887</v>
+        <v>10.6020400532919</v>
       </c>
       <c r="B188" t="n">
-        <v>-5.82663616318965</v>
+        <v>12.1151890708888</v>
       </c>
       <c r="C188" t="n">
-        <v>-6.30897828076159</v>
+        <v>12.3187917235323</v>
       </c>
       <c r="D188" t="n">
-        <v>-6.76348305459428</v>
+        <v>13.289285417102</v>
       </c>
       <c r="E188" t="n">
-        <v>-7.13366447110327</v>
+        <v>12.343657102326</v>
       </c>
       <c r="F188" t="n">
-        <v>-7.67336968482886</v>
+        <v>13.9217581302391</v>
       </c>
       <c r="G188" t="n">
-        <v>-8.44534632929386</v>
+        <v>15.9070538048947</v>
       </c>
       <c r="H188" t="n">
-        <v>-8.53783894439923</v>
+        <v>17.0092033833268</v>
       </c>
       <c r="I188" t="n">
-        <v>-8.46074990902019</v>
+        <v>16.4282645246386</v>
       </c>
       <c r="J188" t="n">
-        <v>-9.67426682112131</v>
+        <v>17.7686080897609</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>10.8342181299349</v>
+        <v>10.1734644963853</v>
       </c>
       <c r="B189" t="n">
-        <v>11.9910387581187</v>
+        <v>10.2741563224272</v>
       </c>
       <c r="C189" t="n">
-        <v>12.8143594526082</v>
+        <v>12.6193967760515</v>
       </c>
       <c r="D189" t="n">
-        <v>12.451195300142</v>
+        <v>12.6769767226596</v>
       </c>
       <c r="E189" t="n">
-        <v>-6.74906204621213</v>
+        <v>14.5399015373721</v>
       </c>
       <c r="F189" t="n">
-        <v>-6.93963970228631</v>
+        <v>15.2805885210215</v>
       </c>
       <c r="G189" t="n">
-        <v>-7.80598984291923</v>
+        <v>15.0312048730733</v>
       </c>
       <c r="H189" t="n">
-        <v>-8.26054616813032</v>
+        <v>17.3135789982045</v>
       </c>
       <c r="I189" t="n">
-        <v>-9.14751763032873</v>
+        <v>18.3179835198694</v>
       </c>
       <c r="J189" t="n">
-        <v>-9.45742977276049</v>
+        <v>17.860286647615</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>8.77883423221099</v>
+        <v>10.5969003912223</v>
       </c>
       <c r="B190" t="n">
-        <v>10.5464336494445</v>
+        <v>10.7917449521331</v>
       </c>
       <c r="C190" t="n">
-        <v>-6.19983111688724</v>
+        <v>12.3845296137686</v>
       </c>
       <c r="D190" t="n">
-        <v>-6.75433415202941</v>
+        <v>12.5944014812954</v>
       </c>
       <c r="E190" t="n">
-        <v>-7.05093994581779</v>
+        <v>13.6849202355198</v>
       </c>
       <c r="F190" t="n">
-        <v>-7.41593432889902</v>
+        <v>15.0996806641992</v>
       </c>
       <c r="G190" t="n">
-        <v>-7.758359575656</v>
+        <v>16.3268558891984</v>
       </c>
       <c r="H190" t="n">
-        <v>-8.72016894608086</v>
+        <v>17.623986162826</v>
       </c>
       <c r="I190" t="n">
-        <v>-9.04259297325576</v>
+        <v>18.8618953644012</v>
       </c>
       <c r="J190" t="n">
-        <v>-9.31852370241919</v>
+        <v>19.6942375730136</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-4.9525682338618</v>
+        <v>11.1954463657418</v>
       </c>
       <c r="B191" t="n">
-        <v>-5.75149117105683</v>
+        <v>11.2117862194353</v>
       </c>
       <c r="C191" t="n">
-        <v>-6.09129410230849</v>
+        <v>10.686704789259</v>
       </c>
       <c r="D191" t="n">
-        <v>-6.35099749201667</v>
+        <v>-6.56742367428086</v>
       </c>
       <c r="E191" t="n">
-        <v>-7.00317640146538</v>
+        <v>-7.1040583858745</v>
       </c>
       <c r="F191" t="n">
-        <v>-7.53270344714409</v>
+        <v>-7.51903980129687</v>
       </c>
       <c r="G191" t="n">
-        <v>-7.7868316955689</v>
+        <v>-8.2008626525829</v>
       </c>
       <c r="H191" t="n">
-        <v>-8.81913443318358</v>
+        <v>-8.92943378931367</v>
       </c>
       <c r="I191" t="n">
-        <v>-9.11865285060499</v>
+        <v>-9.23082048249822</v>
       </c>
       <c r="J191" t="n">
-        <v>-9.47809872284694</v>
+        <v>-9.1278643223412</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>10.1257746933813</v>
+        <v>11.5448225292104</v>
       </c>
       <c r="B192" t="n">
-        <v>9.95878540916654</v>
+        <v>11.2321852292813</v>
       </c>
       <c r="C192" t="n">
-        <v>11.4595858796041</v>
+        <v>12.5404908831003</v>
       </c>
       <c r="D192" t="n">
-        <v>11.4311048614485</v>
+        <v>12.4862719859753</v>
       </c>
       <c r="E192" t="n">
-        <v>13.6793731270331</v>
+        <v>14.4361662836975</v>
       </c>
       <c r="F192" t="n">
-        <v>15.0885925380345</v>
+        <v>15.0129880353854</v>
       </c>
       <c r="G192" t="n">
-        <v>17.492196208667</v>
+        <v>17.0005539788688</v>
       </c>
       <c r="H192" t="n">
-        <v>17.9123925144965</v>
+        <v>17.3878869767397</v>
       </c>
       <c r="I192" t="n">
-        <v>18.0462366287019</v>
+        <v>17.0975270259419</v>
       </c>
       <c r="J192" t="n">
-        <v>18.6540068354829</v>
+        <v>20.2332360930128</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>9.93494057297477</v>
+        <v>-5.08085299853802</v>
       </c>
       <c r="B193" t="n">
-        <v>10.6558976840242</v>
+        <v>-5.52849051795234</v>
       </c>
       <c r="C193" t="n">
-        <v>11.4176005253668</v>
+        <v>-6.18619830867167</v>
       </c>
       <c r="D193" t="n">
-        <v>-6.67621081114864</v>
+        <v>-6.76518111361209</v>
       </c>
       <c r="E193" t="n">
-        <v>-6.99614866559619</v>
+        <v>-6.96870228001165</v>
       </c>
       <c r="F193" t="n">
-        <v>-7.44046109700228</v>
+        <v>-7.39219467130399</v>
       </c>
       <c r="G193" t="n">
-        <v>-7.83304629843559</v>
+        <v>-8.39530122336395</v>
       </c>
       <c r="H193" t="n">
-        <v>17.4391262827296</v>
+        <v>-8.91634907208499</v>
       </c>
       <c r="I193" t="n">
-        <v>17.5731077889946</v>
+        <v>-8.53390351106443</v>
       </c>
       <c r="J193" t="n">
-        <v>18.2047373133565</v>
+        <v>-9.56393258450178</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-4.81247484374718</v>
+        <v>-4.68139526258947</v>
       </c>
       <c r="B194" t="n">
-        <v>-5.90912699539197</v>
+        <v>-5.28343379243911</v>
       </c>
       <c r="C194" t="n">
-        <v>-5.88701936841201</v>
+        <v>-6.36584473801881</v>
       </c>
       <c r="D194" t="n">
-        <v>-6.38161026400765</v>
+        <v>-6.92719173172843</v>
       </c>
       <c r="E194" t="n">
-        <v>-6.89856165865712</v>
+        <v>-7.01093189693681</v>
       </c>
       <c r="F194" t="n">
-        <v>-7.05296726821618</v>
+        <v>-7.90109757439554</v>
       </c>
       <c r="G194" t="n">
-        <v>-8.08721050412752</v>
+        <v>-7.98504714607207</v>
       </c>
       <c r="H194" t="n">
-        <v>-8.76766048081082</v>
+        <v>-8.67804016825967</v>
       </c>
       <c r="I194" t="n">
-        <v>-9.02337769990822</v>
+        <v>-8.71670661435144</v>
       </c>
       <c r="J194" t="n">
-        <v>-9.57811827382366</v>
+        <v>-9.31056904011434</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>9.45235714300143</v>
+        <v>-4.9593691748804</v>
       </c>
       <c r="B195" t="n">
-        <v>10.0398908903392</v>
+        <v>-6.02952344455596</v>
       </c>
       <c r="C195" t="n">
-        <v>12.2565002769832</v>
+        <v>-5.99851981824475</v>
       </c>
       <c r="D195" t="n">
-        <v>13.2237008175442</v>
+        <v>-6.79243680620989</v>
       </c>
       <c r="E195" t="n">
-        <v>14.1699858050309</v>
+        <v>-7.22739546534961</v>
       </c>
       <c r="F195" t="n">
-        <v>14.7743532025129</v>
+        <v>-8.1955355129304</v>
       </c>
       <c r="G195" t="n">
-        <v>16.0606948472333</v>
+        <v>-8.00156613474656</v>
       </c>
       <c r="H195" t="n">
-        <v>16.0699148605623</v>
+        <v>-8.10867798659058</v>
       </c>
       <c r="I195" t="n">
-        <v>17.844316588173</v>
+        <v>-8.78744229627186</v>
       </c>
       <c r="J195" t="n">
-        <v>-9.30358996612496</v>
+        <v>-9.18132596845262</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>10.2035765808227</v>
+        <v>9.25631244844982</v>
       </c>
       <c r="B196" t="n">
-        <v>11.2065826982428</v>
+        <v>10.3572477947243</v>
       </c>
       <c r="C196" t="n">
-        <v>11.3864943764211</v>
+        <v>12.3709219013132</v>
       </c>
       <c r="D196" t="n">
-        <v>12.1594713582819</v>
+        <v>13.0543746733715</v>
       </c>
       <c r="E196" t="n">
-        <v>13.9972978330482</v>
+        <v>13.4504036915755</v>
       </c>
       <c r="F196" t="n">
-        <v>14.2628183479347</v>
+        <v>15.3535929446209</v>
       </c>
       <c r="G196" t="n">
-        <v>16.6866203466635</v>
+        <v>16.2537765668211</v>
       </c>
       <c r="H196" t="n">
-        <v>17.6737114164216</v>
+        <v>17.6766637913238</v>
       </c>
       <c r="I196" t="n">
-        <v>17.8431062579328</v>
+        <v>19.2143201942863</v>
       </c>
       <c r="J196" t="n">
-        <v>19.1062982130998</v>
+        <v>19.1533031588291</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-5.03723762006478</v>
+        <v>-5.21804678749725</v>
       </c>
       <c r="B197" t="n">
-        <v>-5.26573925242618</v>
+        <v>-5.54557506737707</v>
       </c>
       <c r="C197" t="n">
-        <v>-6.27896314536329</v>
+        <v>-5.98370972761894</v>
       </c>
       <c r="D197" t="n">
-        <v>-6.53564068422026</v>
+        <v>-6.53735798154104</v>
       </c>
       <c r="E197" t="n">
-        <v>-7.12405430660241</v>
+        <v>-6.70484239753742</v>
       </c>
       <c r="F197" t="n">
-        <v>-7.26886462582248</v>
+        <v>-7.45683924084262</v>
       </c>
       <c r="G197" t="n">
-        <v>-8.24332849854042</v>
+        <v>15.3975989993525</v>
       </c>
       <c r="H197" t="n">
-        <v>-8.28392498815379</v>
+        <v>16.7377381663289</v>
       </c>
       <c r="I197" t="n">
-        <v>-9.03474489115813</v>
+        <v>18.2699461412773</v>
       </c>
       <c r="J197" t="n">
-        <v>-8.97908502033288</v>
+        <v>20.5668060337271</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-5.22745749756428</v>
+        <v>9.93326828799184</v>
       </c>
       <c r="B198" t="n">
-        <v>-5.40882916618619</v>
+        <v>11.2487247502214</v>
       </c>
       <c r="C198" t="n">
-        <v>-6.54721997917117</v>
+        <v>12.5984731560323</v>
       </c>
       <c r="D198" t="n">
-        <v>-6.61105611776472</v>
+        <v>12.7634040381133</v>
       </c>
       <c r="E198" t="n">
-        <v>-7.04844302232734</v>
+        <v>-7.64280298362588</v>
       </c>
       <c r="F198" t="n">
-        <v>-7.13749864354601</v>
+        <v>-7.36004869809936</v>
       </c>
       <c r="G198" t="n">
-        <v>-7.73845065006215</v>
+        <v>-8.25200297236239</v>
       </c>
       <c r="H198" t="n">
-        <v>-8.59918226514933</v>
+        <v>-8.38513736353458</v>
       </c>
       <c r="I198" t="n">
-        <v>-9.0235912344268</v>
+        <v>-9.08156824904499</v>
       </c>
       <c r="J198" t="n">
-        <v>-9.10662538740958</v>
+        <v>-9.03107405870624</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8.6740804317864</v>
+        <v>-5.03127421691755</v>
       </c>
       <c r="B199" t="n">
-        <v>10.7623420499404</v>
+        <v>-5.51724692662479</v>
       </c>
       <c r="C199" t="n">
-        <v>12.4967279860121</v>
+        <v>-6.02881198760568</v>
       </c>
       <c r="D199" t="n">
-        <v>11.2121536330296</v>
+        <v>-6.28290705681914</v>
       </c>
       <c r="E199" t="n">
-        <v>14.874066003828</v>
+        <v>-6.73537984283245</v>
       </c>
       <c r="F199" t="n">
-        <v>13.6499043999713</v>
+        <v>-7.58076560416079</v>
       </c>
       <c r="G199" t="n">
-        <v>15.9265002251222</v>
+        <v>-8.16360300255641</v>
       </c>
       <c r="H199" t="n">
-        <v>16.7979573813149</v>
+        <v>-8.66987345847901</v>
       </c>
       <c r="I199" t="n">
-        <v>18.9082121826014</v>
+        <v>-9.33944199708439</v>
       </c>
       <c r="J199" t="n">
-        <v>18.5653714090558</v>
+        <v>-9.36755301171121</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-5.0810280827852</v>
+        <v>10.2899444870019</v>
       </c>
       <c r="B200" t="n">
-        <v>-5.48419000219158</v>
+        <v>11.5632411762699</v>
       </c>
       <c r="C200" t="n">
-        <v>-6.12911844650613</v>
+        <v>11.5483401368861</v>
       </c>
       <c r="D200" t="n">
-        <v>-6.44846460406542</v>
+        <v>12.3783884185071</v>
       </c>
       <c r="E200" t="n">
-        <v>-6.92010380723124</v>
+        <v>13.669683133313</v>
       </c>
       <c r="F200" t="n">
-        <v>-7.24937876732284</v>
+        <v>14.6003772955354</v>
       </c>
       <c r="G200" t="n">
-        <v>-7.5759097730395</v>
+        <v>18.4323176063969</v>
       </c>
       <c r="H200" t="n">
-        <v>-8.70904869101293</v>
+        <v>16.6529364329316</v>
       </c>
       <c r="I200" t="n">
-        <v>-8.84449558651313</v>
+        <v>17.5266417248783</v>
       </c>
       <c r="J200" t="n">
-        <v>-9.41463952181353</v>
+        <v>19.529760675193</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>9.55759701755779</v>
+        <v>-4.96267618889937</v>
       </c>
       <c r="B201" t="n">
-        <v>10.3992988988627</v>
+        <v>-5.40036951858864</v>
       </c>
       <c r="C201" t="n">
-        <v>11.5194090311711</v>
+        <v>-5.5682171483683</v>
       </c>
       <c r="D201" t="n">
-        <v>-6.66938098323374</v>
+        <v>-6.44984756365411</v>
       </c>
       <c r="E201" t="n">
-        <v>-6.70741205161189</v>
+        <v>-6.92033337860993</v>
       </c>
       <c r="F201" t="n">
-        <v>-7.4893423323216</v>
+        <v>-7.49517444333287</v>
       </c>
       <c r="G201" t="n">
-        <v>-8.24974676066608</v>
+        <v>-7.88584508741689</v>
       </c>
       <c r="H201" t="n">
-        <v>-8.4029625317567</v>
+        <v>-8.32041829922271</v>
       </c>
       <c r="I201" t="n">
-        <v>-9.10115009471317</v>
+        <v>-8.82165754386472</v>
       </c>
       <c r="J201" t="n">
-        <v>-9.0363395037715</v>
+        <v>-9.91426961815702</v>
       </c>
     </row>
   </sheetData>
